--- a/Trade_PPT/trade_ppt_data.xlsx
+++ b/Trade_PPT/trade_ppt_data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="12" windowWidth="16092" windowHeight="9660" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="12" windowWidth="16092" windowHeight="9660" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="auto trade" sheetId="1" r:id="rId1"/>
@@ -18,17 +18,13 @@
     <sheet name="manu trade real" sheetId="4" r:id="rId4"/>
     <sheet name="fx" sheetId="5" r:id="rId5"/>
     <sheet name="bls" sheetId="6" r:id="rId6"/>
-    <sheet name="auto share" sheetId="7" r:id="rId7"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId8"/>
-  </externalReferences>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="34">
   <si>
     <t>rgDesc</t>
   </si>
@@ -120,25 +116,24 @@
     <t>Auto_real_wage</t>
   </si>
   <si>
-    <t>Auto Industry</t>
+    <t>2017 (May)</t>
   </si>
   <si>
-    <t>All</t>
+    <t>Total</t>
   </si>
   <si>
-    <t>Share</t>
+    <t>Manufacturing</t>
   </si>
   <si>
-    <t>GDP</t>
+    <t>Autos</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -203,7 +198,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -214,10 +209,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -950,7 +941,17 @@
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="9.2657845921752455E-2"/>
+          <c:y val="2.916998143728454E-2"/>
+          <c:w val="0.7692949053814383"/>
+          <c:h val="0.90931246959285217"/>
+        </c:manualLayout>
+      </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
@@ -958,9 +959,12 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="38100" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -2972,9 +2976,9 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="38100" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:srgbClr val="0070C0"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -4986,9 +4990,9 @@
           <c:idx val="2"/>
           <c:order val="2"/>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="38100" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent3"/>
+                <a:srgbClr val="002060"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -7037,7 +7041,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -7082,6 +7086,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1600"/>
+                  <a:t>Index, 1990=100</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -7098,7 +7157,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -7134,12 +7193,7 @@
       <a:schemeClr val="bg1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
+      <a:noFill/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -7159,6 +7213,7 @@
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
+  <c:userShapes r:id="rId3"/>
 </c:chartSpace>
 </file>
 
@@ -9377,28 +9432,27 @@
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="9.2657845921752455E-2"/>
+          <c:y val="2.916998143728454E-2"/>
+          <c:w val="0.88800780759949516"/>
+          <c:h val="0.88544612114416488"/>
+        </c:manualLayout>
+      </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="1"/>
+          <c:idx val="2"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'auto share'!$D$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Share</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="38100" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:srgbClr val="002060"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -9409,438 +9463,1992 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'auto share'!$A$2:$A$71</c:f>
+              <c:f>bls!$A$2:$A$330</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="70"/>
+                <c:formatCode>yyyy\-mm\-dd\ hh:mm:ss</c:formatCode>
+                <c:ptCount val="329"/>
                 <c:pt idx="0">
-                  <c:v>1947</c:v>
+                  <c:v>32874</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1948</c:v>
+                  <c:v>32905</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1949</c:v>
+                  <c:v>32933</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1950</c:v>
+                  <c:v>32964</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1951</c:v>
+                  <c:v>32994</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1952</c:v>
+                  <c:v>33025</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1953</c:v>
+                  <c:v>33055</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1954</c:v>
+                  <c:v>33086</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1955</c:v>
+                  <c:v>33117</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1956</c:v>
+                  <c:v>33147</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1957</c:v>
+                  <c:v>33178</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1958</c:v>
+                  <c:v>33208</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1959</c:v>
+                  <c:v>33239</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1960</c:v>
+                  <c:v>33270</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1961</c:v>
+                  <c:v>33298</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1962</c:v>
+                  <c:v>33329</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1963</c:v>
+                  <c:v>33359</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1964</c:v>
+                  <c:v>33390</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1965</c:v>
+                  <c:v>33420</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1966</c:v>
+                  <c:v>33451</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1967</c:v>
+                  <c:v>33482</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1968</c:v>
+                  <c:v>33512</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1969</c:v>
+                  <c:v>33543</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1970</c:v>
+                  <c:v>33573</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1971</c:v>
+                  <c:v>33604</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1972</c:v>
+                  <c:v>33635</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1973</c:v>
+                  <c:v>33664</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1974</c:v>
+                  <c:v>33695</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1975</c:v>
+                  <c:v>33725</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1976</c:v>
+                  <c:v>33756</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1977</c:v>
+                  <c:v>33786</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1978</c:v>
+                  <c:v>33817</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1979</c:v>
+                  <c:v>33848</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1980</c:v>
+                  <c:v>33878</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1981</c:v>
+                  <c:v>33909</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1982</c:v>
+                  <c:v>33939</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1983</c:v>
+                  <c:v>33970</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>1984</c:v>
+                  <c:v>34001</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1985</c:v>
+                  <c:v>34029</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1986</c:v>
+                  <c:v>34060</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>1987</c:v>
+                  <c:v>34090</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>1988</c:v>
+                  <c:v>34121</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>1989</c:v>
+                  <c:v>34151</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>1990</c:v>
+                  <c:v>34182</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>1991</c:v>
+                  <c:v>34213</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>1992</c:v>
+                  <c:v>34243</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>1993</c:v>
+                  <c:v>34274</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>1994</c:v>
+                  <c:v>34304</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>1995</c:v>
+                  <c:v>34335</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>1996</c:v>
+                  <c:v>34366</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>1997</c:v>
+                  <c:v>34394</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>1998</c:v>
+                  <c:v>34425</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>1999</c:v>
+                  <c:v>34455</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>2000</c:v>
+                  <c:v>34486</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>2001</c:v>
+                  <c:v>34516</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>2002</c:v>
+                  <c:v>34547</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>2003</c:v>
+                  <c:v>34578</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>2004</c:v>
+                  <c:v>34608</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>2005</c:v>
+                  <c:v>34639</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>2006</c:v>
+                  <c:v>34669</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>2007</c:v>
+                  <c:v>34700</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>2008</c:v>
+                  <c:v>34731</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>2009</c:v>
+                  <c:v>34759</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>2010</c:v>
+                  <c:v>34790</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>2011</c:v>
+                  <c:v>34820</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>2012</c:v>
+                  <c:v>34851</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>2013</c:v>
+                  <c:v>34881</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>2014</c:v>
+                  <c:v>34912</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>2015</c:v>
+                  <c:v>34943</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>2016</c:v>
+                  <c:v>34973</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>35004</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>35034</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>35065</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>35096</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>35125</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>35156</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>35186</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>35217</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>35247</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>35278</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>35309</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>35339</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>35370</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>35400</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>35431</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>35462</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>35490</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>35521</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>35551</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>35582</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>35612</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>35643</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>35674</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>35704</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>35735</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>35765</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>35796</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>35827</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>35855</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>35886</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>35916</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>35947</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>35977</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>36008</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>36039</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>36069</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>36100</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>36130</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>36161</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>36192</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>36220</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>36251</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>36281</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>36312</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>36342</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>36373</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>36404</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>36434</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>36465</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>36495</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>36526</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>36557</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>36586</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>36617</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>36647</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>36678</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>36708</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>36739</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>36770</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>36800</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>36831</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>36861</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>36892</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>36923</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>36951</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>36982</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>37012</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>37043</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>37073</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>37104</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>37135</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>37165</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>37196</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>37226</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>37257</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>37288</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>37316</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>37347</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>37377</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>37408</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>37438</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>37469</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>37500</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>37530</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>37561</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>37591</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>37622</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>37653</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>37681</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>37712</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>37742</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>37773</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>37803</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>37834</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>37865</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>37895</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>37926</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>37956</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>37987</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>38018</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>38047</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>38078</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>38108</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>38139</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>38169</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>38200</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>38231</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>38261</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>38292</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>38322</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>38353</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>38384</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>38412</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>38443</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>38473</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>38504</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>38534</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>38565</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>38596</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>38626</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>38657</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>38687</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>38718</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>38749</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>38777</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>38808</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>38838</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>38869</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>38899</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>38930</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>38961</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>38991</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>39022</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>39052</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>39083</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>39114</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>39142</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>39173</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>39203</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>39234</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>39264</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>39295</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>39326</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>39356</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>39387</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>39417</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>39448</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>39479</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>39508</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>39539</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>39569</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>39600</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>39630</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>39661</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>39692</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>39722</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>39753</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>39783</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>39814</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>39845</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>39873</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>39904</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>39934</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>39965</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>39995</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>40026</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>40057</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>40087</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>40118</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>40148</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>40179</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>40210</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>40238</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>40269</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>40299</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>40330</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>40360</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>40391</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>40422</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>40452</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>40483</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>40513</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>40544</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>40575</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>40603</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>40634</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>40664</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>40695</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>40725</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>40756</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>40787</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>40817</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>40848</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>40878</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>40909</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>40940</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>40969</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>41000</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>41030</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>41061</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>41091</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>41122</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>41153</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>41183</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>41214</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>41244</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>41275</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>41306</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>41334</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>41365</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>41395</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>41426</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>41456</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>41487</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>41518</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>41548</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>41579</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>41609</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>41640</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>41671</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>41699</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>41730</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>41760</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>41791</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>41821</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>41852</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>41883</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>41913</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>41944</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>41974</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>42005</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>42036</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>42064</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>42095</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>42125</c:v>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v>42156</c:v>
+                </c:pt>
+                <c:pt idx="306">
+                  <c:v>42186</c:v>
+                </c:pt>
+                <c:pt idx="307">
+                  <c:v>42217</c:v>
+                </c:pt>
+                <c:pt idx="308">
+                  <c:v>42248</c:v>
+                </c:pt>
+                <c:pt idx="309">
+                  <c:v>42278</c:v>
+                </c:pt>
+                <c:pt idx="310">
+                  <c:v>42309</c:v>
+                </c:pt>
+                <c:pt idx="311">
+                  <c:v>42339</c:v>
+                </c:pt>
+                <c:pt idx="312">
+                  <c:v>42370</c:v>
+                </c:pt>
+                <c:pt idx="313">
+                  <c:v>42401</c:v>
+                </c:pt>
+                <c:pt idx="314">
+                  <c:v>42430</c:v>
+                </c:pt>
+                <c:pt idx="315">
+                  <c:v>42461</c:v>
+                </c:pt>
+                <c:pt idx="316">
+                  <c:v>42491</c:v>
+                </c:pt>
+                <c:pt idx="317">
+                  <c:v>42522</c:v>
+                </c:pt>
+                <c:pt idx="318">
+                  <c:v>42552</c:v>
+                </c:pt>
+                <c:pt idx="319">
+                  <c:v>42583</c:v>
+                </c:pt>
+                <c:pt idx="320">
+                  <c:v>42614</c:v>
+                </c:pt>
+                <c:pt idx="321">
+                  <c:v>42644</c:v>
+                </c:pt>
+                <c:pt idx="322">
+                  <c:v>42675</c:v>
+                </c:pt>
+                <c:pt idx="323">
+                  <c:v>42705</c:v>
+                </c:pt>
+                <c:pt idx="324">
+                  <c:v>42736</c:v>
+                </c:pt>
+                <c:pt idx="325">
+                  <c:v>42767</c:v>
+                </c:pt>
+                <c:pt idx="326">
+                  <c:v>42795</c:v>
+                </c:pt>
+                <c:pt idx="327">
+                  <c:v>42826</c:v>
+                </c:pt>
+                <c:pt idx="328">
+                  <c:v>42856</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'auto share'!$D$2:$D$71</c:f>
+              <c:f>bls!$M$2:$M$330</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="70"/>
+                <c:ptCount val="329"/>
                 <c:pt idx="0">
-                  <c:v>3.1602637049657654</c:v>
+                  <c:v>26.804248215701829</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.3739279247010132</c:v>
+                  <c:v>28.09167298578199</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.1257736927800428</c:v>
+                  <c:v>28.228422047244091</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.8756723454038227</c:v>
+                  <c:v>28.030825216025139</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.8007765602231314</c:v>
+                  <c:v>28.080331764705878</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.2535102666097231</c:v>
+                  <c:v>28.057159516380661</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.9817514891498997</c:v>
+                  <c:v>27.722885869565221</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.8116964644096156</c:v>
+                  <c:v>27.579876443418009</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.5876623255269235</c:v>
+                  <c:v>27.587698624904512</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.8164692521611454</c:v>
+                  <c:v>27.800200455580871</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.9810193803318752</c:v>
+                  <c:v>26.88598410295231</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.1740867955092629</c:v>
+                  <c:v>27.110645660377362</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3.7648488810353107</c:v>
+                  <c:v>27.316019187358918</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4.0063207481539642</c:v>
+                  <c:v>27.208405191873592</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3.3408385447463038</c:v>
+                  <c:v>27.170025563909771</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3.8585746958457041</c:v>
+                  <c:v>27.609569392348089</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3.9548547090097177</c:v>
+                  <c:v>27.666729820627801</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4.0059336439057471</c:v>
+                  <c:v>27.818137583892621</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4.4220771369846448</c:v>
+                  <c:v>28.22042814594192</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4.0803279508344064</c:v>
+                  <c:v>27.99814747399703</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3.4226391369248517</c:v>
+                  <c:v>28.23301</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>3.7637814932669822</c:v>
+                  <c:v>28.24413683431953</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>3.6219341593990628</c:v>
+                  <c:v>27.978925625920471</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>3.0223114889540299</c:v>
+                  <c:v>27.826751101321591</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>3.6146252962807623</c:v>
+                  <c:v>27.354221365638772</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>3.6056420004255325</c:v>
+                  <c:v>27.643354945054941</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>3.6749791334372688</c:v>
+                  <c:v>27.51035062089116</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>3.0220951233568831</c:v>
+                  <c:v>27.51969096209913</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2.8453117765529115</c:v>
+                  <c:v>27.63300436363637</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>3.3243855911171947</c:v>
+                  <c:v>27.550157608695649</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>3.5451527641042766</c:v>
+                  <c:v>27.711653540462429</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>3.6133987834486909</c:v>
+                  <c:v>27.634529199711611</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>3.2639620599837182</c:v>
+                  <c:v>27.31765791366907</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>2.4745862188463903</c:v>
+                  <c:v>27.322267741935491</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>2.5347316261087287</c:v>
+                  <c:v>27.263636266094419</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>2.3982672115572803</c:v>
+                  <c:v>27.32435331905781</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>2.8007702585820691</c:v>
+                  <c:v>27.46711281138791</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>3.0656476612424792</c:v>
+                  <c:v>27.527094460227271</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>2.9726407354535662</c:v>
+                  <c:v>27.57257553191489</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>2.9239116783324981</c:v>
+                  <c:v>27.646294200848651</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>2.8191778767923106</c:v>
+                  <c:v>27.77002679830747</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>2.8097647874171172</c:v>
+                  <c:v>27.74770035211268</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>2.7417177060341031</c:v>
+                  <c:v>27.51010555946516</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>2.4065279862757376</c:v>
+                  <c:v>27.602800912921349</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>2.2773592961919396</c:v>
+                  <c:v>27.76743157894737</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>2.4844085049851161</c:v>
+                  <c:v>27.947963337988831</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>2.6536676689671008</c:v>
+                  <c:v>28.258054393305439</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>2.908768809507436</c:v>
+                  <c:v>28.447875782880999</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>2.848907161336939</c:v>
+                  <c:v>28.394940542420031</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>2.7219518854904194</c:v>
+                  <c:v>28.554140624999999</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>2.7930387603704387</c:v>
+                  <c:v>28.36262681912682</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>2.7619937675825117</c:v>
+                  <c:v>28.504824913494819</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>2.9133136744557602</c:v>
+                  <c:v>28.330536256906079</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>2.5971096219296541</c:v>
+                  <c:v>28.331476600137641</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>2.4138793143574007</c:v>
+                  <c:v>28.329328992460589</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>2.494879529036619</c:v>
+                  <c:v>28.408552218430039</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>2.4312695700145572</c:v>
+                  <c:v>28.399208787465941</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>2.3476395639030012</c:v>
+                  <c:v>28.26629203539823</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>2.2275205199769168</c:v>
+                  <c:v>28.416085539714871</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>2.1072682706446444</c:v>
+                  <c:v>28.422926829268299</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>1.9630116993054569</c:v>
+                  <c:v>28.346108108108108</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>1.5699239106386618</c:v>
+                  <c:v>28.462451482479779</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>1.2978300283872055</c:v>
+                  <c:v>28.34394044414536</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>1.6198277618021184</c:v>
+                  <c:v>27.974337466487938</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>1.7752197661742162</c:v>
+                  <c:v>27.950089966555179</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>1.7820033362585661</c:v>
+                  <c:v>28.02141288384512</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>1.8516349561745675</c:v>
+                  <c:v>28.273046697798531</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>1.9414180237211314</c:v>
+                  <c:v>28.184836218375509</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>2.1595869137019772</c:v>
+                  <c:v>28.147356382978732</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>2.2239536854303119</c:v>
+                  <c:v>28.246568633952251</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>28.10148011928429</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>28.027186715135489</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>28.02356940789474</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>27.96836868023637</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>27.06354741661217</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>28.3893647327249</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>28.300031859557869</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>28.35614805194805</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>28.501842190537911</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>28.326093203883499</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>28.252946417043251</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>27.732555984555979</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>27.67419178960872</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>27.954129558541261</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>28.052790229885058</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>27.801653919694079</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>27.832038240917779</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>27.85985828025478</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>27.89022324840764</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>27.791570883661791</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>27.3953167090216</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>27.779038973384029</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>27.49785872313527</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>28.21555397727273</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>28.210031841109711</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>28.24009047919294</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>27.859284634760701</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>28.04205765595464</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>28.147196597353499</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>27.69417034005037</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>27.547392655367229</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>27.139237617554858</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>25.969553504380471</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>26.905449375</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>26.903532479700189</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>26.717671962616819</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>26.654754511512131</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>26.455407821229048</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>26.568688661710031</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>26.732937693738371</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>26.996977695167288</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>26.962838977832511</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>27.046951107011068</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>27.369462177121779</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>27.398108083282299</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>27.212609890109889</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>27.094830801944109</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>26.828710733778049</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>26.75289794064204</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>26.801668478260869</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>27.081710240963851</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>26.939391721655671</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>26.734382002383789</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>26.96539618138425</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>26.917215008933891</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>26.953580769230769</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>26.817820353982299</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>27.00437507383343</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>26.817812096300649</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>27.107902346041062</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>27.18589110070257</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>26.816062500000001</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>26.328120209059239</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>26.572515652173919</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>26.570930475086911</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>26.55082976878613</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>26.754416379310349</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>26.805799942594721</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>27.23779574223245</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>27.196651035673181</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>27.20662907842015</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>27.331788959171941</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>27.500487046632131</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>27.919222318339099</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>27.939616580310879</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>28.209037952846462</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>28.33060229226361</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>28.41626083238312</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>28.42723333333333</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>28.4898406374502</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>28.411591993185692</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>28.601100509626281</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>28.690085972850682</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>29.015423532731379</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>29.087244507042261</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>29.081334833989871</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>28.974827267637181</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>28.75766944908181</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>28.667328706274301</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>28.63838420758929</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>28.905257694459991</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>28.979534656232531</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>28.925340301003342</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>28.807395174708819</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>28.685495024875621</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>28.57476328903655</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>28.548366279069771</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>28.40625994475138</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>28.29192056074767</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>28.253570723684209</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>28.168036945812808</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>28.283024343544859</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>27.9086768226333</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>27.88250027114967</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>27.77481663055255</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>27.953361667569041</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>28.055804910955199</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>27.8774517167382</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>27.91948639274279</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>28.021243062966921</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>28.12757932692308</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>28.121998404255319</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>27.931423647932132</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>27.714810618066561</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>27.895385774722371</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>27.81554595879556</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>27.625828174186779</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>27.722346093750001</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>27.171899538698099</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>27.487685194672139</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>27.749771553949412</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>27.737465668559629</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>27.501774218349571</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>27.41808692307692</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>27.375970046082951</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>27.101275203665988</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>27.067132233502541</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>26.93983358662614</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>26.501003021148041</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>26.297812781954889</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>26.228564296520421</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>26.291502283105022</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>26.229819979716019</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>26.179301159274189</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>26.007207735646709</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>25.857263686332729</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>25.909497383503609</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>26.227917726423719</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>25.98417130144605</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>26.01816809111186</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>25.920340410442801</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>26.343343872817002</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>25.937813396073821</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>25.447060159964039</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>25.351224095428591</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>25.32038994336261</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>25.449322130899191</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>25.592035903438749</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>25.332883696914941</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>25.310100174506751</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>25.1583285171535</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>24.920788562336199</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>24.767896872562488</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>24.279498245744652</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>24.667619246861928</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>24.832255516797201</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>25.504064639916901</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>25.63711974738888</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>25.349137029288709</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>25.402141254794131</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>25.292945389738659</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>25.07060362454428</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>24.672924767092709</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>24.563062681250869</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>25.14530458968143</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>24.726519010757581</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>24.548821975899969</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>24.63758703815526</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>24.431499957723851</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>24.470242353405059</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>24.634986384067719</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>24.404102287390032</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>24.33584881326999</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>24.473022071784872</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>24.6139473511363</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>24.754149295774649</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>24.397474423354389</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>24.371992591102781</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>24.850669975301951</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>24.59599415014323</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>24.441739826086959</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>24.34058785240445</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>24.124991493001271</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>24.171714605166091</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>24.233000528358261</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>24.009554477642361</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>23.933308889891698</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>23.64642450759936</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>23.58349004985206</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>23.261072008905721</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>23.13446295309765</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>23.166568075138379</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>22.94703626142519</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>23.007546921200969</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>23.083267704259359</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>22.85098508709191</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>22.65756710286669</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>22.652816515060351</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>22.434278278464841</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>22.607897438632509</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>22.412286609762599</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>22.19072312461909</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>21.858264272256552</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>21.83273117338004</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>21.980164717964929</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>21.975927324955752</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>21.88944725601467</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>21.691057246856381</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>21.731768814220089</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>21.72216725988007</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>21.75442502497415</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>21.665282313594339</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>21.818068662225311</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>21.923870658682642</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>22.032720087691452</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>22.076111485531669</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>22.044875422599699</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>22.02736706559612</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>21.811835168343489</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>21.864012620798459</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>22.130139003720551</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>21.853973852783351</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>21.917162321105099</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>21.88757548335078</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>21.9300741413354</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>21.85128331561074</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>21.734789731334079</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>21.868348623853208</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>22.068936887781408</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>21.965614312363979</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>22.300961048685881</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>22.20409546091841</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>22.18044924116132</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>22.23921673842958</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>22.1984995535541</c:v>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v>22.146341290230961</c:v>
+                </c:pt>
+                <c:pt idx="306">
+                  <c:v>22.01177503940762</c:v>
+                </c:pt>
+                <c:pt idx="307">
+                  <c:v>22.085914675811921</c:v>
+                </c:pt>
+                <c:pt idx="308">
+                  <c:v>22.205495087900729</c:v>
+                </c:pt>
+                <c:pt idx="309">
+                  <c:v>21.972338868973591</c:v>
+                </c:pt>
+                <c:pt idx="310">
+                  <c:v>21.8456101040221</c:v>
+                </c:pt>
+                <c:pt idx="311">
+                  <c:v>22.075204510423571</c:v>
+                </c:pt>
+                <c:pt idx="312">
+                  <c:v>22.081469330327181</c:v>
+                </c:pt>
+                <c:pt idx="313">
+                  <c:v>22.17927524728557</c:v>
+                </c:pt>
+                <c:pt idx="314">
+                  <c:v>22.14374087489071</c:v>
+                </c:pt>
+                <c:pt idx="315">
+                  <c:v>21.89424242684251</c:v>
+                </c:pt>
+                <c:pt idx="316">
+                  <c:v>22.014579147800529</c:v>
+                </c:pt>
+                <c:pt idx="317">
+                  <c:v>21.89601765372203</c:v>
+                </c:pt>
+                <c:pt idx="318">
+                  <c:v>22.37101984359434</c:v>
+                </c:pt>
+                <c:pt idx="319">
+                  <c:v>22.279669914597761</c:v>
+                </c:pt>
+                <c:pt idx="320">
+                  <c:v>21.8199547619149</c:v>
+                </c:pt>
+                <c:pt idx="321">
+                  <c:v>21.851279413573831</c:v>
+                </c:pt>
+                <c:pt idx="322">
+                  <c:v>21.7438441838808</c:v>
+                </c:pt>
+                <c:pt idx="323">
+                  <c:v>21.621434812338549</c:v>
+                </c:pt>
+                <c:pt idx="324">
+                  <c:v>21.42</c:v>
+                </c:pt>
+                <c:pt idx="325">
+                  <c:v>21.27652170085026</c:v>
+                </c:pt>
+                <c:pt idx="326">
+                  <c:v>21.425075639304669</c:v>
+                </c:pt>
+                <c:pt idx="327">
+                  <c:v>21.316828807258521</c:v>
+                </c:pt>
+                <c:pt idx="328">
+                  <c:v>21.449649607939691</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9848,7 +11456,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-0878-4E1C-A4C8-3B18C1552698}"/>
+              <c16:uniqueId val="{00000002-00FF-4114-B90B-54865C3696B2}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -9861,17 +11469,17 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="454533208"/>
-        <c:axId val="454526976"/>
+        <c:axId val="377753296"/>
+        <c:axId val="377751656"/>
       </c:lineChart>
-      <c:catAx>
-        <c:axId val="454533208"/>
+      <c:dateAx>
+        <c:axId val="377753296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="yyyy" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -9893,7 +11501,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -9908,18 +11516,19 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="454526976"/>
+        <c:crossAx val="377751656"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:tickLblSkip val="5"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
+        <c:baseTimeUnit val="months"/>
+        <c:majorUnit val="24"/>
+        <c:majorTimeUnit val="months"/>
+      </c:dateAx>
       <c:valAx>
-        <c:axId val="454526976"/>
+        <c:axId val="377751656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -9937,6 +11546,66 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1600"/>
+                  <a:t>Inflation</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1600" baseline="0"/>
+                  <a:t>-adjusted 2016 Dollars</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="1600"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -9953,7 +11622,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -9968,7 +11637,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="454533208"/>
+        <c:crossAx val="377753296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9989,12 +11658,7 @@
       <a:schemeClr val="bg1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
+      <a:noFill/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -12286,16 +13950,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>350520</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>3810</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>556260</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -12323,15 +13987,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>182880</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>487680</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -12358,30 +14022,25 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>28</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>11430</xdr:rowOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>464820</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>11430</xdr:rowOff>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>205740</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>34290</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="5" name="Chart 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6016DCAE-D713-4FF2-AA89-7B75ED975592}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94DF699E-C529-4B29-B2C0-D5658529854B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12395,7 +14054,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -12404,583 +14063,265 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="auto share"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="1">
-          <cell r="D1" t="str">
-            <v>Share</v>
-          </cell>
-        </row>
-        <row r="2">
-          <cell r="A2">
-            <v>1947</v>
-          </cell>
-          <cell r="D2">
-            <v>3.1602637049657654</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="A3">
-            <v>1948</v>
-          </cell>
-          <cell r="D3">
-            <v>3.3739279247010132</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="A4">
-            <v>1949</v>
-          </cell>
-          <cell r="D4">
-            <v>4.1257736927800428</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="A5">
-            <v>1950</v>
-          </cell>
-          <cell r="D5">
-            <v>4.8756723454038227</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="A6">
-            <v>1951</v>
-          </cell>
-          <cell r="D6">
-            <v>3.8007765602231314</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="A7">
-            <v>1952</v>
-          </cell>
-          <cell r="D7">
-            <v>3.2535102666097231</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="A8">
-            <v>1953</v>
-          </cell>
-          <cell r="D8">
-            <v>3.9817514891498997</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="A9">
-            <v>1954</v>
-          </cell>
-          <cell r="D9">
-            <v>3.8116964644096156</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="A10">
-            <v>1955</v>
-          </cell>
-          <cell r="D10">
-            <v>4.5876623255269235</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="A11">
-            <v>1956</v>
-          </cell>
-          <cell r="D11">
-            <v>3.8164692521611454</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="A12">
-            <v>1957</v>
-          </cell>
-          <cell r="D12">
-            <v>3.9810193803318752</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="A13">
-            <v>1958</v>
-          </cell>
-          <cell r="D13">
-            <v>3.1740867955092629</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="A14">
-            <v>1959</v>
-          </cell>
-          <cell r="D14">
-            <v>3.7648488810353107</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="A15">
-            <v>1960</v>
-          </cell>
-          <cell r="D15">
-            <v>4.0063207481539642</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="A16">
-            <v>1961</v>
-          </cell>
-          <cell r="D16">
-            <v>3.3408385447463038</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="A17">
-            <v>1962</v>
-          </cell>
-          <cell r="D17">
-            <v>3.8585746958457041</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="A18">
-            <v>1963</v>
-          </cell>
-          <cell r="D18">
-            <v>3.9548547090097177</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="A19">
-            <v>1964</v>
-          </cell>
-          <cell r="D19">
-            <v>4.0059336439057471</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="A20">
-            <v>1965</v>
-          </cell>
-          <cell r="D20">
-            <v>4.4220771369846448</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="A21">
-            <v>1966</v>
-          </cell>
-          <cell r="D21">
-            <v>4.0803279508344064</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="A22">
-            <v>1967</v>
-          </cell>
-          <cell r="D22">
-            <v>3.4226391369248517</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="A23">
-            <v>1968</v>
-          </cell>
-          <cell r="D23">
-            <v>3.7637814932669822</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="A24">
-            <v>1969</v>
-          </cell>
-          <cell r="D24">
-            <v>3.6219341593990628</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="A25">
-            <v>1970</v>
-          </cell>
-          <cell r="D25">
-            <v>3.0223114889540299</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="A26">
-            <v>1971</v>
-          </cell>
-          <cell r="D26">
-            <v>3.6146252962807623</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="A27">
-            <v>1972</v>
-          </cell>
-          <cell r="D27">
-            <v>3.6056420004255325</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="A28">
-            <v>1973</v>
-          </cell>
-          <cell r="D28">
-            <v>3.6749791334372688</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="A29">
-            <v>1974</v>
-          </cell>
-          <cell r="D29">
-            <v>3.0220951233568831</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="A30">
-            <v>1975</v>
-          </cell>
-          <cell r="D30">
-            <v>2.8453117765529115</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="A31">
-            <v>1976</v>
-          </cell>
-          <cell r="D31">
-            <v>3.3243855911171947</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="A32">
-            <v>1977</v>
-          </cell>
-          <cell r="D32">
-            <v>3.5451527641042766</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="A33">
-            <v>1978</v>
-          </cell>
-          <cell r="D33">
-            <v>3.6133987834486909</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="A34">
-            <v>1979</v>
-          </cell>
-          <cell r="D34">
-            <v>3.2639620599837182</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="A35">
-            <v>1980</v>
-          </cell>
-          <cell r="D35">
-            <v>2.4745862188463903</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="A36">
-            <v>1981</v>
-          </cell>
-          <cell r="D36">
-            <v>2.5347316261087287</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="A37">
-            <v>1982</v>
-          </cell>
-          <cell r="D37">
-            <v>2.3982672115572803</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="A38">
-            <v>1983</v>
-          </cell>
-          <cell r="D38">
-            <v>2.8007702585820691</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="A39">
-            <v>1984</v>
-          </cell>
-          <cell r="D39">
-            <v>3.0656476612424792</v>
-          </cell>
-        </row>
-        <row r="40">
-          <cell r="A40">
-            <v>1985</v>
-          </cell>
-          <cell r="D40">
-            <v>2.9726407354535662</v>
-          </cell>
-        </row>
-        <row r="41">
-          <cell r="A41">
-            <v>1986</v>
-          </cell>
-          <cell r="D41">
-            <v>2.9239116783324981</v>
-          </cell>
-        </row>
-        <row r="42">
-          <cell r="A42">
-            <v>1987</v>
-          </cell>
-          <cell r="D42">
-            <v>2.8191778767923106</v>
-          </cell>
-        </row>
-        <row r="43">
-          <cell r="A43">
-            <v>1988</v>
-          </cell>
-          <cell r="D43">
-            <v>2.8097647874171172</v>
-          </cell>
-        </row>
-        <row r="44">
-          <cell r="A44">
-            <v>1989</v>
-          </cell>
-          <cell r="D44">
-            <v>2.7417177060341031</v>
-          </cell>
-        </row>
-        <row r="45">
-          <cell r="A45">
-            <v>1990</v>
-          </cell>
-          <cell r="D45">
-            <v>2.4065279862757376</v>
-          </cell>
-        </row>
-        <row r="46">
-          <cell r="A46">
-            <v>1991</v>
-          </cell>
-          <cell r="D46">
-            <v>2.2773592961919396</v>
-          </cell>
-        </row>
-        <row r="47">
-          <cell r="A47">
-            <v>1992</v>
-          </cell>
-          <cell r="D47">
-            <v>2.4844085049851161</v>
-          </cell>
-        </row>
-        <row r="48">
-          <cell r="A48">
-            <v>1993</v>
-          </cell>
-          <cell r="D48">
-            <v>2.6536676689671008</v>
-          </cell>
-        </row>
-        <row r="49">
-          <cell r="A49">
-            <v>1994</v>
-          </cell>
-          <cell r="D49">
-            <v>2.908768809507436</v>
-          </cell>
-        </row>
-        <row r="50">
-          <cell r="A50">
-            <v>1995</v>
-          </cell>
-          <cell r="D50">
-            <v>2.848907161336939</v>
-          </cell>
-        </row>
-        <row r="51">
-          <cell r="A51">
-            <v>1996</v>
-          </cell>
-          <cell r="D51">
-            <v>2.7219518854904194</v>
-          </cell>
-        </row>
-        <row r="52">
-          <cell r="A52">
-            <v>1997</v>
-          </cell>
-          <cell r="D52">
-            <v>2.7930387603704387</v>
-          </cell>
-        </row>
-        <row r="53">
-          <cell r="A53">
-            <v>1998</v>
-          </cell>
-          <cell r="D53">
-            <v>2.7619937675825117</v>
-          </cell>
-        </row>
-        <row r="54">
-          <cell r="A54">
-            <v>1999</v>
-          </cell>
-          <cell r="D54">
-            <v>2.9133136744557602</v>
-          </cell>
-        </row>
-        <row r="55">
-          <cell r="A55">
-            <v>2000</v>
-          </cell>
-          <cell r="D55">
-            <v>2.5971096219296541</v>
-          </cell>
-        </row>
-        <row r="56">
-          <cell r="A56">
-            <v>2001</v>
-          </cell>
-          <cell r="D56">
-            <v>2.4138793143574007</v>
-          </cell>
-        </row>
-        <row r="57">
-          <cell r="A57">
-            <v>2002</v>
-          </cell>
-          <cell r="D57">
-            <v>2.494879529036619</v>
-          </cell>
-        </row>
-        <row r="58">
-          <cell r="A58">
-            <v>2003</v>
-          </cell>
-          <cell r="D58">
-            <v>2.4312695700145572</v>
-          </cell>
-        </row>
-        <row r="59">
-          <cell r="A59">
-            <v>2004</v>
-          </cell>
-          <cell r="D59">
-            <v>2.3476395639030012</v>
-          </cell>
-        </row>
-        <row r="60">
-          <cell r="A60">
-            <v>2005</v>
-          </cell>
-          <cell r="D60">
-            <v>2.2275205199769168</v>
-          </cell>
-        </row>
-        <row r="61">
-          <cell r="A61">
-            <v>2006</v>
-          </cell>
-          <cell r="D61">
-            <v>2.1072682706446444</v>
-          </cell>
-        </row>
-        <row r="62">
-          <cell r="A62">
-            <v>2007</v>
-          </cell>
-          <cell r="D62">
-            <v>1.9630116993054569</v>
-          </cell>
-        </row>
-        <row r="63">
-          <cell r="A63">
-            <v>2008</v>
-          </cell>
-          <cell r="D63">
-            <v>1.5699239106386618</v>
-          </cell>
-        </row>
-        <row r="64">
-          <cell r="A64">
-            <v>2009</v>
-          </cell>
-          <cell r="D64">
-            <v>1.2978300283872055</v>
-          </cell>
-        </row>
-        <row r="65">
-          <cell r="A65">
-            <v>2010</v>
-          </cell>
-          <cell r="D65">
-            <v>1.6198277618021184</v>
-          </cell>
-        </row>
-        <row r="66">
-          <cell r="A66">
-            <v>2011</v>
-          </cell>
-          <cell r="D66">
-            <v>1.7752197661742162</v>
-          </cell>
-        </row>
-        <row r="67">
-          <cell r="A67">
-            <v>2012</v>
-          </cell>
-          <cell r="D67">
-            <v>1.7820033362585661</v>
-          </cell>
-        </row>
-        <row r="68">
-          <cell r="A68">
-            <v>2013</v>
-          </cell>
-          <cell r="D68">
-            <v>1.8516349561745675</v>
-          </cell>
-        </row>
-        <row r="69">
-          <cell r="A69">
-            <v>2014</v>
-          </cell>
-          <cell r="D69">
-            <v>1.9414180237211314</v>
-          </cell>
-        </row>
-        <row r="70">
-          <cell r="A70">
-            <v>2015</v>
-          </cell>
-          <cell r="D70">
-            <v>2.1595869137019772</v>
-          </cell>
-        </row>
-        <row r="71">
-          <cell r="A71">
-            <v>2016</v>
-          </cell>
-          <cell r="D71">
-            <v>2.2239536854303119</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.85661</cdr:x>
+      <cdr:y>0.13604</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.98782</cdr:x>
+      <cdr:y>0.20446</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="3" name="TextBox 2">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B94BA46-A4FB-40C4-A15F-3BF8074CC092}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="6964680" y="651510"/>
+          <a:ext cx="1066800" cy="327660"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>Total</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" baseline="0"/>
+            <a:t> Private</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1400"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.85348</cdr:x>
+      <cdr:y>0.80774</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.98469</cdr:x>
+      <cdr:y>0.87616</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="4" name="TextBox 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{06114803-C040-43E4-AEE4-E62A4F190971}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="6939280" y="3868420"/>
+          <a:ext cx="1066800" cy="327660"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>Manufacturing</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.85629</cdr:x>
+      <cdr:y>0.53248</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.9875</cdr:x>
+      <cdr:y>0.6009</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="5" name="TextBox 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{06114803-C040-43E4-AEE4-E62A4F190971}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="6962140" y="2550160"/>
+          <a:ext cx="1066800" cy="327660"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>Auto</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -16656,7 +17997,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
@@ -29884,10 +31225,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M330"/>
+  <dimension ref="A1:S330"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="X20" sqref="X20"/>
+    <sheetView tabSelected="1" topLeftCell="Z1" workbookViewId="0">
+      <selection activeCell="AL3" sqref="AL3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -31207,7 +32548,7 @@
         <v>27.711653540462429</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>33817</v>
       </c>
@@ -31247,8 +32588,17 @@
       <c r="M33">
         <v>27.634529199711611</v>
       </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="Q33" t="s">
+        <v>31</v>
+      </c>
+      <c r="R33" t="s">
+        <v>32</v>
+      </c>
+      <c r="S33" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>33848</v>
       </c>
@@ -31288,8 +32638,23 @@
       <c r="M34">
         <v>27.31765791366907</v>
       </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="P34">
+        <v>1990</v>
+      </c>
+      <c r="Q34">
+        <f>B2</f>
+        <v>91034</v>
+      </c>
+      <c r="R34">
+        <f>D2</f>
+        <v>17797</v>
+      </c>
+      <c r="S34">
+        <f>E2</f>
+        <v>975.5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <v>33878</v>
       </c>
@@ -31329,8 +32694,23 @@
       <c r="M35">
         <v>27.322267741935491</v>
       </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="P35">
+        <v>1995</v>
+      </c>
+      <c r="Q35">
+        <f>B62</f>
+        <v>97095</v>
+      </c>
+      <c r="R35">
+        <f>D62</f>
+        <v>17262</v>
+      </c>
+      <c r="S35">
+        <f>E62</f>
+        <v>1232.5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>33909</v>
       </c>
@@ -31370,8 +32750,23 @@
       <c r="M36">
         <v>27.263636266094419</v>
       </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="P36">
+        <v>2000</v>
+      </c>
+      <c r="Q36">
+        <f>B122</f>
+        <v>110438</v>
+      </c>
+      <c r="R36">
+        <f>D122</f>
+        <v>17284</v>
+      </c>
+      <c r="S36">
+        <f>E122</f>
+        <v>1328.1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <v>33939</v>
       </c>
@@ -31411,8 +32806,23 @@
       <c r="M37">
         <v>27.32435331905781</v>
       </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="P37">
+        <v>2005</v>
+      </c>
+      <c r="Q37">
+        <f>B182</f>
+        <v>111060</v>
+      </c>
+      <c r="R37">
+        <f>D182</f>
+        <v>14257</v>
+      </c>
+      <c r="S37">
+        <f>E182</f>
+        <v>1107.2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <v>33970</v>
       </c>
@@ -31452,8 +32862,23 @@
       <c r="M38">
         <v>27.46711281138791</v>
       </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="P38">
+        <v>2010</v>
+      </c>
+      <c r="Q38">
+        <f>B242</f>
+        <v>107310</v>
+      </c>
+      <c r="R38">
+        <f>D242</f>
+        <v>11460</v>
+      </c>
+      <c r="S38">
+        <f>E242</f>
+        <v>661.2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
         <v>34001</v>
       </c>
@@ -31493,8 +32918,23 @@
       <c r="M39">
         <v>27.527094460227271</v>
       </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="P39">
+        <v>2015</v>
+      </c>
+      <c r="Q39">
+        <f>B302</f>
+        <v>118653</v>
+      </c>
+      <c r="R39">
+        <f>D302</f>
+        <v>12299</v>
+      </c>
+      <c r="S39">
+        <f>E302</f>
+        <v>894.5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
         <v>34029</v>
       </c>
@@ -31534,8 +32974,23 @@
       <c r="M40">
         <v>27.57257553191489</v>
       </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="P40" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q40">
+        <f>B330</f>
+        <v>123831</v>
+      </c>
+      <c r="R40">
+        <f>D330</f>
+        <v>12398</v>
+      </c>
+      <c r="S40">
+        <f>E330</f>
+        <v>943.7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
         <v>34060</v>
       </c>
@@ -31576,7 +33031,7 @@
         <v>27.646294200848651</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
         <v>34090</v>
       </c>
@@ -31617,7 +33072,7 @@
         <v>27.77002679830747</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
         <v>34121</v>
       </c>
@@ -31658,7 +33113,7 @@
         <v>27.74770035211268</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
         <v>34151</v>
       </c>
@@ -31699,7 +33154,7 @@
         <v>27.51010555946516</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
         <v>34182</v>
       </c>
@@ -31740,7 +33195,7 @@
         <v>27.602800912921349</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
         <v>34213</v>
       </c>
@@ -31781,7 +33236,7 @@
         <v>27.76743157894737</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A47" s="2">
         <v>34243</v>
       </c>
@@ -31822,7 +33277,7 @@
         <v>27.947963337988831</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
         <v>34274</v>
       </c>
@@ -43423,1582 +44878,6 @@
       </c>
       <c r="M330">
         <v>21.449649607939691</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F71"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="4">
-        <v>1947</v>
-      </c>
-      <c r="B2" s="5">
-        <v>14913</v>
-      </c>
-      <c r="C2" s="5">
-        <v>471891</v>
-      </c>
-      <c r="D2">
-        <f>B2/C2*100</f>
-        <v>3.1602637049657654</v>
-      </c>
-      <c r="E2" s="6">
-        <v>249.9</v>
-      </c>
-      <c r="F2">
-        <f>(B2/1000)/E2*100</f>
-        <v>5.9675870348139251</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="4">
-        <v>1948</v>
-      </c>
-      <c r="B3" s="5">
-        <v>16955</v>
-      </c>
-      <c r="C3" s="5">
-        <v>502530</v>
-      </c>
-      <c r="D3">
-        <f t="shared" ref="D3:D66" si="0">B3/C3*100</f>
-        <v>3.3739279247010132</v>
-      </c>
-      <c r="E3" s="6">
-        <v>274.8</v>
-      </c>
-      <c r="F3">
-        <f t="shared" ref="F3:F66" si="1">(B3/1000)/E3*100</f>
-        <v>6.1699417758369712</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="4">
-        <v>1949</v>
-      </c>
-      <c r="B4" s="5">
-        <v>21057</v>
-      </c>
-      <c r="C4" s="5">
-        <v>510377</v>
-      </c>
-      <c r="D4">
-        <f t="shared" si="0"/>
-        <v>4.1257736927800428</v>
-      </c>
-      <c r="E4" s="6">
-        <v>272.8</v>
-      </c>
-      <c r="F4">
-        <f t="shared" si="1"/>
-        <v>7.718841642228738</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="4">
-        <v>1950</v>
-      </c>
-      <c r="B5" s="5">
-        <v>28173</v>
-      </c>
-      <c r="C5" s="5">
-        <v>577828</v>
-      </c>
-      <c r="D5">
-        <f t="shared" si="0"/>
-        <v>4.8756723454038227</v>
-      </c>
-      <c r="E5" s="6">
-        <v>300.2</v>
-      </c>
-      <c r="F5">
-        <f t="shared" si="1"/>
-        <v>9.3847435043304461</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="4">
-        <v>1951</v>
-      </c>
-      <c r="B6" s="5">
-        <v>24883</v>
-      </c>
-      <c r="C6" s="5">
-        <v>654682</v>
-      </c>
-      <c r="D6">
-        <f t="shared" si="0"/>
-        <v>3.8007765602231314</v>
-      </c>
-      <c r="E6" s="6">
-        <v>347.3</v>
-      </c>
-      <c r="F6">
-        <f t="shared" si="1"/>
-        <v>7.1646991073999429</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="4">
-        <v>1952</v>
-      </c>
-      <c r="B7" s="5">
-        <v>22321</v>
-      </c>
-      <c r="C7" s="5">
-        <v>686059</v>
-      </c>
-      <c r="D7">
-        <f t="shared" si="0"/>
-        <v>3.2535102666097231</v>
-      </c>
-      <c r="E7" s="6">
-        <v>367.7</v>
-      </c>
-      <c r="F7">
-        <f t="shared" si="1"/>
-        <v>6.0704378569486002</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="4">
-        <v>1953</v>
-      </c>
-      <c r="B8" s="5">
-        <v>29439</v>
-      </c>
-      <c r="C8" s="5">
-        <v>739348</v>
-      </c>
-      <c r="D8">
-        <f t="shared" si="0"/>
-        <v>3.9817514891498997</v>
-      </c>
-      <c r="E8" s="6">
-        <v>389.7</v>
-      </c>
-      <c r="F8">
-        <f t="shared" si="1"/>
-        <v>7.5542725173210163</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="4">
-        <v>1954</v>
-      </c>
-      <c r="B9" s="5">
-        <v>28204</v>
-      </c>
-      <c r="C9" s="5">
-        <v>739933</v>
-      </c>
-      <c r="D9">
-        <f t="shared" si="0"/>
-        <v>3.8116964644096156</v>
-      </c>
-      <c r="E9" s="6">
-        <v>391.1</v>
-      </c>
-      <c r="F9">
-        <f t="shared" si="1"/>
-        <v>7.211454870877013</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="4">
-        <v>1955</v>
-      </c>
-      <c r="B10" s="5">
-        <v>36822</v>
-      </c>
-      <c r="C10" s="5">
-        <v>802631</v>
-      </c>
-      <c r="D10">
-        <f t="shared" si="0"/>
-        <v>4.5876623255269235</v>
-      </c>
-      <c r="E10" s="6">
-        <v>426.2</v>
-      </c>
-      <c r="F10">
-        <f t="shared" si="1"/>
-        <v>8.6396058188643838</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="4">
-        <v>1956</v>
-      </c>
-      <c r="B11" s="5">
-        <v>32127</v>
-      </c>
-      <c r="C11" s="5">
-        <v>841799</v>
-      </c>
-      <c r="D11">
-        <f t="shared" si="0"/>
-        <v>3.8164692521611454</v>
-      </c>
-      <c r="E11" s="6">
-        <v>450.1</v>
-      </c>
-      <c r="F11">
-        <f t="shared" si="1"/>
-        <v>7.1377471672961557</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="4">
-        <v>1957</v>
-      </c>
-      <c r="B12" s="5">
-        <v>34859</v>
-      </c>
-      <c r="C12" s="5">
-        <v>875630</v>
-      </c>
-      <c r="D12">
-        <f t="shared" si="0"/>
-        <v>3.9810193803318752</v>
-      </c>
-      <c r="E12" s="6">
-        <v>474.9</v>
-      </c>
-      <c r="F12">
-        <f t="shared" si="1"/>
-        <v>7.3402821646662471</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="4">
-        <v>1958</v>
-      </c>
-      <c r="B13" s="5">
-        <v>28490</v>
-      </c>
-      <c r="C13" s="5">
-        <v>897581</v>
-      </c>
-      <c r="D13">
-        <f t="shared" si="0"/>
-        <v>3.1740867955092629</v>
-      </c>
-      <c r="E13" s="6">
-        <v>482</v>
-      </c>
-      <c r="F13">
-        <f t="shared" si="1"/>
-        <v>5.910788381742738</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="4">
-        <v>1959</v>
-      </c>
-      <c r="B14" s="5">
-        <v>36859</v>
-      </c>
-      <c r="C14" s="5">
-        <v>979030</v>
-      </c>
-      <c r="D14">
-        <f t="shared" si="0"/>
-        <v>3.7648488810353107</v>
-      </c>
-      <c r="E14" s="6">
-        <v>522.5</v>
-      </c>
-      <c r="F14">
-        <f t="shared" si="1"/>
-        <v>7.0543540669856464</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="4">
-        <v>1960</v>
-      </c>
-      <c r="B15" s="5">
-        <v>40312</v>
-      </c>
-      <c r="C15" s="5">
-        <v>1006210</v>
-      </c>
-      <c r="D15">
-        <f t="shared" si="0"/>
-        <v>4.0063207481539642</v>
-      </c>
-      <c r="E15" s="6">
-        <v>543.29999999999995</v>
-      </c>
-      <c r="F15">
-        <f t="shared" si="1"/>
-        <v>7.4198417080802503</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="4">
-        <v>1961</v>
-      </c>
-      <c r="B16" s="5">
-        <v>34409</v>
-      </c>
-      <c r="C16" s="5">
-        <v>1029951</v>
-      </c>
-      <c r="D16">
-        <f t="shared" si="0"/>
-        <v>3.3408385447463038</v>
-      </c>
-      <c r="E16" s="6">
-        <v>563.29999999999995</v>
-      </c>
-      <c r="F16">
-        <f t="shared" si="1"/>
-        <v>6.1084679566838282</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="4">
-        <v>1962</v>
-      </c>
-      <c r="B17" s="5">
-        <v>42667</v>
-      </c>
-      <c r="C17" s="5">
-        <v>1105771</v>
-      </c>
-      <c r="D17">
-        <f t="shared" si="0"/>
-        <v>3.8585746958457041</v>
-      </c>
-      <c r="E17" s="6">
-        <v>605.1</v>
-      </c>
-      <c r="F17">
-        <f t="shared" si="1"/>
-        <v>7.0512312014543053</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="4">
-        <v>1963</v>
-      </c>
-      <c r="B18" s="5">
-        <v>46009</v>
-      </c>
-      <c r="C18" s="5">
-        <v>1163355</v>
-      </c>
-      <c r="D18">
-        <f t="shared" si="0"/>
-        <v>3.9548547090097177</v>
-      </c>
-      <c r="E18" s="6">
-        <v>638.6</v>
-      </c>
-      <c r="F18">
-        <f t="shared" si="1"/>
-        <v>7.2046664578766046</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="4">
-        <v>1964</v>
-      </c>
-      <c r="B19" s="5">
-        <v>49797</v>
-      </c>
-      <c r="C19" s="5">
-        <v>1243081</v>
-      </c>
-      <c r="D19">
-        <f t="shared" si="0"/>
-        <v>4.0059336439057471</v>
-      </c>
-      <c r="E19" s="6">
-        <v>685.8</v>
-      </c>
-      <c r="F19">
-        <f t="shared" si="1"/>
-        <v>7.2611548556430439</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="4">
-        <v>1965</v>
-      </c>
-      <c r="B20" s="5">
-        <v>59983</v>
-      </c>
-      <c r="C20" s="5">
-        <v>1356444</v>
-      </c>
-      <c r="D20">
-        <f t="shared" si="0"/>
-        <v>4.4220771369846448</v>
-      </c>
-      <c r="E20" s="6">
-        <v>743.7</v>
-      </c>
-      <c r="F20">
-        <f t="shared" si="1"/>
-        <v>8.0654833938416015</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="4">
-        <v>1966</v>
-      </c>
-      <c r="B21" s="5">
-        <v>60378</v>
-      </c>
-      <c r="C21" s="5">
-        <v>1479734</v>
-      </c>
-      <c r="D21">
-        <f t="shared" si="0"/>
-        <v>4.0803279508344064</v>
-      </c>
-      <c r="E21" s="6">
-        <v>815</v>
-      </c>
-      <c r="F21">
-        <f t="shared" si="1"/>
-        <v>7.4083435582822084</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="4">
-        <v>1967</v>
-      </c>
-      <c r="B22" s="5">
-        <v>53241</v>
-      </c>
-      <c r="C22" s="5">
-        <v>1555554</v>
-      </c>
-      <c r="D22">
-        <f t="shared" si="0"/>
-        <v>3.4226391369248517</v>
-      </c>
-      <c r="E22" s="6">
-        <v>861.7</v>
-      </c>
-      <c r="F22">
-        <f t="shared" si="1"/>
-        <v>6.1786004409887427</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="4">
-        <v>1968</v>
-      </c>
-      <c r="B23" s="5">
-        <v>63623</v>
-      </c>
-      <c r="C23" s="5">
-        <v>1690401</v>
-      </c>
-      <c r="D23">
-        <f t="shared" si="0"/>
-        <v>3.7637814932669822</v>
-      </c>
-      <c r="E23" s="6">
-        <v>942.5</v>
-      </c>
-      <c r="F23">
-        <f t="shared" si="1"/>
-        <v>6.7504509283819623</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="4">
-        <v>1969</v>
-      </c>
-      <c r="B24" s="5">
-        <v>66125</v>
-      </c>
-      <c r="C24" s="5">
-        <v>1825682</v>
-      </c>
-      <c r="D24">
-        <f t="shared" si="0"/>
-        <v>3.6219341593990628</v>
-      </c>
-      <c r="E24" s="6">
-        <v>1019.9</v>
-      </c>
-      <c r="F24">
-        <f t="shared" si="1"/>
-        <v>6.4834787724286693</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="4">
-        <v>1970</v>
-      </c>
-      <c r="B25" s="5">
-        <v>57542</v>
-      </c>
-      <c r="C25" s="5">
-        <v>1903907</v>
-      </c>
-      <c r="D25">
-        <f t="shared" si="0"/>
-        <v>3.0223114889540299</v>
-      </c>
-      <c r="E25" s="6">
-        <v>1075.9000000000001</v>
-      </c>
-      <c r="F25">
-        <f t="shared" si="1"/>
-        <v>5.3482665675248624</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="4">
-        <v>1971</v>
-      </c>
-      <c r="B26" s="5">
-        <v>74115</v>
-      </c>
-      <c r="C26" s="5">
-        <v>2050420</v>
-      </c>
-      <c r="D26">
-        <f t="shared" si="0"/>
-        <v>3.6146252962807623</v>
-      </c>
-      <c r="E26" s="6">
-        <v>1167.8</v>
-      </c>
-      <c r="F26">
-        <f t="shared" si="1"/>
-        <v>6.3465490666209963</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="4">
-        <v>1972</v>
-      </c>
-      <c r="B27" s="5">
-        <v>82021</v>
-      </c>
-      <c r="C27" s="5">
-        <v>2274796</v>
-      </c>
-      <c r="D27">
-        <f t="shared" si="0"/>
-        <v>3.6056420004255325</v>
-      </c>
-      <c r="E27" s="6">
-        <v>1282.4000000000001</v>
-      </c>
-      <c r="F27">
-        <f t="shared" si="1"/>
-        <v>6.3958983156581413</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="4">
-        <v>1973</v>
-      </c>
-      <c r="B28" s="5">
-        <v>93959</v>
-      </c>
-      <c r="C28" s="5">
-        <v>2556722</v>
-      </c>
-      <c r="D28">
-        <f t="shared" si="0"/>
-        <v>3.6749791334372688</v>
-      </c>
-      <c r="E28" s="6">
-        <v>1428.5</v>
-      </c>
-      <c r="F28">
-        <f t="shared" si="1"/>
-        <v>6.5774588729436481</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="4">
-        <v>1974</v>
-      </c>
-      <c r="B29" s="5">
-        <v>86994</v>
-      </c>
-      <c r="C29" s="5">
-        <v>2878599</v>
-      </c>
-      <c r="D29">
-        <f t="shared" si="0"/>
-        <v>3.0220951233568831</v>
-      </c>
-      <c r="E29" s="6">
-        <v>1548.8</v>
-      </c>
-      <c r="F29">
-        <f t="shared" si="1"/>
-        <v>5.6168646694214877</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="4">
-        <v>1975</v>
-      </c>
-      <c r="B30" s="5">
-        <v>86956</v>
-      </c>
-      <c r="C30" s="5">
-        <v>3056115</v>
-      </c>
-      <c r="D30">
-        <f t="shared" si="0"/>
-        <v>2.8453117765529115</v>
-      </c>
-      <c r="E30" s="6">
-        <v>1688.9</v>
-      </c>
-      <c r="F30">
-        <f t="shared" si="1"/>
-        <v>5.1486766534430695</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="4">
-        <v>1976</v>
-      </c>
-      <c r="B31" s="5">
-        <v>114197</v>
-      </c>
-      <c r="C31" s="5">
-        <v>3435131</v>
-      </c>
-      <c r="D31">
-        <f t="shared" si="0"/>
-        <v>3.3243855911171947</v>
-      </c>
-      <c r="E31" s="6">
-        <v>1877.6</v>
-      </c>
-      <c r="F31">
-        <f t="shared" si="1"/>
-        <v>6.082072858968897</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32" s="4">
-        <v>1977</v>
-      </c>
-      <c r="B32" s="5">
-        <v>137306</v>
-      </c>
-      <c r="C32" s="5">
-        <v>3873063</v>
-      </c>
-      <c r="D32">
-        <f t="shared" si="0"/>
-        <v>3.5451527641042766</v>
-      </c>
-      <c r="E32" s="6">
-        <v>2086</v>
-      </c>
-      <c r="F32">
-        <f t="shared" si="1"/>
-        <v>6.5822627037392136</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="4">
-        <v>1978</v>
-      </c>
-      <c r="B33" s="5">
-        <v>157771</v>
-      </c>
-      <c r="C33" s="5">
-        <v>4366277</v>
-      </c>
-      <c r="D33">
-        <f t="shared" si="0"/>
-        <v>3.6133987834486909</v>
-      </c>
-      <c r="E33" s="6">
-        <v>2356.6</v>
-      </c>
-      <c r="F33">
-        <f t="shared" si="1"/>
-        <v>6.6948569973690901</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34" s="4">
-        <v>1979</v>
-      </c>
-      <c r="B34" s="5">
-        <v>160772</v>
-      </c>
-      <c r="C34" s="5">
-        <v>4925670</v>
-      </c>
-      <c r="D34">
-        <f t="shared" si="0"/>
-        <v>3.2639620599837182</v>
-      </c>
-      <c r="E34" s="6">
-        <v>2632.1</v>
-      </c>
-      <c r="F34">
-        <f t="shared" si="1"/>
-        <v>6.1081265909349947</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A35" s="4">
-        <v>1980</v>
-      </c>
-      <c r="B35" s="5">
-        <v>135174</v>
-      </c>
-      <c r="C35" s="5">
-        <v>5462489</v>
-      </c>
-      <c r="D35">
-        <f t="shared" si="0"/>
-        <v>2.4745862188463903</v>
-      </c>
-      <c r="E35" s="6">
-        <v>2862.5</v>
-      </c>
-      <c r="F35">
-        <f t="shared" si="1"/>
-        <v>4.7222358078602626</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A36" s="4">
-        <v>1981</v>
-      </c>
-      <c r="B36" s="5">
-        <v>152927</v>
-      </c>
-      <c r="C36" s="5">
-        <v>6033262</v>
-      </c>
-      <c r="D36">
-        <f t="shared" si="0"/>
-        <v>2.5347316261087287</v>
-      </c>
-      <c r="E36" s="6">
-        <v>3211</v>
-      </c>
-      <c r="F36">
-        <f t="shared" si="1"/>
-        <v>4.7625973217066333</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A37" s="4">
-        <v>1982</v>
-      </c>
-      <c r="B37" s="5">
-        <v>148027</v>
-      </c>
-      <c r="C37" s="5">
-        <v>6172248</v>
-      </c>
-      <c r="D37">
-        <f t="shared" si="0"/>
-        <v>2.3982672115572803</v>
-      </c>
-      <c r="E37" s="6">
-        <v>3345</v>
-      </c>
-      <c r="F37">
-        <f t="shared" si="1"/>
-        <v>4.4253213751868454</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A38" s="4">
-        <v>1983</v>
-      </c>
-      <c r="B38" s="5">
-        <v>185676</v>
-      </c>
-      <c r="C38" s="5">
-        <v>6629462</v>
-      </c>
-      <c r="D38">
-        <f t="shared" si="0"/>
-        <v>2.8007702585820691</v>
-      </c>
-      <c r="E38" s="6">
-        <v>3638.1</v>
-      </c>
-      <c r="F38">
-        <f t="shared" si="1"/>
-        <v>5.1036530056897833</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A39" s="4">
-        <v>1984</v>
-      </c>
-      <c r="B39" s="5">
-        <v>224115</v>
-      </c>
-      <c r="C39" s="5">
-        <v>7310527</v>
-      </c>
-      <c r="D39">
-        <f t="shared" si="0"/>
-        <v>3.0656476612424792</v>
-      </c>
-      <c r="E39" s="6">
-        <v>4040.7</v>
-      </c>
-      <c r="F39">
-        <f t="shared" si="1"/>
-        <v>5.5464399732719585</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A40" s="4">
-        <v>1985</v>
-      </c>
-      <c r="B40" s="5">
-        <v>231204</v>
-      </c>
-      <c r="C40" s="5">
-        <v>7777731</v>
-      </c>
-      <c r="D40">
-        <f t="shared" si="0"/>
-        <v>2.9726407354535662</v>
-      </c>
-      <c r="E40" s="6">
-        <v>4346.7</v>
-      </c>
-      <c r="F40">
-        <f t="shared" si="1"/>
-        <v>5.3190696390365115</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A41" s="4">
-        <v>1986</v>
-      </c>
-      <c r="B41" s="5">
-        <v>234903</v>
-      </c>
-      <c r="C41" s="5">
-        <v>8033861</v>
-      </c>
-      <c r="D41">
-        <f t="shared" si="0"/>
-        <v>2.9239116783324981</v>
-      </c>
-      <c r="E41" s="6">
-        <v>4590.2</v>
-      </c>
-      <c r="F41">
-        <f t="shared" si="1"/>
-        <v>5.1174894340115902</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A42" s="4">
-        <v>1987</v>
-      </c>
-      <c r="B42" s="5">
-        <v>245552</v>
-      </c>
-      <c r="C42" s="5">
-        <v>8710057</v>
-      </c>
-      <c r="D42">
-        <f t="shared" si="0"/>
-        <v>2.8191778767923106</v>
-      </c>
-      <c r="E42" s="6">
-        <v>4870.2</v>
-      </c>
-      <c r="F42">
-        <f t="shared" si="1"/>
-        <v>5.0419284628968013</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A43" s="4">
-        <v>1988</v>
-      </c>
-      <c r="B43" s="5">
-        <v>265106</v>
-      </c>
-      <c r="C43" s="5">
-        <v>9435167</v>
-      </c>
-      <c r="D43">
-        <f t="shared" si="0"/>
-        <v>2.8097647874171172</v>
-      </c>
-      <c r="E43" s="6">
-        <v>5252.6</v>
-      </c>
-      <c r="F43">
-        <f t="shared" si="1"/>
-        <v>5.0471385599512617</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A44" s="4">
-        <v>1989</v>
-      </c>
-      <c r="B44" s="5">
-        <v>276015</v>
-      </c>
-      <c r="C44" s="5">
-        <v>10067229</v>
-      </c>
-      <c r="D44">
-        <f t="shared" si="0"/>
-        <v>2.7417177060341031</v>
-      </c>
-      <c r="E44" s="6">
-        <v>5657.7</v>
-      </c>
-      <c r="F44">
-        <f t="shared" si="1"/>
-        <v>4.8785725648231608</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A45" s="4">
-        <v>1990</v>
-      </c>
-      <c r="B45" s="5">
-        <v>255644</v>
-      </c>
-      <c r="C45" s="5">
-        <v>10622939</v>
-      </c>
-      <c r="D45">
-        <f t="shared" si="0"/>
-        <v>2.4065279862757376</v>
-      </c>
-      <c r="E45" s="6">
-        <v>5979.6</v>
-      </c>
-      <c r="F45">
-        <f t="shared" si="1"/>
-        <v>4.2752692487791819</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A46" s="4">
-        <v>1991</v>
-      </c>
-      <c r="B46" s="5">
-        <v>246040</v>
-      </c>
-      <c r="C46" s="5">
-        <v>10803741</v>
-      </c>
-      <c r="D46">
-        <f t="shared" si="0"/>
-        <v>2.2773592961919396</v>
-      </c>
-      <c r="E46" s="6">
-        <v>6174</v>
-      </c>
-      <c r="F46">
-        <f t="shared" si="1"/>
-        <v>3.9850988014253317</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A47" s="4">
-        <v>1992</v>
-      </c>
-      <c r="B47" s="5">
-        <v>282907</v>
-      </c>
-      <c r="C47" s="5">
-        <v>11387298</v>
-      </c>
-      <c r="D47">
-        <f t="shared" si="0"/>
-        <v>2.4844085049851161</v>
-      </c>
-      <c r="E47" s="6">
-        <v>6539.3</v>
-      </c>
-      <c r="F47">
-        <f t="shared" si="1"/>
-        <v>4.3262581621886129</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A48" s="4">
-        <v>1993</v>
-      </c>
-      <c r="B48" s="5">
-        <v>318530</v>
-      </c>
-      <c r="C48" s="5">
-        <v>12003387</v>
-      </c>
-      <c r="D48">
-        <f t="shared" si="0"/>
-        <v>2.6536676689671008</v>
-      </c>
-      <c r="E48" s="6">
-        <v>6878.7</v>
-      </c>
-      <c r="F48">
-        <f t="shared" si="1"/>
-        <v>4.6306714931600448</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A49" s="4">
-        <v>1994</v>
-      </c>
-      <c r="B49" s="5">
-        <v>372227</v>
-      </c>
-      <c r="C49" s="5">
-        <v>12796720</v>
-      </c>
-      <c r="D49">
-        <f t="shared" si="0"/>
-        <v>2.908768809507436</v>
-      </c>
-      <c r="E49" s="6">
-        <v>7308.8</v>
-      </c>
-      <c r="F49">
-        <f t="shared" si="1"/>
-        <v>5.0928606611208407</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A50" s="4">
-        <v>1995</v>
-      </c>
-      <c r="B50" s="5">
-        <v>387897</v>
-      </c>
-      <c r="C50" s="5">
-        <v>13615642</v>
-      </c>
-      <c r="D50">
-        <f t="shared" si="0"/>
-        <v>2.848907161336939</v>
-      </c>
-      <c r="E50" s="6">
-        <v>7664.1</v>
-      </c>
-      <c r="F50">
-        <f t="shared" si="1"/>
-        <v>5.0612204955572082</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A51" s="4">
-        <v>1996</v>
-      </c>
-      <c r="B51" s="5">
-        <v>392765</v>
-      </c>
-      <c r="C51" s="5">
-        <v>14429535</v>
-      </c>
-      <c r="D51">
-        <f t="shared" si="0"/>
-        <v>2.7219518854904194</v>
-      </c>
-      <c r="E51" s="6">
-        <v>8100.2</v>
-      </c>
-      <c r="F51">
-        <f t="shared" si="1"/>
-        <v>4.8488308930643687</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A52" s="4">
-        <v>1997</v>
-      </c>
-      <c r="B52" s="5">
-        <v>428883</v>
-      </c>
-      <c r="C52" s="5">
-        <v>15355426</v>
-      </c>
-      <c r="D52">
-        <f t="shared" si="0"/>
-        <v>2.7930387603704387</v>
-      </c>
-      <c r="E52" s="6">
-        <v>8608.5</v>
-      </c>
-      <c r="F52">
-        <f t="shared" si="1"/>
-        <v>4.9820874716849621</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A53" s="4">
-        <v>1998</v>
-      </c>
-      <c r="B53" s="5">
-        <v>446649</v>
-      </c>
-      <c r="C53" s="5">
-        <v>16171253</v>
-      </c>
-      <c r="D53">
-        <f t="shared" si="0"/>
-        <v>2.7619937675825117</v>
-      </c>
-      <c r="E53" s="6">
-        <v>9089.2000000000007</v>
-      </c>
-      <c r="F53">
-        <f t="shared" si="1"/>
-        <v>4.9140628438146363</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A54" s="4">
-        <v>1999</v>
-      </c>
-      <c r="B54" s="5">
-        <v>502395</v>
-      </c>
-      <c r="C54" s="5">
-        <v>17244796</v>
-      </c>
-      <c r="D54">
-        <f t="shared" si="0"/>
-        <v>2.9133136744557602</v>
-      </c>
-      <c r="E54" s="6">
-        <v>9660.6</v>
-      </c>
-      <c r="F54">
-        <f t="shared" si="1"/>
-        <v>5.2004533879883237</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A55" s="4">
-        <v>2000</v>
-      </c>
-      <c r="B55" s="5">
-        <v>482142</v>
-      </c>
-      <c r="C55" s="5">
-        <v>18564561</v>
-      </c>
-      <c r="D55">
-        <f t="shared" si="0"/>
-        <v>2.5971096219296541</v>
-      </c>
-      <c r="E55" s="6">
-        <v>10284.799999999999</v>
-      </c>
-      <c r="F55">
-        <f t="shared" si="1"/>
-        <v>4.687908369632857</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A56" s="4">
-        <v>2001</v>
-      </c>
-      <c r="B56" s="5">
-        <v>455333</v>
-      </c>
-      <c r="C56" s="5">
-        <v>18863122</v>
-      </c>
-      <c r="D56">
-        <f t="shared" si="0"/>
-        <v>2.4138793143574007</v>
-      </c>
-      <c r="E56" s="6">
-        <v>10621.8</v>
-      </c>
-      <c r="F56">
-        <f t="shared" si="1"/>
-        <v>4.2867781355325842</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A57" s="4">
-        <v>2002</v>
-      </c>
-      <c r="B57" s="5">
-        <v>478393</v>
-      </c>
-      <c r="C57" s="5">
-        <v>19174994</v>
-      </c>
-      <c r="D57">
-        <f t="shared" si="0"/>
-        <v>2.494879529036619</v>
-      </c>
-      <c r="E57" s="6">
-        <v>10977.5</v>
-      </c>
-      <c r="F57">
-        <f t="shared" si="1"/>
-        <v>4.3579412434525162</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A58" s="4">
-        <v>2003</v>
-      </c>
-      <c r="B58" s="5">
-        <v>489538</v>
-      </c>
-      <c r="C58" s="5">
-        <v>20135077</v>
-      </c>
-      <c r="D58">
-        <f t="shared" si="0"/>
-        <v>2.4312695700145572</v>
-      </c>
-      <c r="E58" s="6">
-        <v>11510.7</v>
-      </c>
-      <c r="F58">
-        <f t="shared" si="1"/>
-        <v>4.2528951323551123</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A59" s="4">
-        <v>2004</v>
-      </c>
-      <c r="B59" s="5">
-        <v>509374</v>
-      </c>
-      <c r="C59" s="5">
-        <v>21697283</v>
-      </c>
-      <c r="D59">
-        <f t="shared" si="0"/>
-        <v>2.3476395639030012</v>
-      </c>
-      <c r="E59" s="6">
-        <v>12274.9</v>
-      </c>
-      <c r="F59">
-        <f t="shared" si="1"/>
-        <v>4.1497201606530396</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A60" s="4">
-        <v>2005</v>
-      </c>
-      <c r="B60" s="5">
-        <v>523799</v>
-      </c>
-      <c r="C60" s="5">
-        <v>23514890</v>
-      </c>
-      <c r="D60">
-        <f t="shared" si="0"/>
-        <v>2.2275205199769168</v>
-      </c>
-      <c r="E60" s="6">
-        <v>13093.7</v>
-      </c>
-      <c r="F60">
-        <f t="shared" si="1"/>
-        <v>4.000389500294034</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A61" s="4">
-        <v>2006</v>
-      </c>
-      <c r="B61" s="5">
-        <v>524456</v>
-      </c>
-      <c r="C61" s="5">
-        <v>24887956</v>
-      </c>
-      <c r="D61">
-        <f t="shared" si="0"/>
-        <v>2.1072682706446444</v>
-      </c>
-      <c r="E61" s="6">
-        <v>13855.9</v>
-      </c>
-      <c r="F61">
-        <f t="shared" si="1"/>
-        <v>3.7850735065928593</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A62" s="4">
-        <v>2007</v>
-      </c>
-      <c r="B62" s="5">
-        <v>513353</v>
-      </c>
-      <c r="C62" s="5">
-        <v>26151296</v>
-      </c>
-      <c r="D62">
-        <f t="shared" si="0"/>
-        <v>1.9630116993054569</v>
-      </c>
-      <c r="E62" s="6">
-        <v>14477.6</v>
-      </c>
-      <c r="F62">
-        <f t="shared" si="1"/>
-        <v>3.5458432336851406</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A63" s="4">
-        <v>2008</v>
-      </c>
-      <c r="B63" s="5">
-        <v>421143</v>
-      </c>
-      <c r="C63" s="5">
-        <v>26825695</v>
-      </c>
-      <c r="D63">
-        <f t="shared" si="0"/>
-        <v>1.5699239106386618</v>
-      </c>
-      <c r="E63" s="6">
-        <v>14718.6</v>
-      </c>
-      <c r="F63">
-        <f t="shared" si="1"/>
-        <v>2.8612979495332436</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A64" s="4">
-        <v>2009</v>
-      </c>
-      <c r="B64" s="5">
-        <v>320009</v>
-      </c>
-      <c r="C64" s="5">
-        <v>24657235</v>
-      </c>
-      <c r="D64">
-        <f t="shared" si="0"/>
-        <v>1.2978300283872055</v>
-      </c>
-      <c r="E64" s="6">
-        <v>14418.7</v>
-      </c>
-      <c r="F64">
-        <f t="shared" si="1"/>
-        <v>2.2194025813700264</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A65" s="4">
-        <v>2010</v>
-      </c>
-      <c r="B65" s="5">
-        <v>422670</v>
-      </c>
-      <c r="C65" s="5">
-        <v>26093515</v>
-      </c>
-      <c r="D65">
-        <f t="shared" si="0"/>
-        <v>1.6198277618021184</v>
-      </c>
-      <c r="E65" s="6">
-        <v>14964.4</v>
-      </c>
-      <c r="F65">
-        <f t="shared" si="1"/>
-        <v>2.8245034882788489</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A66" s="4">
-        <v>2011</v>
-      </c>
-      <c r="B66" s="5">
-        <v>488824</v>
-      </c>
-      <c r="C66" s="5">
-        <v>27535971</v>
-      </c>
-      <c r="D66">
-        <f t="shared" si="0"/>
-        <v>1.7752197661742162</v>
-      </c>
-      <c r="E66" s="6">
-        <v>15517.9</v>
-      </c>
-      <c r="F66">
-        <f t="shared" si="1"/>
-        <v>3.1500654083348909</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A67" s="4">
-        <v>2012</v>
-      </c>
-      <c r="B67" s="5">
-        <v>510780</v>
-      </c>
-      <c r="C67" s="5">
-        <v>28663246</v>
-      </c>
-      <c r="D67">
-        <f t="shared" ref="D67:D71" si="2">B67/C67*100</f>
-        <v>1.7820033362585661</v>
-      </c>
-      <c r="E67" s="6">
-        <v>16155.3</v>
-      </c>
-      <c r="F67">
-        <f t="shared" ref="F67:F71" si="3">(B67/1000)/E67*100</f>
-        <v>3.1616868767525208</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A68" s="4">
-        <v>2013</v>
-      </c>
-      <c r="B68" s="7">
-        <v>548106</v>
-      </c>
-      <c r="C68" s="7">
-        <v>29601191</v>
-      </c>
-      <c r="D68">
-        <f t="shared" si="2"/>
-        <v>1.8516349561745675</v>
-      </c>
-      <c r="E68" s="6">
-        <v>16691.5</v>
-      </c>
-      <c r="F68">
-        <f t="shared" si="3"/>
-        <v>3.2837432225983285</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A69" s="4">
-        <v>2014</v>
-      </c>
-      <c r="B69" s="7">
-        <v>599809</v>
-      </c>
-      <c r="C69" s="7">
-        <v>30895407</v>
-      </c>
-      <c r="D69">
-        <f t="shared" si="2"/>
-        <v>1.9414180237211314</v>
-      </c>
-      <c r="E69" s="6">
-        <v>17393.099999999999</v>
-      </c>
-      <c r="F69">
-        <f t="shared" si="3"/>
-        <v>3.4485456876577496</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A70">
-        <v>2015</v>
-      </c>
-      <c r="B70" s="7">
-        <v>678046</v>
-      </c>
-      <c r="C70" s="7">
-        <v>31397023</v>
-      </c>
-      <c r="D70">
-        <f t="shared" si="2"/>
-        <v>2.1595869137019772</v>
-      </c>
-      <c r="E70" s="6">
-        <v>18036.599999999999</v>
-      </c>
-      <c r="F70">
-        <f t="shared" si="3"/>
-        <v>3.7592783562312193</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A71">
-        <v>2016</v>
-      </c>
-      <c r="B71" s="7">
-        <v>715859</v>
-      </c>
-      <c r="C71" s="7">
-        <v>32188575</v>
-      </c>
-      <c r="D71">
-        <f t="shared" si="2"/>
-        <v>2.2239536854303119</v>
-      </c>
-      <c r="E71" s="6">
-        <v>18569.099999999999</v>
-      </c>
-      <c r="F71">
-        <f t="shared" si="3"/>
-        <v>3.8551087559440154</v>
       </c>
     </row>
   </sheetData>

--- a/Trade_PPT/trade_ppt_data.xlsx
+++ b/Trade_PPT/trade_ppt_data.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="35">
   <si>
     <t>rgDesc</t>
   </si>
@@ -127,6 +127,9 @@
   <si>
     <t>Autos</t>
   </si>
+  <si>
+    <t>Tot_emp_idx</t>
+  </si>
 </sst>
 </file>
 
@@ -169,7 +172,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -192,13 +195,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -207,6 +221,12 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -1971,7 +1991,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>bls!$G$2:$G$330</c:f>
+              <c:f>bls!$O$2:$O$330</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="329"/>
@@ -1979,988 +1999,988 @@
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>100.24386492958671</c:v>
+                  <c:v>100.2271374273023</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>100.3515170156205</c:v>
+                  <c:v>100.42405092274581</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>100.3031834259727</c:v>
+                  <c:v>100.45977011494254</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>100.22628907880571</c:v>
+                  <c:v>100.59898337683748</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>100.2976909726036</c:v>
+                  <c:v>100.61913266474332</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>100.2592437990201</c:v>
+                  <c:v>100.59074048633055</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>100.1351143528791</c:v>
+                  <c:v>100.39291111416404</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>100.0582200057122</c:v>
+                  <c:v>100.31048220909466</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>99.875870553859002</c:v>
+                  <c:v>100.16394193341576</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>99.704506008743991</c:v>
+                  <c:v>100.0274763016898</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>99.623217698881746</c:v>
+                  <c:v>99.97618720520218</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>99.488103346002589</c:v>
+                  <c:v>99.869029628611997</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>99.143177274424943</c:v>
+                  <c:v>99.58877135137611</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>98.963024803919424</c:v>
+                  <c:v>99.444062829143192</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>98.733440253092255</c:v>
+                  <c:v>99.249896963868665</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>98.584045521453518</c:v>
+                  <c:v>99.137244126940516</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>98.618098732341764</c:v>
+                  <c:v>99.223336538901862</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>98.534613441131881</c:v>
+                  <c:v>99.187617346705139</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>98.579651558758258</c:v>
+                  <c:v>99.196776113935059</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>98.641167036491865</c:v>
+                  <c:v>99.226084169070845</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>98.602719862908359</c:v>
+                  <c:v>99.239822319915731</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>98.502757211591273</c:v>
+                  <c:v>99.187617346705139</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>98.515939099677041</c:v>
+                  <c:v>99.211430141502959</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>98.520333062372302</c:v>
+                  <c:v>99.258139854375599</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>98.452226640595825</c:v>
+                  <c:v>99.202271374273025</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>98.484082870136433</c:v>
+                  <c:v>99.252644594037648</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>98.631280620427532</c:v>
+                  <c:v>99.397353116270551</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>98.755410066568544</c:v>
+                  <c:v>99.513669460090668</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>98.816925544302123</c:v>
+                  <c:v>99.573201447085225</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>98.836698376430789</c:v>
+                  <c:v>99.640060447863718</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>98.915789704945396</c:v>
+                  <c:v>99.766451435636753</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>99.014653865588684</c:v>
+                  <c:v>99.799422997664507</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>99.214579168222855</c:v>
+                  <c:v>99.965196684526262</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>99.349693521101997</c:v>
+                  <c:v>100.08975591885331</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>99.540830898345675</c:v>
+                  <c:v>100.28300590740487</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>99.856097721730336</c:v>
+                  <c:v>100.56692769153273</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>100.1219324647934</c:v>
+                  <c:v>100.78948573522004</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>100.0626139684074</c:v>
+                  <c:v>100.74460777579337</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>100.36689588505391</c:v>
+                  <c:v>101.02669780647524</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>100.6459125162027</c:v>
+                  <c:v>101.27123689151441</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>100.8227695146868</c:v>
+                  <c:v>101.43517882493016</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>101.0545510468616</c:v>
+                  <c:v>101.71177359527408</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>101.2632642748863</c:v>
+                  <c:v>101.85648211750697</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>101.5137201485159</c:v>
+                  <c:v>102.07720840774832</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>101.8234945185315</c:v>
+                  <c:v>102.33640152035537</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>102.0838368082255</c:v>
+                  <c:v>102.57727709850255</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>102.38592174352441</c:v>
+                  <c:v>102.86669414296836</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>102.64296856119689</c:v>
+                  <c:v>103.11581261162249</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>102.85497726124299</c:v>
+                  <c:v>103.29532444932912</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>103.3207373069403</c:v>
+                  <c:v>103.72029124879791</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>103.6689588505394</c:v>
+                  <c:v>104.04084810184548</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>103.9908166179669</c:v>
+                  <c:v>104.34675092732517</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>104.3247577828064</c:v>
+                  <c:v>104.63433621834501</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>104.7059340466199</c:v>
+                  <c:v>104.97687411274444</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>105.0113144539403</c:v>
+                  <c:v>105.23606722535146</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>105.36612694158229</c:v>
+                  <c:v>105.56028758529101</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>105.5880220576927</c:v>
+                  <c:v>105.75170582039657</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>106.0252213458708</c:v>
+                  <c:v>106.13728992077667</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>106.3097304303887</c:v>
+                  <c:v>106.39373540321473</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>106.65795197398769</c:v>
+                  <c:v>106.69231121491048</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>106.8677636926863</c:v>
+                  <c:v>106.87640243623208</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>107.08636333677531</c:v>
+                  <c:v>107.07697943856758</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>107.2577278818903</c:v>
+                  <c:v>107.22626734441545</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>107.2577278818903</c:v>
+                  <c:v>107.21161331684755</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>107.48511545136979</c:v>
+                  <c:v>107.42592847002794</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>107.5993584814465</c:v>
+                  <c:v>107.51385263543527</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>107.8882615286596</c:v>
+                  <c:v>107.7474011997985</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>108.1551947623965</c:v>
+                  <c:v>107.97087512020882</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>108.28371817123271</c:v>
+                  <c:v>108.10917250538077</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>108.44849177230481</c:v>
+                  <c:v>108.24563813710675</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>108.5923940505745</c:v>
+                  <c:v>108.36836561798782</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>108.5934925412483</c:v>
+                  <c:v>108.35462746714293</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>109.0262978667311</c:v>
+                  <c:v>108.74753858130694</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>109.2657688336226</c:v>
+                  <c:v>108.99024591290012</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>109.464595645583</c:v>
+                  <c:v>109.14044969547099</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>109.80402926379161</c:v>
+                  <c:v>109.43627787699775</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>110.1181975965024</c:v>
+                  <c:v>109.69730274305078</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>110.37194894215349</c:v>
+                  <c:v>109.92627192379905</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>110.616912362414</c:v>
+                  <c:v>110.09112973393782</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>110.7937693608981</c:v>
+                  <c:v>110.29628611988826</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>111.0815739174375</c:v>
+                  <c:v>110.52433942391353</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>111.3979392314959</c:v>
+                  <c:v>110.79818656408847</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>111.5791901926753</c:v>
+                  <c:v>110.9548014837203</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>111.81097172485011</c:v>
+                  <c:v>111.16820076017768</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>112.1405189269943</c:v>
+                  <c:v>111.44754316069057</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>112.4755585825076</c:v>
+                  <c:v>111.73604432843341</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>112.80181031263039</c:v>
+                  <c:v>112.00348033154737</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>113.0907133598436</c:v>
+                  <c:v>112.24252415624858</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>113.31810092932309</c:v>
+                  <c:v>112.48614736456473</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>113.6256783179911</c:v>
+                  <c:v>112.7664056418006</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>113.667420963596</c:v>
+                  <c:v>112.73801346338783</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>114.1606432761386</c:v>
+                  <c:v>113.20602646883728</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>114.471516136828</c:v>
+                  <c:v>113.51925630810094</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>114.78019201616981</c:v>
+                  <c:v>113.79768283189082</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>115.10864072764021</c:v>
+                  <c:v>114.07610935568073</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>115.4052332095701</c:v>
+                  <c:v>114.32705957778082</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>115.6062570028781</c:v>
+                  <c:v>114.50931904565644</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>115.7633411692335</c:v>
+                  <c:v>114.64578467738242</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>116.0445547817299</c:v>
+                  <c:v>114.90223015982049</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>116.42353406419581</c:v>
+                  <c:v>115.27224435590971</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>116.6608080497397</c:v>
+                  <c:v>115.47373723496817</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>116.74649032229721</c:v>
+                  <c:v>115.59188533223428</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>117.090317903201</c:v>
+                  <c:v>115.90511517149791</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>117.3056220752686</c:v>
+                  <c:v>116.10843980400239</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>117.50884284992421</c:v>
+                  <c:v>116.292531025324</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>117.7691851396182</c:v>
+                  <c:v>116.54897650776206</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>118.1119142298482</c:v>
+                  <c:v>116.86678573064067</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>118.2448316013797</c:v>
+                  <c:v>116.98218619773779</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>118.6282048465409</c:v>
+                  <c:v>117.35677977744197</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>118.7204780631413</c:v>
+                  <c:v>117.45569446352522</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>119.0555177186546</c:v>
+                  <c:v>117.79823235792462</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>119.2971856668937</c:v>
+                  <c:v>117.99239822319916</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>119.53885361513279</c:v>
+                  <c:v>118.23327380134634</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>119.8178702462816</c:v>
+                  <c:v>118.52727022942713</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>119.95628007118221</c:v>
+                  <c:v>118.675642258552</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>120.16169782718541</c:v>
+                  <c:v>118.87347163071851</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>120.5395786189775</c:v>
+                  <c:v>119.23707468974676</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>120.81859525012629</c:v>
+                  <c:v>119.50542656958373</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>121.098710371949</c:v>
+                  <c:v>119.77927370975867</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>121.3151130346903</c:v>
+                  <c:v>119.9880936026011</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>121.42825757409319</c:v>
+                  <c:v>120.10807345331318</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>121.7951534591471</c:v>
+                  <c:v>120.53670375967396</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>122.0346244260386</c:v>
+                  <c:v>120.79956037917296</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>121.90390403585469</c:v>
+                  <c:v>121.0065485185694</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>122.1411780213986</c:v>
+                  <c:v>120.96624994275771</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>122.35648219346621</c:v>
+                  <c:v>121.12744424600447</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>122.375156534921</c:v>
+                  <c:v>121.11553784860558</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>122.635498824615</c:v>
+                  <c:v>121.23918120620965</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>122.6113320297911</c:v>
+                  <c:v>121.22635893208773</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>122.84311356196589</c:v>
+                  <c:v>121.43517882493016</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>122.9507656479996</c:v>
+                  <c:v>121.56523331959519</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>122.8892501702661</c:v>
+                  <c:v>121.54233640152034</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>122.89034866093991</c:v>
+                  <c:v>121.60827952557585</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>122.8178482764681</c:v>
+                  <c:v>121.58355085405503</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>122.4586418261309</c:v>
+                  <c:v>121.32710537161697</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>122.375156534921</c:v>
+                  <c:v>121.29138617942026</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>122.1137157545533</c:v>
+                  <c:v>121.17232220543114</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>121.93905573741679</c:v>
+                  <c:v>121.07065988917891</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>121.7314410000659</c:v>
+                  <c:v>120.92778312039198</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>121.44034097150519</c:v>
+                  <c:v>120.70705683015066</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>121.0448843289321</c:v>
+                  <c:v>120.40756514173192</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>120.6692005184876</c:v>
+                  <c:v>120.14104501534094</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>120.44840389305089</c:v>
+                  <c:v>119.98351421898612</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>120.2759408572621</c:v>
+                  <c:v>119.85987086138206</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>120.1122657468638</c:v>
+                  <c:v>119.735311627055</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>120.04415932508731</c:v>
+                  <c:v>119.71607821587213</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>119.945295164444</c:v>
+                  <c:v>119.64463983147868</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>119.86180987323419</c:v>
+                  <c:v>119.64006044786373</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>119.88487817738429</c:v>
+                  <c:v>119.69134954435133</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>119.79809741415291</c:v>
+                  <c:v>119.61441589961991</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>119.73328646439791</c:v>
+                  <c:v>119.601593625498</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>119.71461212294309</c:v>
+                  <c:v>119.54664102211842</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>119.8343476063888</c:v>
+                  <c:v>119.65837798232357</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>119.8244611903245</c:v>
+                  <c:v>119.67028437972249</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>119.6432102291452</c:v>
+                  <c:v>119.52557585748957</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>119.7025287255311</c:v>
+                  <c:v>119.60983651600495</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>119.5410505964804</c:v>
+                  <c:v>119.47337088427898</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>119.3268449150867</c:v>
+                  <c:v>119.28195264917343</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>119.2949886855461</c:v>
+                  <c:v>119.24165407336173</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>119.3180569896961</c:v>
+                  <c:v>119.23524293630076</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>119.28620076015559</c:v>
+                  <c:v>119.2444017035307</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>119.28070830678649</c:v>
+                  <c:v>119.26455099143655</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>119.3202539710438</c:v>
+                  <c:v>119.22700004579383</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>119.49161851615879</c:v>
+                  <c:v>119.32225122498512</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>119.6552936265571</c:v>
+                  <c:v>119.5081741997527</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>119.69264230946681</c:v>
+                  <c:v>119.51824884370563</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>119.81567326493401</c:v>
+                  <c:v>119.6309016806338</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>119.9991212074609</c:v>
+                  <c:v>119.77652607958969</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>120.03866687171831</c:v>
+                  <c:v>119.82048816229336</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>120.36052463914579</c:v>
+                  <c:v>120.12364335760407</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>120.60768504075401</c:v>
+                  <c:v>120.35352841507535</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>120.9449216776149</c:v>
+                  <c:v>120.63470256903422</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>121.0437858382582</c:v>
+                  <c:v>120.70522507670466</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>121.0877254652108</c:v>
+                  <c:v>120.74643952923935</c:v>
                 </c:pt>
                 <c:pt idx="175">
-                  <c:v>121.1964760419184</c:v>
+                  <c:v>120.85542885927553</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>121.36454511501201</c:v>
+                  <c:v>121.00380088840042</c:v>
                 </c:pt>
                 <c:pt idx="177">
-                  <c:v>121.72155458400159</c:v>
+                  <c:v>121.32069423455603</c:v>
                 </c:pt>
                 <c:pt idx="178">
-                  <c:v>121.754509304216</c:v>
+                  <c:v>121.38114209827357</c:v>
                 </c:pt>
                 <c:pt idx="179">
-                  <c:v>121.8951161104642</c:v>
+                  <c:v>121.49929019553969</c:v>
                 </c:pt>
                 <c:pt idx="180">
-                  <c:v>121.99837423380271</c:v>
+                  <c:v>121.62384942986675</c:v>
                 </c:pt>
                 <c:pt idx="181">
-                  <c:v>122.25102708878001</c:v>
+                  <c:v>121.84274396666208</c:v>
                 </c:pt>
                 <c:pt idx="182">
-                  <c:v>122.40371729244021</c:v>
+                  <c:v>121.96638732426615</c:v>
                 </c:pt>
                 <c:pt idx="183">
-                  <c:v>122.7881890282752</c:v>
+                  <c:v>122.29976645143563</c:v>
                 </c:pt>
                 <c:pt idx="184">
-                  <c:v>122.9529626293473</c:v>
+                  <c:v>122.46187663140542</c:v>
                 </c:pt>
                 <c:pt idx="185">
-                  <c:v>123.24186567656039</c:v>
+                  <c:v>122.68626642853873</c:v>
                 </c:pt>
                 <c:pt idx="186">
-                  <c:v>123.5494430652284</c:v>
+                  <c:v>123.02880432293813</c:v>
                 </c:pt>
                 <c:pt idx="187">
-                  <c:v>123.75815629325309</c:v>
+                  <c:v>123.20831616064478</c:v>
                 </c:pt>
                 <c:pt idx="188">
-                  <c:v>123.8515280005273</c:v>
+                  <c:v>123.26967990108531</c:v>
                 </c:pt>
                 <c:pt idx="189">
-                  <c:v>123.9613770679087</c:v>
+                  <c:v>123.34661354581672</c:v>
                 </c:pt>
                 <c:pt idx="190">
-                  <c:v>124.3030076674649</c:v>
+                  <c:v>123.65892750835738</c:v>
                 </c:pt>
                 <c:pt idx="191">
-                  <c:v>124.4535008897774</c:v>
+                  <c:v>123.80272015386728</c:v>
                 </c:pt>
                 <c:pt idx="192">
-                  <c:v>124.7940329986598</c:v>
+                  <c:v>124.05733388285938</c:v>
                 </c:pt>
                 <c:pt idx="193">
-                  <c:v>125.1060043500231</c:v>
+                  <c:v>124.34583505060219</c:v>
                 </c:pt>
                 <c:pt idx="194">
-                  <c:v>125.3883164531933</c:v>
+                  <c:v>124.60411228648624</c:v>
                 </c:pt>
                 <c:pt idx="195">
-                  <c:v>125.57176439572029</c:v>
+                  <c:v>124.77171772679397</c:v>
                 </c:pt>
                 <c:pt idx="196">
-                  <c:v>125.5915372278489</c:v>
+                  <c:v>124.7946146448688</c:v>
                 </c:pt>
                 <c:pt idx="197">
-                  <c:v>125.6827119537755</c:v>
+                  <c:v>124.86696890598526</c:v>
                 </c:pt>
                 <c:pt idx="198">
-                  <c:v>125.8529780082167</c:v>
+                  <c:v>125.05563951092182</c:v>
                 </c:pt>
                 <c:pt idx="199">
-                  <c:v>126.01225915591981</c:v>
+                  <c:v>125.22324495122956</c:v>
                 </c:pt>
                 <c:pt idx="200">
-                  <c:v>126.1023353911725</c:v>
+                  <c:v>125.3633740898475</c:v>
                 </c:pt>
                 <c:pt idx="201">
-                  <c:v>126.1265021859964</c:v>
+                  <c:v>125.37070110363145</c:v>
                 </c:pt>
                 <c:pt idx="202">
-                  <c:v>126.3396093767164</c:v>
+                  <c:v>125.56211933873701</c:v>
                 </c:pt>
                 <c:pt idx="203">
-                  <c:v>126.5219588285695</c:v>
+                  <c:v>125.71873425836881</c:v>
                 </c:pt>
                 <c:pt idx="204">
-                  <c:v>126.7779071555682</c:v>
+                  <c:v>125.93854467188717</c:v>
                 </c:pt>
                 <c:pt idx="205">
-                  <c:v>126.8361271612804</c:v>
+                  <c:v>126.02005770023355</c:v>
                 </c:pt>
                 <c:pt idx="206">
-                  <c:v>127.0250675571764</c:v>
+                  <c:v>126.19407427760223</c:v>
                 </c:pt>
                 <c:pt idx="207">
-                  <c:v>127.0843860535624</c:v>
+                  <c:v>126.26734441544167</c:v>
                 </c:pt>
                 <c:pt idx="208">
-                  <c:v>127.22169738778921</c:v>
+                  <c:v>126.3983147868297</c:v>
                 </c:pt>
                 <c:pt idx="209">
-                  <c:v>127.2887053188918</c:v>
+                  <c:v>126.46700554105416</c:v>
                 </c:pt>
                 <c:pt idx="210">
-                  <c:v>127.29090230023949</c:v>
+                  <c:v>126.43586573247241</c:v>
                 </c:pt>
                 <c:pt idx="211">
-                  <c:v>127.2085154997034</c:v>
+                  <c:v>126.41754819801254</c:v>
                 </c:pt>
                 <c:pt idx="212">
-                  <c:v>127.2469626732869</c:v>
+                  <c:v>126.49814534963595</c:v>
                 </c:pt>
                 <c:pt idx="213">
-                  <c:v>127.3194630577586</c:v>
+                  <c:v>126.57507899436735</c:v>
                 </c:pt>
                 <c:pt idx="214">
-                  <c:v>127.40404683964231</c:v>
+                  <c:v>126.67948894078857</c:v>
                 </c:pt>
                 <c:pt idx="215">
-                  <c:v>127.4655623173759</c:v>
+                  <c:v>126.7692448596419</c:v>
                 </c:pt>
                 <c:pt idx="216">
-                  <c:v>127.471054770745</c:v>
+                  <c:v>126.78481476393277</c:v>
                 </c:pt>
                 <c:pt idx="217">
-                  <c:v>127.346925324604</c:v>
+                  <c:v>126.70788111920135</c:v>
                 </c:pt>
                 <c:pt idx="218">
-                  <c:v>127.23268229452729</c:v>
+                  <c:v>126.6364427348079</c:v>
                 </c:pt>
                 <c:pt idx="219">
-                  <c:v>126.9943098183096</c:v>
+                  <c:v>126.44410862297934</c:v>
                 </c:pt>
                 <c:pt idx="220">
-                  <c:v>126.7537403607443</c:v>
+                  <c:v>126.27375555250265</c:v>
                 </c:pt>
                 <c:pt idx="221">
-                  <c:v>126.5384361886768</c:v>
+                  <c:v>126.12538352337775</c:v>
                 </c:pt>
                 <c:pt idx="222">
-                  <c:v>126.2484346507898</c:v>
+                  <c:v>125.93030178138022</c:v>
                 </c:pt>
                 <c:pt idx="223">
-                  <c:v>125.9562361315552</c:v>
+                  <c:v>125.68576269634106</c:v>
                 </c:pt>
                 <c:pt idx="224">
-                  <c:v>125.4948700485533</c:v>
+                  <c:v>125.27361817099418</c:v>
                 </c:pt>
                 <c:pt idx="225">
-                  <c:v>124.96100358107959</c:v>
+                  <c:v>124.83949260429546</c:v>
                 </c:pt>
                 <c:pt idx="226">
-                  <c:v>124.107476327526</c:v>
+                  <c:v>124.13793103448276</c:v>
                 </c:pt>
                 <c:pt idx="227">
-                  <c:v>123.3495177625942</c:v>
+                  <c:v>123.50231258872554</c:v>
                 </c:pt>
                 <c:pt idx="228">
-                  <c:v>122.4531493727618</c:v>
+                  <c:v>122.77602234739204</c:v>
                 </c:pt>
                 <c:pt idx="229">
-                  <c:v>121.6853043917657</c:v>
+                  <c:v>122.13307688785089</c:v>
                 </c:pt>
                 <c:pt idx="230">
-                  <c:v>120.7988224179977</c:v>
+                  <c:v>121.37931034482759</c:v>
                 </c:pt>
                 <c:pt idx="231">
-                  <c:v>119.91563591625111</c:v>
+                  <c:v>120.75010303613134</c:v>
                 </c:pt>
                 <c:pt idx="232">
-                  <c:v>119.59817211151881</c:v>
+                  <c:v>120.43046205980674</c:v>
                 </c:pt>
                 <c:pt idx="233">
-                  <c:v>119.1258211217787</c:v>
+                  <c:v>119.999084123277</c:v>
                 </c:pt>
                 <c:pt idx="234">
-                  <c:v>118.8248346771536</c:v>
+                  <c:v>119.69776068141229</c:v>
                 </c:pt>
                 <c:pt idx="235">
-                  <c:v>118.5732803128501</c:v>
+                  <c:v>119.50267893941475</c:v>
                 </c:pt>
                 <c:pt idx="236">
-                  <c:v>118.426082562559</c:v>
+                  <c:v>119.30118606035627</c:v>
                 </c:pt>
                 <c:pt idx="237">
-                  <c:v>118.1218006459125</c:v>
+                  <c:v>119.11434720886569</c:v>
                 </c:pt>
                 <c:pt idx="238">
-                  <c:v>118.1097172485006</c:v>
+                  <c:v>119.1125154554197</c:v>
                 </c:pt>
                 <c:pt idx="239">
-                  <c:v>117.8636553375662</c:v>
+                  <c:v>118.8606493565966</c:v>
                 </c:pt>
                 <c:pt idx="240">
-                  <c:v>117.87903420699961</c:v>
+                  <c:v>118.88171452122545</c:v>
                 </c:pt>
                 <c:pt idx="241">
-                  <c:v>117.8208142012874</c:v>
+                  <c:v>118.81943490406191</c:v>
                 </c:pt>
                 <c:pt idx="242">
-                  <c:v>117.95483006349281</c:v>
+                  <c:v>118.96963868663278</c:v>
                 </c:pt>
                 <c:pt idx="243">
-                  <c:v>118.16574027286509</c:v>
+                  <c:v>119.19219673032009</c:v>
                 </c:pt>
                 <c:pt idx="244">
-                  <c:v>118.27229386822511</c:v>
+                  <c:v>119.67211613316849</c:v>
                 </c:pt>
                 <c:pt idx="245">
-                  <c:v>118.403014258409</c:v>
+                  <c:v>119.54664102211842</c:v>
                 </c:pt>
                 <c:pt idx="246">
-                  <c:v>118.5161587978118</c:v>
+                  <c:v>119.48436140495488</c:v>
                 </c:pt>
                 <c:pt idx="247">
-                  <c:v>118.6402882439528</c:v>
+                  <c:v>119.45138984292714</c:v>
                 </c:pt>
                 <c:pt idx="248">
-                  <c:v>118.7732056154843</c:v>
+                  <c:v>119.4037642533315</c:v>
                 </c:pt>
                 <c:pt idx="249">
-                  <c:v>119.00608563833291</c:v>
+                  <c:v>119.64372395475569</c:v>
                 </c:pt>
                 <c:pt idx="250">
-                  <c:v>119.147790935255</c:v>
+                  <c:v>119.75271328479187</c:v>
                 </c:pt>
                 <c:pt idx="251">
-                  <c:v>119.2664279280269</c:v>
+                  <c:v>119.83239455969226</c:v>
                 </c:pt>
                 <c:pt idx="252">
-                  <c:v>119.32245095239141</c:v>
+                  <c:v>119.87177725878098</c:v>
                 </c:pt>
                 <c:pt idx="253">
-                  <c:v>119.5773007887163</c:v>
+                  <c:v>120.04487795942667</c:v>
                 </c:pt>
                 <c:pt idx="254">
-                  <c:v>119.84972647582219</c:v>
+                  <c:v>120.2509502221001</c:v>
                 </c:pt>
                 <c:pt idx="255">
-                  <c:v>120.23859217435241</c:v>
+                  <c:v>120.56784356825571</c:v>
                 </c:pt>
                 <c:pt idx="256">
-                  <c:v>120.38359294329589</c:v>
+                  <c:v>120.63836607592617</c:v>
                 </c:pt>
                 <c:pt idx="257">
-                  <c:v>120.5923061713206</c:v>
+                  <c:v>120.84443833859962</c:v>
                 </c:pt>
                 <c:pt idx="258">
-                  <c:v>120.79442845530239</c:v>
+                  <c:v>120.90763383248616</c:v>
                 </c:pt>
                 <c:pt idx="259">
-                  <c:v>120.950414130984</c:v>
+                  <c:v>121.00838027201539</c:v>
                 </c:pt>
                 <c:pt idx="260">
-                  <c:v>121.2601885009996</c:v>
+                  <c:v>121.23551769931767</c:v>
                 </c:pt>
                 <c:pt idx="261">
-                  <c:v>121.4732956917196</c:v>
+                  <c:v>121.42693593442321</c:v>
                 </c:pt>
                 <c:pt idx="262">
-                  <c:v>121.65784212492041</c:v>
+                  <c:v>121.55607455236526</c:v>
                 </c:pt>
                 <c:pt idx="263">
-                  <c:v>121.9061010172024</c:v>
+                  <c:v>121.74749278747082</c:v>
                 </c:pt>
                 <c:pt idx="264">
-                  <c:v>122.3081486038184</c:v>
+                  <c:v>122.07537665430233</c:v>
                 </c:pt>
                 <c:pt idx="265">
-                  <c:v>122.56739240283849</c:v>
+                  <c:v>122.29243943765169</c:v>
                 </c:pt>
                 <c:pt idx="266">
-                  <c:v>122.8277346925325</c:v>
+                  <c:v>122.50583871410907</c:v>
                 </c:pt>
                 <c:pt idx="267">
-                  <c:v>122.9265988531757</c:v>
+                  <c:v>122.57727709850255</c:v>
                 </c:pt>
                 <c:pt idx="268">
-                  <c:v>123.0748950941406</c:v>
+                  <c:v>122.68260292164675</c:v>
                 </c:pt>
                 <c:pt idx="269">
-                  <c:v>123.13750906254811</c:v>
+                  <c:v>122.75220955259422</c:v>
                 </c:pt>
                 <c:pt idx="270">
-                  <c:v>123.31326757035831</c:v>
+                  <c:v>122.88317992398223</c:v>
                 </c:pt>
                 <c:pt idx="271">
-                  <c:v>123.504404947602</c:v>
+                  <c:v>123.045290103952</c:v>
                 </c:pt>
                 <c:pt idx="272">
-                  <c:v>123.71751213832189</c:v>
+                  <c:v>123.23121307871961</c:v>
                 </c:pt>
                 <c:pt idx="273">
-                  <c:v>123.9020585715227</c:v>
+                  <c:v>123.36493108027659</c:v>
                 </c:pt>
                 <c:pt idx="274">
-                  <c:v>124.06902915394249</c:v>
+                  <c:v>123.48582680771167</c:v>
                 </c:pt>
                 <c:pt idx="275">
-                  <c:v>124.3326669156579</c:v>
+                  <c:v>123.70930072812199</c:v>
                 </c:pt>
                 <c:pt idx="276">
-                  <c:v>124.58092580793991</c:v>
+                  <c:v>123.90255071667353</c:v>
                 </c:pt>
                 <c:pt idx="277">
-                  <c:v>124.87422281784831</c:v>
+                  <c:v>124.16449145944956</c:v>
                 </c:pt>
                 <c:pt idx="278">
-                  <c:v>125.041193400268</c:v>
+                  <c:v>124.28355543343865</c:v>
                 </c:pt>
                 <c:pt idx="279">
-                  <c:v>125.25539908166181</c:v>
+                  <c:v>124.4639831478683</c:v>
                 </c:pt>
                 <c:pt idx="280">
-                  <c:v>125.5212338247248</c:v>
+                  <c:v>124.67097128726475</c:v>
                 </c:pt>
                 <c:pt idx="281">
-                  <c:v>125.7178636553376</c:v>
+                  <c:v>124.81934331638962</c:v>
                 </c:pt>
                 <c:pt idx="282">
-                  <c:v>125.87824329371441</c:v>
+                  <c:v>124.93108027659477</c:v>
                 </c:pt>
                 <c:pt idx="283">
-                  <c:v>126.1440780367775</c:v>
+                  <c:v>125.17012410129598</c:v>
                 </c:pt>
                 <c:pt idx="284">
-                  <c:v>126.34620032075929</c:v>
+                  <c:v>125.34414067866466</c:v>
                 </c:pt>
                 <c:pt idx="285">
-                  <c:v>126.58127732495549</c:v>
+                  <c:v>125.53830654393919</c:v>
                 </c:pt>
                 <c:pt idx="286">
-                  <c:v>126.8558999934091</c:v>
+                  <c:v>125.7746027384714</c:v>
                 </c:pt>
                 <c:pt idx="287">
-                  <c:v>126.9360898125975</c:v>
+                  <c:v>125.81764894445209</c:v>
                 </c:pt>
                 <c:pt idx="288">
-                  <c:v>127.1601819100556</c:v>
+                  <c:v>125.99166552182078</c:v>
                 </c:pt>
                 <c:pt idx="289">
-                  <c:v>127.3128721137158</c:v>
+                  <c:v>126.12996290699272</c:v>
                 </c:pt>
                 <c:pt idx="290">
-                  <c:v>127.5995781795813</c:v>
+                  <c:v>126.37908137564683</c:v>
                 </c:pt>
                 <c:pt idx="291">
-                  <c:v>127.9280268910517</c:v>
+                  <c:v>126.68040481751157</c:v>
                 </c:pt>
                 <c:pt idx="292">
-                  <c:v>128.20484654085291</c:v>
+                  <c:v>126.90571049136786</c:v>
                 </c:pt>
                 <c:pt idx="293">
-                  <c:v>128.48935562537071</c:v>
+                  <c:v>127.18413701515776</c:v>
                 </c:pt>
                 <c:pt idx="294">
-                  <c:v>128.73761451765279</c:v>
+                  <c:v>127.36914411320237</c:v>
                 </c:pt>
                 <c:pt idx="295">
-                  <c:v>128.99905529802049</c:v>
+                  <c:v>127.57979575949076</c:v>
                 </c:pt>
                 <c:pt idx="296">
-                  <c:v>129.25939758771449</c:v>
+                  <c:v>127.83624124192883</c:v>
                 </c:pt>
                 <c:pt idx="297">
-                  <c:v>129.49447459191069</c:v>
+                  <c:v>128.04414525804825</c:v>
                 </c:pt>
                 <c:pt idx="298">
-                  <c:v>129.82621877540259</c:v>
+                  <c:v>128.32989879562211</c:v>
                 </c:pt>
                 <c:pt idx="299">
-                  <c:v>130.08985653711801</c:v>
+                  <c:v>128.56344735998536</c:v>
                 </c:pt>
                 <c:pt idx="300">
-                  <c:v>130.3392139200738</c:v>
+                  <c:v>128.77776251316573</c:v>
                 </c:pt>
                 <c:pt idx="301">
-                  <c:v>130.58307884966061</c:v>
+                  <c:v>128.99574117323809</c:v>
                 </c:pt>
                 <c:pt idx="302">
-                  <c:v>130.68963244502049</c:v>
+                  <c:v>129.07450657141547</c:v>
                 </c:pt>
                 <c:pt idx="303">
-                  <c:v>130.94777775336689</c:v>
+                  <c:v>129.31446627283967</c:v>
                 </c:pt>
                 <c:pt idx="304">
-                  <c:v>131.30368873168271</c:v>
+                  <c:v>129.62952786554928</c:v>
                 </c:pt>
                 <c:pt idx="305">
-                  <c:v>131.51789441307639</c:v>
+                  <c:v>129.81819847048587</c:v>
                 </c:pt>
                 <c:pt idx="306">
-                  <c:v>131.78043368411801</c:v>
+                  <c:v>130.05083115812613</c:v>
                 </c:pt>
                 <c:pt idx="307">
-                  <c:v>131.90676011160659</c:v>
+                  <c:v>130.19462380363603</c:v>
                 </c:pt>
                 <c:pt idx="308">
-                  <c:v>132.03418502976911</c:v>
+                  <c:v>130.28621147593532</c:v>
                 </c:pt>
                 <c:pt idx="309">
-                  <c:v>132.37911110134681</c:v>
+                  <c:v>130.58020790401613</c:v>
                 </c:pt>
                 <c:pt idx="310">
-                  <c:v>132.6647186765384</c:v>
+                  <c:v>130.82932637267024</c:v>
                 </c:pt>
                 <c:pt idx="311">
-                  <c:v>132.9030911527561</c:v>
+                  <c:v>131.04822090946558</c:v>
                 </c:pt>
                 <c:pt idx="312">
-                  <c:v>133.0239251268757</c:v>
+                  <c:v>131.16362137656273</c:v>
                 </c:pt>
                 <c:pt idx="313">
-                  <c:v>133.26669156578859</c:v>
+                  <c:v>131.38068415991208</c:v>
                 </c:pt>
                 <c:pt idx="314">
-                  <c:v>133.47430630313951</c:v>
+                  <c:v>131.58675642258552</c:v>
                 </c:pt>
                 <c:pt idx="315">
-                  <c:v>133.64786782960209</c:v>
+                  <c:v>131.72688556120346</c:v>
                 </c:pt>
                 <c:pt idx="316">
-                  <c:v>133.66654217105699</c:v>
+                  <c:v>131.76626826029215</c:v>
                 </c:pt>
                 <c:pt idx="317">
-                  <c:v>133.96203616231301</c:v>
+                  <c:v>132.0382836470211</c:v>
                 </c:pt>
                 <c:pt idx="318">
-                  <c:v>134.23556034009269</c:v>
+                  <c:v>132.30480377341209</c:v>
                 </c:pt>
                 <c:pt idx="319">
-                  <c:v>134.39264450644811</c:v>
+                  <c:v>132.46599807665888</c:v>
                 </c:pt>
                 <c:pt idx="320">
-                  <c:v>134.63760792670871</c:v>
+                  <c:v>132.69405138068416</c:v>
                 </c:pt>
                 <c:pt idx="321">
-                  <c:v>134.78260869565219</c:v>
+                  <c:v>132.80762009433531</c:v>
                 </c:pt>
                 <c:pt idx="322">
-                  <c:v>134.97814003559111</c:v>
+                  <c:v>132.95782387690619</c:v>
                 </c:pt>
                 <c:pt idx="323">
-                  <c:v>135.1429136366632</c:v>
+                  <c:v>133.0997847689701</c:v>
                 </c:pt>
                 <c:pt idx="324">
-                  <c:v>135.36700573412131</c:v>
+                  <c:v>133.29761414113662</c:v>
                 </c:pt>
                 <c:pt idx="325">
-                  <c:v>135.61087066370811</c:v>
+                  <c:v>133.51009754087099</c:v>
                 </c:pt>
                 <c:pt idx="326">
-                  <c:v>135.6756816134631</c:v>
+                  <c:v>133.55589137702066</c:v>
                 </c:pt>
                 <c:pt idx="327">
-                  <c:v>135.86572050003289</c:v>
+                  <c:v>133.71525392682145</c:v>
                 </c:pt>
                 <c:pt idx="328">
-                  <c:v>136.02719862908361</c:v>
+                  <c:v>133.8416449145945</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13950,16 +13970,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>350520</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>3810</xdr:rowOff>
+      <xdr:rowOff>26670</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>556260</xdr:colOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>213360</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>60960</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -14067,12 +14087,12 @@
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.85661</cdr:x>
-      <cdr:y>0.13604</cdr:y>
+      <cdr:x>0.85755</cdr:x>
+      <cdr:y>0.15672</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.98782</cdr:x>
-      <cdr:y>0.20446</cdr:y>
+      <cdr:x>0.98876</cdr:x>
+      <cdr:y>0.22514</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
@@ -14087,8 +14107,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="6964680" y="651510"/>
-          <a:ext cx="1066800" cy="327660"/>
+          <a:off x="6972322" y="750579"/>
+          <a:ext cx="1066808" cy="327675"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -14100,11 +14120,11 @@
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:r>
             <a:rPr lang="en-US" sz="1400"/>
-            <a:t>Total</a:t>
+            <a:t>All</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1400" baseline="0"/>
-            <a:t> Private</a:t>
+            <a:t> jobs</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1400"/>
         </a:p>
@@ -14655,16 +14675,16 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3" t="s">
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
       <c r="H1" s="1" t="s">
         <v>2</v>
       </c>
@@ -15776,16 +15796,16 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3" t="s">
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
       <c r="H1" s="1" t="s">
         <v>2</v>
       </c>
@@ -16892,22 +16912,22 @@
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="3">
+      <c r="B1" s="4">
         <v>0</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3">
+      <c r="C1" s="4"/>
+      <c r="D1" s="4">
         <v>1220</v>
       </c>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3">
+      <c r="E1" s="4"/>
+      <c r="F1" s="4">
         <v>2010</v>
       </c>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3" t="s">
+      <c r="G1" s="4"/>
+      <c r="H1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="3"/>
+      <c r="I1" s="4"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -18007,22 +18027,22 @@
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="3">
+      <c r="B1" s="4">
         <v>0</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3">
+      <c r="C1" s="4"/>
+      <c r="D1" s="4">
         <v>1220</v>
       </c>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3">
+      <c r="E1" s="4"/>
+      <c r="F1" s="4">
         <v>2010</v>
       </c>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3" t="s">
+      <c r="G1" s="4"/>
+      <c r="H1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="3"/>
+      <c r="I1" s="4"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -31227,8 +31247,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S330"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Z1" workbookViewId="0">
-      <selection activeCell="AL3" sqref="AL3"/>
+    <sheetView tabSelected="1" topLeftCell="O4" workbookViewId="0">
+      <selection activeCell="P4" sqref="P4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -31236,7 +31256,7 @@
     <col min="1" max="1" width="18.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
@@ -31276,8 +31296,14 @@
       <c r="M1" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>32874</v>
       </c>
@@ -31317,8 +31343,15 @@
       <c r="M2">
         <v>26.804248215701829</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N2">
+        <v>109185</v>
+      </c>
+      <c r="O2">
+        <f>N2/$N$2*100</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>32905</v>
       </c>
@@ -31358,8 +31391,15 @@
       <c r="M3">
         <v>28.09167298578199</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N3">
+        <v>109433</v>
+      </c>
+      <c r="O3">
+        <f t="shared" ref="O3:O66" si="0">N3/$N$2*100</f>
+        <v>100.2271374273023</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>32933</v>
       </c>
@@ -31399,8 +31439,15 @@
       <c r="M4">
         <v>28.228422047244091</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N4">
+        <v>109648</v>
+      </c>
+      <c r="O4">
+        <f t="shared" si="0"/>
+        <v>100.42405092274581</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>32964</v>
       </c>
@@ -31440,8 +31487,15 @@
       <c r="M5">
         <v>28.030825216025139</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N5">
+        <v>109687</v>
+      </c>
+      <c r="O5">
+        <f t="shared" si="0"/>
+        <v>100.45977011494254</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>32994</v>
       </c>
@@ -31481,8 +31535,15 @@
       <c r="M6">
         <v>28.080331764705878</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N6">
+        <v>109839</v>
+      </c>
+      <c r="O6">
+        <f t="shared" si="0"/>
+        <v>100.59898337683748</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>33025</v>
       </c>
@@ -31522,8 +31583,15 @@
       <c r="M7">
         <v>28.057159516380661</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N7">
+        <v>109861</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="0"/>
+        <v>100.61913266474332</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>33055</v>
       </c>
@@ -31563,8 +31631,15 @@
       <c r="M8">
         <v>27.722885869565221</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N8">
+        <v>109830</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="0"/>
+        <v>100.59074048633055</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>33086</v>
       </c>
@@ -31604,8 +31679,15 @@
       <c r="M9">
         <v>27.579876443418009</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N9">
+        <v>109614</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="0"/>
+        <v>100.39291111416404</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>33117</v>
       </c>
@@ -31645,8 +31727,15 @@
       <c r="M10">
         <v>27.587698624904512</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N10">
+        <v>109524</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="0"/>
+        <v>100.31048220909466</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>33147</v>
       </c>
@@ -31686,8 +31775,15 @@
       <c r="M11">
         <v>27.800200455580871</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N11">
+        <v>109364</v>
+      </c>
+      <c r="O11">
+        <f t="shared" si="0"/>
+        <v>100.16394193341576</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>33178</v>
       </c>
@@ -31727,8 +31823,15 @@
       <c r="M12">
         <v>26.88598410295231</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N12">
+        <v>109215</v>
+      </c>
+      <c r="O12">
+        <f t="shared" si="0"/>
+        <v>100.0274763016898</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>33208</v>
       </c>
@@ -31768,8 +31871,15 @@
       <c r="M13">
         <v>27.110645660377362</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N13">
+        <v>109159</v>
+      </c>
+      <c r="O13">
+        <f t="shared" si="0"/>
+        <v>99.97618720520218</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>33239</v>
       </c>
@@ -31809,8 +31919,15 @@
       <c r="M14">
         <v>27.316019187358918</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N14">
+        <v>109042</v>
+      </c>
+      <c r="O14">
+        <f t="shared" si="0"/>
+        <v>99.869029628611997</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>33270</v>
       </c>
@@ -31850,8 +31967,15 @@
       <c r="M15">
         <v>27.208405191873592</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N15">
+        <v>108736</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="0"/>
+        <v>99.58877135137611</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>33298</v>
       </c>
@@ -31891,8 +32015,15 @@
       <c r="M16">
         <v>27.170025563909771</v>
       </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N16">
+        <v>108578</v>
+      </c>
+      <c r="O16">
+        <f t="shared" si="0"/>
+        <v>99.444062829143192</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>33329</v>
       </c>
@@ -31932,8 +32063,15 @@
       <c r="M17">
         <v>27.609569392348089</v>
       </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N17">
+        <v>108366</v>
+      </c>
+      <c r="O17">
+        <f t="shared" si="0"/>
+        <v>99.249896963868665</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>33359</v>
       </c>
@@ -31973,8 +32111,15 @@
       <c r="M18">
         <v>27.666729820627801</v>
       </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N18">
+        <v>108243</v>
+      </c>
+      <c r="O18">
+        <f t="shared" si="0"/>
+        <v>99.137244126940516</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>33390</v>
       </c>
@@ -32014,8 +32159,15 @@
       <c r="M19">
         <v>27.818137583892621</v>
       </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N19">
+        <v>108337</v>
+      </c>
+      <c r="O19">
+        <f t="shared" si="0"/>
+        <v>99.223336538901862</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>33420</v>
       </c>
@@ -32055,8 +32207,15 @@
       <c r="M20">
         <v>28.22042814594192</v>
       </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N20">
+        <v>108298</v>
+      </c>
+      <c r="O20">
+        <f t="shared" si="0"/>
+        <v>99.187617346705139</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>33451</v>
       </c>
@@ -32096,8 +32255,15 @@
       <c r="M21">
         <v>27.99814747399703</v>
       </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N21">
+        <v>108308</v>
+      </c>
+      <c r="O21">
+        <f t="shared" si="0"/>
+        <v>99.196776113935059</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>33482</v>
       </c>
@@ -32137,8 +32303,15 @@
       <c r="M22">
         <v>28.23301</v>
       </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N22">
+        <v>108340</v>
+      </c>
+      <c r="O22">
+        <f t="shared" si="0"/>
+        <v>99.226084169070845</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>33512</v>
       </c>
@@ -32178,8 +32351,15 @@
       <c r="M23">
         <v>28.24413683431953</v>
       </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N23">
+        <v>108355</v>
+      </c>
+      <c r="O23">
+        <f t="shared" si="0"/>
+        <v>99.239822319915731</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>33543</v>
       </c>
@@ -32219,8 +32399,15 @@
       <c r="M24">
         <v>27.978925625920471</v>
       </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N24">
+        <v>108298</v>
+      </c>
+      <c r="O24">
+        <f t="shared" si="0"/>
+        <v>99.187617346705139</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>33573</v>
       </c>
@@ -32260,8 +32447,15 @@
       <c r="M25">
         <v>27.826751101321591</v>
       </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N25">
+        <v>108324</v>
+      </c>
+      <c r="O25">
+        <f t="shared" si="0"/>
+        <v>99.211430141502959</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>33604</v>
       </c>
@@ -32301,8 +32495,15 @@
       <c r="M26">
         <v>27.354221365638772</v>
       </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N26">
+        <v>108375</v>
+      </c>
+      <c r="O26">
+        <f t="shared" si="0"/>
+        <v>99.258139854375599</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>33635</v>
       </c>
@@ -32342,8 +32543,15 @@
       <c r="M27">
         <v>27.643354945054941</v>
       </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N27">
+        <v>108314</v>
+      </c>
+      <c r="O27">
+        <f t="shared" si="0"/>
+        <v>99.202271374273025</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>33664</v>
       </c>
@@ -32383,8 +32591,15 @@
       <c r="M28">
         <v>27.51035062089116</v>
       </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N28">
+        <v>108369</v>
+      </c>
+      <c r="O28">
+        <f t="shared" si="0"/>
+        <v>99.252644594037648</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>33695</v>
       </c>
@@ -32424,8 +32639,15 @@
       <c r="M29">
         <v>27.51969096209913</v>
       </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N29">
+        <v>108527</v>
+      </c>
+      <c r="O29">
+        <f t="shared" si="0"/>
+        <v>99.397353116270551</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>33725</v>
       </c>
@@ -32465,8 +32687,15 @@
       <c r="M30">
         <v>27.63300436363637</v>
       </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N30">
+        <v>108654</v>
+      </c>
+      <c r="O30">
+        <f t="shared" si="0"/>
+        <v>99.513669460090668</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>33756</v>
       </c>
@@ -32506,8 +32735,15 @@
       <c r="M31">
         <v>27.550157608695649</v>
       </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N31">
+        <v>108719</v>
+      </c>
+      <c r="O31">
+        <f t="shared" si="0"/>
+        <v>99.573201447085225</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>33786</v>
       </c>
@@ -32546,6 +32782,13 @@
       </c>
       <c r="M32">
         <v>27.711653540462429</v>
+      </c>
+      <c r="N32">
+        <v>108792</v>
+      </c>
+      <c r="O32">
+        <f t="shared" si="0"/>
+        <v>99.640060447863718</v>
       </c>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.3">
@@ -32588,6 +32831,13 @@
       <c r="M33">
         <v>27.634529199711611</v>
       </c>
+      <c r="N33">
+        <v>108930</v>
+      </c>
+      <c r="O33">
+        <f t="shared" si="0"/>
+        <v>99.766451435636753</v>
+      </c>
       <c r="Q33" t="s">
         <v>31</v>
       </c>
@@ -32638,6 +32888,13 @@
       <c r="M34">
         <v>27.31765791366907</v>
       </c>
+      <c r="N34">
+        <v>108966</v>
+      </c>
+      <c r="O34">
+        <f t="shared" si="0"/>
+        <v>99.799422997664507</v>
+      </c>
       <c r="P34">
         <v>1990</v>
       </c>
@@ -32694,6 +32951,13 @@
       <c r="M35">
         <v>27.322267741935491</v>
       </c>
+      <c r="N35">
+        <v>109147</v>
+      </c>
+      <c r="O35">
+        <f t="shared" si="0"/>
+        <v>99.965196684526262</v>
+      </c>
       <c r="P35">
         <v>1995</v>
       </c>
@@ -32750,6 +33014,13 @@
       <c r="M36">
         <v>27.263636266094419</v>
       </c>
+      <c r="N36">
+        <v>109283</v>
+      </c>
+      <c r="O36">
+        <f t="shared" si="0"/>
+        <v>100.08975591885331</v>
+      </c>
       <c r="P36">
         <v>2000</v>
       </c>
@@ -32806,6 +33077,13 @@
       <c r="M37">
         <v>27.32435331905781</v>
       </c>
+      <c r="N37">
+        <v>109494</v>
+      </c>
+      <c r="O37">
+        <f t="shared" si="0"/>
+        <v>100.28300590740487</v>
+      </c>
       <c r="P37">
         <v>2005</v>
       </c>
@@ -32862,6 +33140,13 @@
       <c r="M38">
         <v>27.46711281138791</v>
       </c>
+      <c r="N38">
+        <v>109804</v>
+      </c>
+      <c r="O38">
+        <f t="shared" si="0"/>
+        <v>100.56692769153273</v>
+      </c>
       <c r="P38">
         <v>2010</v>
       </c>
@@ -32918,6 +33203,13 @@
       <c r="M39">
         <v>27.527094460227271</v>
       </c>
+      <c r="N39">
+        <v>110047</v>
+      </c>
+      <c r="O39">
+        <f t="shared" si="0"/>
+        <v>100.78948573522004</v>
+      </c>
       <c r="P39">
         <v>2015</v>
       </c>
@@ -32974,6 +33266,13 @@
       <c r="M40">
         <v>27.57257553191489</v>
       </c>
+      <c r="N40">
+        <v>109998</v>
+      </c>
+      <c r="O40">
+        <f t="shared" si="0"/>
+        <v>100.74460777579337</v>
+      </c>
       <c r="P40" t="s">
         <v>30</v>
       </c>
@@ -33030,6 +33329,13 @@
       <c r="M41">
         <v>27.646294200848651</v>
       </c>
+      <c r="N41">
+        <v>110306</v>
+      </c>
+      <c r="O41">
+        <f t="shared" si="0"/>
+        <v>101.02669780647524</v>
+      </c>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
@@ -33071,6 +33377,13 @@
       <c r="M42">
         <v>27.77002679830747</v>
       </c>
+      <c r="N42">
+        <v>110573</v>
+      </c>
+      <c r="O42">
+        <f t="shared" si="0"/>
+        <v>101.27123689151441</v>
+      </c>
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
@@ -33112,6 +33425,13 @@
       <c r="M43">
         <v>27.74770035211268</v>
       </c>
+      <c r="N43">
+        <v>110752</v>
+      </c>
+      <c r="O43">
+        <f t="shared" si="0"/>
+        <v>101.43517882493016</v>
+      </c>
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
@@ -33153,6 +33473,13 @@
       <c r="M44">
         <v>27.51010555946516</v>
       </c>
+      <c r="N44">
+        <v>111054</v>
+      </c>
+      <c r="O44">
+        <f t="shared" si="0"/>
+        <v>101.71177359527408</v>
+      </c>
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
@@ -33194,6 +33521,13 @@
       <c r="M45">
         <v>27.602800912921349</v>
       </c>
+      <c r="N45">
+        <v>111212</v>
+      </c>
+      <c r="O45">
+        <f t="shared" si="0"/>
+        <v>101.85648211750697</v>
+      </c>
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
@@ -33235,6 +33569,13 @@
       <c r="M46">
         <v>27.76743157894737</v>
       </c>
+      <c r="N46">
+        <v>111453</v>
+      </c>
+      <c r="O46">
+        <f t="shared" si="0"/>
+        <v>102.07720840774832</v>
+      </c>
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A47" s="2">
@@ -33276,6 +33617,13 @@
       <c r="M47">
         <v>27.947963337988831</v>
       </c>
+      <c r="N47">
+        <v>111736</v>
+      </c>
+      <c r="O47">
+        <f t="shared" si="0"/>
+        <v>102.33640152035537</v>
+      </c>
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
@@ -33317,8 +33665,15 @@
       <c r="M48">
         <v>28.258054393305439</v>
       </c>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N48">
+        <v>111999</v>
+      </c>
+      <c r="O48">
+        <f t="shared" si="0"/>
+        <v>102.57727709850255</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A49" s="2">
         <v>34304</v>
       </c>
@@ -33358,8 +33713,15 @@
       <c r="M49">
         <v>28.447875782880999</v>
       </c>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N49">
+        <v>112315</v>
+      </c>
+      <c r="O49">
+        <f t="shared" si="0"/>
+        <v>102.86669414296836</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A50" s="2">
         <v>34335</v>
       </c>
@@ -33399,8 +33761,15 @@
       <c r="M50">
         <v>28.394940542420031</v>
       </c>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N50">
+        <v>112587</v>
+      </c>
+      <c r="O50">
+        <f t="shared" si="0"/>
+        <v>103.11581261162249</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A51" s="2">
         <v>34366</v>
       </c>
@@ -33440,8 +33809,15 @@
       <c r="M51">
         <v>28.554140624999999</v>
       </c>
-    </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N51">
+        <v>112783</v>
+      </c>
+      <c r="O51">
+        <f t="shared" si="0"/>
+        <v>103.29532444932912</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A52" s="2">
         <v>34394</v>
       </c>
@@ -33481,8 +33857,15 @@
       <c r="M52">
         <v>28.36262681912682</v>
       </c>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N52">
+        <v>113247</v>
+      </c>
+      <c r="O52">
+        <f t="shared" si="0"/>
+        <v>103.72029124879791</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A53" s="2">
         <v>34425</v>
       </c>
@@ -33522,8 +33905,15 @@
       <c r="M53">
         <v>28.504824913494819</v>
       </c>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N53">
+        <v>113597</v>
+      </c>
+      <c r="O53">
+        <f t="shared" si="0"/>
+        <v>104.04084810184548</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A54" s="2">
         <v>34455</v>
       </c>
@@ -33563,8 +33953,15 @@
       <c r="M54">
         <v>28.330536256906079</v>
       </c>
-    </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N54">
+        <v>113931</v>
+      </c>
+      <c r="O54">
+        <f t="shared" si="0"/>
+        <v>104.34675092732517</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A55" s="2">
         <v>34486</v>
       </c>
@@ -33604,8 +34001,15 @@
       <c r="M55">
         <v>28.331476600137641</v>
       </c>
-    </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N55">
+        <v>114245</v>
+      </c>
+      <c r="O55">
+        <f t="shared" si="0"/>
+        <v>104.63433621834501</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A56" s="2">
         <v>34516</v>
       </c>
@@ -33645,8 +34049,15 @@
       <c r="M56">
         <v>28.329328992460589</v>
       </c>
-    </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N56">
+        <v>114619</v>
+      </c>
+      <c r="O56">
+        <f t="shared" si="0"/>
+        <v>104.97687411274444</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A57" s="2">
         <v>34547</v>
       </c>
@@ -33686,8 +34097,15 @@
       <c r="M57">
         <v>28.408552218430039</v>
       </c>
-    </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N57">
+        <v>114902</v>
+      </c>
+      <c r="O57">
+        <f t="shared" si="0"/>
+        <v>105.23606722535146</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A58" s="2">
         <v>34578</v>
       </c>
@@ -33727,8 +34145,15 @@
       <c r="M58">
         <v>28.399208787465941</v>
       </c>
-    </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N58">
+        <v>115256</v>
+      </c>
+      <c r="O58">
+        <f t="shared" si="0"/>
+        <v>105.56028758529101</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A59" s="2">
         <v>34608</v>
       </c>
@@ -33768,8 +34193,15 @@
       <c r="M59">
         <v>28.26629203539823</v>
       </c>
-    </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N59">
+        <v>115465</v>
+      </c>
+      <c r="O59">
+        <f t="shared" si="0"/>
+        <v>105.75170582039657</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A60" s="2">
         <v>34639</v>
       </c>
@@ -33809,8 +34241,15 @@
       <c r="M60">
         <v>28.416085539714871</v>
       </c>
-    </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N60">
+        <v>115886</v>
+      </c>
+      <c r="O60">
+        <f t="shared" si="0"/>
+        <v>106.13728992077667</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A61" s="2">
         <v>34669</v>
       </c>
@@ -33850,8 +34289,15 @@
       <c r="M61">
         <v>28.422926829268299</v>
       </c>
-    </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N61">
+        <v>116166</v>
+      </c>
+      <c r="O61">
+        <f t="shared" si="0"/>
+        <v>106.39373540321473</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A62" s="2">
         <v>34700</v>
       </c>
@@ -33891,8 +34337,15 @@
       <c r="M62">
         <v>28.346108108108108</v>
       </c>
-    </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N62">
+        <v>116492</v>
+      </c>
+      <c r="O62">
+        <f t="shared" si="0"/>
+        <v>106.69231121491048</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A63" s="2">
         <v>34731</v>
       </c>
@@ -33932,8 +34385,15 @@
       <c r="M63">
         <v>28.462451482479779</v>
       </c>
-    </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N63">
+        <v>116693</v>
+      </c>
+      <c r="O63">
+        <f t="shared" si="0"/>
+        <v>106.87640243623208</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A64" s="2">
         <v>34759</v>
       </c>
@@ -33973,8 +34433,15 @@
       <c r="M64">
         <v>28.34394044414536</v>
       </c>
-    </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N64">
+        <v>116912</v>
+      </c>
+      <c r="O64">
+        <f t="shared" si="0"/>
+        <v>107.07697943856758</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A65" s="2">
         <v>34790</v>
       </c>
@@ -34014,8 +34481,15 @@
       <c r="M65">
         <v>27.974337466487938</v>
       </c>
-    </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N65">
+        <v>117075</v>
+      </c>
+      <c r="O65">
+        <f t="shared" si="0"/>
+        <v>107.22626734441545</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A66" s="2">
         <v>34820</v>
       </c>
@@ -34055,8 +34529,15 @@
       <c r="M66">
         <v>27.950089966555179</v>
       </c>
-    </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N66">
+        <v>117059</v>
+      </c>
+      <c r="O66">
+        <f t="shared" si="0"/>
+        <v>107.21161331684755</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A67" s="2">
         <v>34851</v>
       </c>
@@ -34096,8 +34577,15 @@
       <c r="M67">
         <v>28.02141288384512</v>
       </c>
-    </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N67">
+        <v>117293</v>
+      </c>
+      <c r="O67">
+        <f t="shared" ref="O67:O130" si="1">N67/$N$2*100</f>
+        <v>107.42592847002794</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A68" s="2">
         <v>34881</v>
       </c>
@@ -34137,8 +34625,15 @@
       <c r="M68">
         <v>28.273046697798531</v>
       </c>
-    </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N68">
+        <v>117389</v>
+      </c>
+      <c r="O68">
+        <f t="shared" si="1"/>
+        <v>107.51385263543527</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A69" s="2">
         <v>34912</v>
       </c>
@@ -34178,8 +34673,15 @@
       <c r="M69">
         <v>28.184836218375509</v>
       </c>
-    </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N69">
+        <v>117644</v>
+      </c>
+      <c r="O69">
+        <f t="shared" si="1"/>
+        <v>107.7474011997985</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A70" s="2">
         <v>34943</v>
       </c>
@@ -34219,8 +34721,15 @@
       <c r="M70">
         <v>28.147356382978732</v>
       </c>
-    </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N70">
+        <v>117888</v>
+      </c>
+      <c r="O70">
+        <f t="shared" si="1"/>
+        <v>107.97087512020882</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A71" s="2">
         <v>34973</v>
       </c>
@@ -34260,8 +34769,15 @@
       <c r="M71">
         <v>28.246568633952251</v>
       </c>
-    </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N71">
+        <v>118039</v>
+      </c>
+      <c r="O71">
+        <f t="shared" si="1"/>
+        <v>108.10917250538077</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A72" s="2">
         <v>35004</v>
       </c>
@@ -34301,8 +34817,15 @@
       <c r="M72">
         <v>28.10148011928429</v>
       </c>
-    </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N72">
+        <v>118188</v>
+      </c>
+      <c r="O72">
+        <f t="shared" si="1"/>
+        <v>108.24563813710675</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A73" s="2">
         <v>35034</v>
       </c>
@@ -34342,8 +34865,15 @@
       <c r="M73">
         <v>28.027186715135489</v>
       </c>
-    </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N73">
+        <v>118322</v>
+      </c>
+      <c r="O73">
+        <f t="shared" si="1"/>
+        <v>108.36836561798782</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A74" s="2">
         <v>35065</v>
       </c>
@@ -34383,8 +34913,15 @@
       <c r="M74">
         <v>28.02356940789474</v>
       </c>
-    </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N74">
+        <v>118307</v>
+      </c>
+      <c r="O74">
+        <f t="shared" si="1"/>
+        <v>108.35462746714293</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A75" s="2">
         <v>35096</v>
       </c>
@@ -34424,8 +34961,15 @@
       <c r="M75">
         <v>27.96836868023637</v>
       </c>
-    </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N75">
+        <v>118736</v>
+      </c>
+      <c r="O75">
+        <f t="shared" si="1"/>
+        <v>108.74753858130694</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A76" s="2">
         <v>35125</v>
       </c>
@@ -34465,8 +35009,15 @@
       <c r="M76">
         <v>27.06354741661217</v>
       </c>
-    </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N76">
+        <v>119001</v>
+      </c>
+      <c r="O76">
+        <f t="shared" si="1"/>
+        <v>108.99024591290012</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A77" s="2">
         <v>35156</v>
       </c>
@@ -34506,8 +35057,15 @@
       <c r="M77">
         <v>28.3893647327249</v>
       </c>
-    </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N77">
+        <v>119165</v>
+      </c>
+      <c r="O77">
+        <f t="shared" si="1"/>
+        <v>109.14044969547099</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A78" s="2">
         <v>35186</v>
       </c>
@@ -34547,8 +35105,15 @@
       <c r="M78">
         <v>28.300031859557869</v>
       </c>
-    </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N78">
+        <v>119488</v>
+      </c>
+      <c r="O78">
+        <f t="shared" si="1"/>
+        <v>109.43627787699775</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A79" s="2">
         <v>35217</v>
       </c>
@@ -34588,8 +35153,15 @@
       <c r="M79">
         <v>28.35614805194805</v>
       </c>
-    </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N79">
+        <v>119773</v>
+      </c>
+      <c r="O79">
+        <f t="shared" si="1"/>
+        <v>109.69730274305078</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A80" s="2">
         <v>35247</v>
       </c>
@@ -34629,8 +35201,15 @@
       <c r="M80">
         <v>28.501842190537911</v>
       </c>
-    </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N80">
+        <v>120023</v>
+      </c>
+      <c r="O80">
+        <f t="shared" si="1"/>
+        <v>109.92627192379905</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A81" s="2">
         <v>35278</v>
       </c>
@@ -34670,8 +35249,15 @@
       <c r="M81">
         <v>28.326093203883499</v>
       </c>
-    </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N81">
+        <v>120203</v>
+      </c>
+      <c r="O81">
+        <f t="shared" si="1"/>
+        <v>110.09112973393782</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A82" s="2">
         <v>35309</v>
       </c>
@@ -34711,8 +35297,15 @@
       <c r="M82">
         <v>28.252946417043251</v>
       </c>
-    </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N82">
+        <v>120427</v>
+      </c>
+      <c r="O82">
+        <f t="shared" si="1"/>
+        <v>110.29628611988826</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A83" s="2">
         <v>35339</v>
       </c>
@@ -34752,8 +35345,15 @@
       <c r="M83">
         <v>27.732555984555979</v>
       </c>
-    </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N83">
+        <v>120676</v>
+      </c>
+      <c r="O83">
+        <f t="shared" si="1"/>
+        <v>110.52433942391353</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A84" s="2">
         <v>35370</v>
       </c>
@@ -34793,8 +35393,15 @@
       <c r="M84">
         <v>27.67419178960872</v>
       </c>
-    </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N84">
+        <v>120975</v>
+      </c>
+      <c r="O84">
+        <f t="shared" si="1"/>
+        <v>110.79818656408847</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A85" s="2">
         <v>35400</v>
       </c>
@@ -34834,8 +35441,15 @@
       <c r="M85">
         <v>27.954129558541261</v>
       </c>
-    </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N85">
+        <v>121146</v>
+      </c>
+      <c r="O85">
+        <f t="shared" si="1"/>
+        <v>110.9548014837203</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A86" s="2">
         <v>35431</v>
       </c>
@@ -34875,8 +35489,15 @@
       <c r="M86">
         <v>28.052790229885058</v>
       </c>
-    </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N86">
+        <v>121379</v>
+      </c>
+      <c r="O86">
+        <f t="shared" si="1"/>
+        <v>111.16820076017768</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A87" s="2">
         <v>35462</v>
       </c>
@@ -34916,8 +35537,15 @@
       <c r="M87">
         <v>27.801653919694079</v>
       </c>
-    </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N87">
+        <v>121684</v>
+      </c>
+      <c r="O87">
+        <f t="shared" si="1"/>
+        <v>111.44754316069057</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A88" s="2">
         <v>35490</v>
       </c>
@@ -34957,8 +35585,15 @@
       <c r="M88">
         <v>27.832038240917779</v>
       </c>
-    </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N88">
+        <v>121999</v>
+      </c>
+      <c r="O88">
+        <f t="shared" si="1"/>
+        <v>111.73604432843341</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A89" s="2">
         <v>35521</v>
       </c>
@@ -34998,8 +35633,15 @@
       <c r="M89">
         <v>27.85985828025478</v>
       </c>
-    </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N89">
+        <v>122291</v>
+      </c>
+      <c r="O89">
+        <f t="shared" si="1"/>
+        <v>112.00348033154737</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A90" s="2">
         <v>35551</v>
       </c>
@@ -35039,8 +35681,15 @@
       <c r="M90">
         <v>27.89022324840764</v>
       </c>
-    </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N90">
+        <v>122552</v>
+      </c>
+      <c r="O90">
+        <f t="shared" si="1"/>
+        <v>112.24252415624858</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A91" s="2">
         <v>35582</v>
       </c>
@@ -35080,8 +35729,15 @@
       <c r="M91">
         <v>27.791570883661791</v>
       </c>
-    </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N91">
+        <v>122818</v>
+      </c>
+      <c r="O91">
+        <f t="shared" si="1"/>
+        <v>112.48614736456473</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A92" s="2">
         <v>35612</v>
       </c>
@@ -35121,8 +35777,15 @@
       <c r="M92">
         <v>27.3953167090216</v>
       </c>
-    </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N92">
+        <v>123124</v>
+      </c>
+      <c r="O92">
+        <f t="shared" si="1"/>
+        <v>112.7664056418006</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A93" s="2">
         <v>35643</v>
       </c>
@@ -35162,8 +35825,15 @@
       <c r="M93">
         <v>27.779038973384029</v>
       </c>
-    </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N93">
+        <v>123093</v>
+      </c>
+      <c r="O93">
+        <f t="shared" si="1"/>
+        <v>112.73801346338783</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A94" s="2">
         <v>35674</v>
       </c>
@@ -35203,8 +35873,15 @@
       <c r="M94">
         <v>27.49785872313527</v>
       </c>
-    </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N94">
+        <v>123604</v>
+      </c>
+      <c r="O94">
+        <f t="shared" si="1"/>
+        <v>113.20602646883728</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A95" s="2">
         <v>35704</v>
       </c>
@@ -35244,8 +35921,15 @@
       <c r="M95">
         <v>28.21555397727273</v>
       </c>
-    </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N95">
+        <v>123946</v>
+      </c>
+      <c r="O95">
+        <f t="shared" si="1"/>
+        <v>113.51925630810094</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A96" s="2">
         <v>35735</v>
       </c>
@@ -35285,8 +35969,15 @@
       <c r="M96">
         <v>28.210031841109711</v>
       </c>
-    </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N96">
+        <v>124250</v>
+      </c>
+      <c r="O96">
+        <f t="shared" si="1"/>
+        <v>113.79768283189082</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A97" s="2">
         <v>35765</v>
       </c>
@@ -35326,8 +36017,15 @@
       <c r="M97">
         <v>28.24009047919294</v>
       </c>
-    </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N97">
+        <v>124554</v>
+      </c>
+      <c r="O97">
+        <f t="shared" si="1"/>
+        <v>114.07610935568073</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A98" s="2">
         <v>35796</v>
       </c>
@@ -35367,8 +36065,15 @@
       <c r="M98">
         <v>27.859284634760701</v>
       </c>
-    </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N98">
+        <v>124828</v>
+      </c>
+      <c r="O98">
+        <f t="shared" si="1"/>
+        <v>114.32705957778082</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A99" s="2">
         <v>35827</v>
       </c>
@@ -35408,8 +36113,15 @@
       <c r="M99">
         <v>28.04205765595464</v>
       </c>
-    </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N99">
+        <v>125027</v>
+      </c>
+      <c r="O99">
+        <f t="shared" si="1"/>
+        <v>114.50931904565644</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A100" s="2">
         <v>35855</v>
       </c>
@@ -35449,8 +36161,15 @@
       <c r="M100">
         <v>28.147196597353499</v>
       </c>
-    </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N100">
+        <v>125176</v>
+      </c>
+      <c r="O100">
+        <f t="shared" si="1"/>
+        <v>114.64578467738242</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A101" s="2">
         <v>35886</v>
       </c>
@@ -35490,8 +36209,15 @@
       <c r="M101">
         <v>27.69417034005037</v>
       </c>
-    </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N101">
+        <v>125456</v>
+      </c>
+      <c r="O101">
+        <f t="shared" si="1"/>
+        <v>114.90223015982049</v>
+      </c>
+    </row>
+    <row r="102" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A102" s="2">
         <v>35916</v>
       </c>
@@ -35531,8 +36257,15 @@
       <c r="M102">
         <v>27.547392655367229</v>
       </c>
-    </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N102">
+        <v>125860</v>
+      </c>
+      <c r="O102">
+        <f t="shared" si="1"/>
+        <v>115.27224435590971</v>
+      </c>
+    </row>
+    <row r="103" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A103" s="2">
         <v>35947</v>
       </c>
@@ -35572,8 +36305,15 @@
       <c r="M103">
         <v>27.139237617554858</v>
       </c>
-    </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N103">
+        <v>126080</v>
+      </c>
+      <c r="O103">
+        <f t="shared" si="1"/>
+        <v>115.47373723496817</v>
+      </c>
+    </row>
+    <row r="104" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A104" s="2">
         <v>35977</v>
       </c>
@@ -35613,8 +36353,15 @@
       <c r="M104">
         <v>25.969553504380471</v>
       </c>
-    </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N104">
+        <v>126209</v>
+      </c>
+      <c r="O104">
+        <f t="shared" si="1"/>
+        <v>115.59188533223428</v>
+      </c>
+    </row>
+    <row r="105" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A105" s="2">
         <v>36008</v>
       </c>
@@ -35654,8 +36401,15 @@
       <c r="M105">
         <v>26.905449375</v>
       </c>
-    </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N105">
+        <v>126551</v>
+      </c>
+      <c r="O105">
+        <f t="shared" si="1"/>
+        <v>115.90511517149791</v>
+      </c>
+    </row>
+    <row r="106" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A106" s="2">
         <v>36039</v>
       </c>
@@ -35695,8 +36449,15 @@
       <c r="M106">
         <v>26.903532479700189</v>
       </c>
-    </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N106">
+        <v>126773</v>
+      </c>
+      <c r="O106">
+        <f t="shared" si="1"/>
+        <v>116.10843980400239</v>
+      </c>
+    </row>
+    <row r="107" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A107" s="2">
         <v>36069</v>
       </c>
@@ -35736,8 +36497,15 @@
       <c r="M107">
         <v>26.717671962616819</v>
       </c>
-    </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N107">
+        <v>126974</v>
+      </c>
+      <c r="O107">
+        <f t="shared" si="1"/>
+        <v>116.292531025324</v>
+      </c>
+    </row>
+    <row r="108" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A108" s="2">
         <v>36100</v>
       </c>
@@ -35777,8 +36545,15 @@
       <c r="M108">
         <v>26.654754511512131</v>
       </c>
-    </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N108">
+        <v>127254</v>
+      </c>
+      <c r="O108">
+        <f t="shared" si="1"/>
+        <v>116.54897650776206</v>
+      </c>
+    </row>
+    <row r="109" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A109" s="2">
         <v>36130</v>
       </c>
@@ -35818,8 +36593,15 @@
       <c r="M109">
         <v>26.455407821229048</v>
       </c>
-    </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N109">
+        <v>127601</v>
+      </c>
+      <c r="O109">
+        <f t="shared" si="1"/>
+        <v>116.86678573064067</v>
+      </c>
+    </row>
+    <row r="110" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A110" s="2">
         <v>36161</v>
       </c>
@@ -35859,8 +36641,15 @@
       <c r="M110">
         <v>26.568688661710031</v>
       </c>
-    </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N110">
+        <v>127727</v>
+      </c>
+      <c r="O110">
+        <f t="shared" si="1"/>
+        <v>116.98218619773779</v>
+      </c>
+    </row>
+    <row r="111" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A111" s="2">
         <v>36192</v>
       </c>
@@ -35900,8 +36689,15 @@
       <c r="M111">
         <v>26.732937693738371</v>
       </c>
-    </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N111">
+        <v>128136</v>
+      </c>
+      <c r="O111">
+        <f t="shared" si="1"/>
+        <v>117.35677977744197</v>
+      </c>
+    </row>
+    <row r="112" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A112" s="2">
         <v>36220</v>
       </c>
@@ -35941,8 +36737,15 @@
       <c r="M112">
         <v>26.996977695167288</v>
       </c>
-    </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N112">
+        <v>128244</v>
+      </c>
+      <c r="O112">
+        <f t="shared" si="1"/>
+        <v>117.45569446352522</v>
+      </c>
+    </row>
+    <row r="113" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A113" s="2">
         <v>36251</v>
       </c>
@@ -35982,8 +36785,15 @@
       <c r="M113">
         <v>26.962838977832511</v>
       </c>
-    </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N113">
+        <v>128618</v>
+      </c>
+      <c r="O113">
+        <f t="shared" si="1"/>
+        <v>117.79823235792462</v>
+      </c>
+    </row>
+    <row r="114" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A114" s="2">
         <v>36281</v>
       </c>
@@ -36023,8 +36833,15 @@
       <c r="M114">
         <v>27.046951107011068</v>
       </c>
-    </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N114">
+        <v>128830</v>
+      </c>
+      <c r="O114">
+        <f t="shared" si="1"/>
+        <v>117.99239822319916</v>
+      </c>
+    </row>
+    <row r="115" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A115" s="2">
         <v>36312</v>
       </c>
@@ -36064,8 +36881,15 @@
       <c r="M115">
         <v>27.369462177121779</v>
       </c>
-    </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N115">
+        <v>129093</v>
+      </c>
+      <c r="O115">
+        <f t="shared" si="1"/>
+        <v>118.23327380134634</v>
+      </c>
+    </row>
+    <row r="116" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A116" s="2">
         <v>36342</v>
       </c>
@@ -36105,8 +36929,15 @@
       <c r="M116">
         <v>27.398108083282299</v>
       </c>
-    </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N116">
+        <v>129414</v>
+      </c>
+      <c r="O116">
+        <f t="shared" si="1"/>
+        <v>118.52727022942713</v>
+      </c>
+    </row>
+    <row r="117" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A117" s="2">
         <v>36373</v>
       </c>
@@ -36146,8 +36977,15 @@
       <c r="M117">
         <v>27.212609890109889</v>
       </c>
-    </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N117">
+        <v>129576</v>
+      </c>
+      <c r="O117">
+        <f t="shared" si="1"/>
+        <v>118.675642258552</v>
+      </c>
+    </row>
+    <row r="118" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A118" s="2">
         <v>36404</v>
       </c>
@@ -36187,8 +37025,15 @@
       <c r="M118">
         <v>27.094830801944109</v>
       </c>
-    </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N118">
+        <v>129792</v>
+      </c>
+      <c r="O118">
+        <f t="shared" si="1"/>
+        <v>118.87347163071851</v>
+      </c>
+    </row>
+    <row r="119" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A119" s="2">
         <v>36434</v>
       </c>
@@ -36228,8 +37073,15 @@
       <c r="M119">
         <v>26.828710733778049</v>
       </c>
-    </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N119">
+        <v>130189</v>
+      </c>
+      <c r="O119">
+        <f t="shared" si="1"/>
+        <v>119.23707468974676</v>
+      </c>
+    </row>
+    <row r="120" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A120" s="2">
         <v>36465</v>
       </c>
@@ -36269,8 +37121,15 @@
       <c r="M120">
         <v>26.75289794064204</v>
       </c>
-    </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N120">
+        <v>130482</v>
+      </c>
+      <c r="O120">
+        <f t="shared" si="1"/>
+        <v>119.50542656958373</v>
+      </c>
+    </row>
+    <row r="121" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A121" s="2">
         <v>36495</v>
       </c>
@@ -36310,8 +37169,15 @@
       <c r="M121">
         <v>26.801668478260869</v>
       </c>
-    </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N121">
+        <v>130781</v>
+      </c>
+      <c r="O121">
+        <f t="shared" si="1"/>
+        <v>119.77927370975867</v>
+      </c>
+    </row>
+    <row r="122" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A122" s="2">
         <v>36526</v>
       </c>
@@ -36351,8 +37217,15 @@
       <c r="M122">
         <v>27.081710240963851</v>
       </c>
-    </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N122">
+        <v>131009</v>
+      </c>
+      <c r="O122">
+        <f t="shared" si="1"/>
+        <v>119.9880936026011</v>
+      </c>
+    </row>
+    <row r="123" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A123" s="2">
         <v>36557</v>
       </c>
@@ -36392,8 +37265,15 @@
       <c r="M123">
         <v>26.939391721655671</v>
       </c>
-    </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N123">
+        <v>131140</v>
+      </c>
+      <c r="O123">
+        <f t="shared" si="1"/>
+        <v>120.10807345331318</v>
+      </c>
+    </row>
+    <row r="124" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A124" s="2">
         <v>36586</v>
       </c>
@@ -36433,8 +37313,15 @@
       <c r="M124">
         <v>26.734382002383789</v>
       </c>
-    </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N124">
+        <v>131608</v>
+      </c>
+      <c r="O124">
+        <f t="shared" si="1"/>
+        <v>120.53670375967396</v>
+      </c>
+    </row>
+    <row r="125" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A125" s="2">
         <v>36617</v>
       </c>
@@ -36474,8 +37361,15 @@
       <c r="M125">
         <v>26.96539618138425</v>
       </c>
-    </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N125">
+        <v>131895</v>
+      </c>
+      <c r="O125">
+        <f t="shared" si="1"/>
+        <v>120.79956037917296</v>
+      </c>
+    </row>
+    <row r="126" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A126" s="2">
         <v>36647</v>
       </c>
@@ -36515,8 +37409,15 @@
       <c r="M126">
         <v>26.917215008933891</v>
       </c>
-    </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N126">
+        <v>132121</v>
+      </c>
+      <c r="O126">
+        <f t="shared" si="1"/>
+        <v>121.0065485185694</v>
+      </c>
+    </row>
+    <row r="127" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A127" s="2">
         <v>36678</v>
       </c>
@@ -36556,8 +37457,15 @@
       <c r="M127">
         <v>26.953580769230769</v>
       </c>
-    </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N127">
+        <v>132077</v>
+      </c>
+      <c r="O127">
+        <f t="shared" si="1"/>
+        <v>120.96624994275771</v>
+      </c>
+    </row>
+    <row r="128" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A128" s="2">
         <v>36708</v>
       </c>
@@ -36597,8 +37505,15 @@
       <c r="M128">
         <v>26.817820353982299</v>
       </c>
-    </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N128">
+        <v>132253</v>
+      </c>
+      <c r="O128">
+        <f t="shared" si="1"/>
+        <v>121.12744424600447</v>
+      </c>
+    </row>
+    <row r="129" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A129" s="2">
         <v>36739</v>
       </c>
@@ -36638,8 +37553,15 @@
       <c r="M129">
         <v>27.00437507383343</v>
       </c>
-    </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N129">
+        <v>132240</v>
+      </c>
+      <c r="O129">
+        <f t="shared" si="1"/>
+        <v>121.11553784860558</v>
+      </c>
+    </row>
+    <row r="130" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A130" s="2">
         <v>36770</v>
       </c>
@@ -36679,8 +37601,15 @@
       <c r="M130">
         <v>26.817812096300649</v>
       </c>
-    </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N130">
+        <v>132375</v>
+      </c>
+      <c r="O130">
+        <f t="shared" si="1"/>
+        <v>121.23918120620965</v>
+      </c>
+    </row>
+    <row r="131" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A131" s="2">
         <v>36800</v>
       </c>
@@ -36720,8 +37649,15 @@
       <c r="M131">
         <v>27.107902346041062</v>
       </c>
-    </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N131">
+        <v>132361</v>
+      </c>
+      <c r="O131">
+        <f t="shared" ref="O131:O194" si="2">N131/$N$2*100</f>
+        <v>121.22635893208773</v>
+      </c>
+    </row>
+    <row r="132" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A132" s="2">
         <v>36831</v>
       </c>
@@ -36761,8 +37697,15 @@
       <c r="M132">
         <v>27.18589110070257</v>
       </c>
-    </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N132">
+        <v>132589</v>
+      </c>
+      <c r="O132">
+        <f t="shared" si="2"/>
+        <v>121.43517882493016</v>
+      </c>
+    </row>
+    <row r="133" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A133" s="2">
         <v>36861</v>
       </c>
@@ -36802,8 +37745,15 @@
       <c r="M133">
         <v>26.816062500000001</v>
       </c>
-    </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N133">
+        <v>132731</v>
+      </c>
+      <c r="O133">
+        <f t="shared" si="2"/>
+        <v>121.56523331959519</v>
+      </c>
+    </row>
+    <row r="134" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A134" s="2">
         <v>36892</v>
       </c>
@@ -36843,8 +37793,15 @@
       <c r="M134">
         <v>26.328120209059239</v>
       </c>
-    </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N134">
+        <v>132706</v>
+      </c>
+      <c r="O134">
+        <f t="shared" si="2"/>
+        <v>121.54233640152034</v>
+      </c>
+    </row>
+    <row r="135" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A135" s="2">
         <v>36923</v>
       </c>
@@ -36884,8 +37841,15 @@
       <c r="M135">
         <v>26.572515652173919</v>
       </c>
-    </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N135">
+        <v>132778</v>
+      </c>
+      <c r="O135">
+        <f t="shared" si="2"/>
+        <v>121.60827952557585</v>
+      </c>
+    </row>
+    <row r="136" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A136" s="2">
         <v>36951</v>
       </c>
@@ -36925,8 +37889,15 @@
       <c r="M136">
         <v>26.570930475086911</v>
       </c>
-    </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N136">
+        <v>132751</v>
+      </c>
+      <c r="O136">
+        <f t="shared" si="2"/>
+        <v>121.58355085405503</v>
+      </c>
+    </row>
+    <row r="137" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A137" s="2">
         <v>36982</v>
       </c>
@@ -36966,8 +37937,15 @@
       <c r="M137">
         <v>26.55082976878613</v>
       </c>
-    </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N137">
+        <v>132471</v>
+      </c>
+      <c r="O137">
+        <f t="shared" si="2"/>
+        <v>121.32710537161697</v>
+      </c>
+    </row>
+    <row r="138" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A138" s="2">
         <v>37012</v>
       </c>
@@ -37007,8 +37985,15 @@
       <c r="M138">
         <v>26.754416379310349</v>
       </c>
-    </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N138">
+        <v>132432</v>
+      </c>
+      <c r="O138">
+        <f t="shared" si="2"/>
+        <v>121.29138617942026</v>
+      </c>
+    </row>
+    <row r="139" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A139" s="2">
         <v>37043</v>
       </c>
@@ -37048,8 +38033,15 @@
       <c r="M139">
         <v>26.805799942594721</v>
       </c>
-    </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N139">
+        <v>132302</v>
+      </c>
+      <c r="O139">
+        <f t="shared" si="2"/>
+        <v>121.17232220543114</v>
+      </c>
+    </row>
+    <row r="140" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A140" s="2">
         <v>37073</v>
       </c>
@@ -37089,8 +38081,15 @@
       <c r="M140">
         <v>27.23779574223245</v>
       </c>
-    </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N140">
+        <v>132191</v>
+      </c>
+      <c r="O140">
+        <f t="shared" si="2"/>
+        <v>121.07065988917891</v>
+      </c>
+    </row>
+    <row r="141" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A141" s="2">
         <v>37104</v>
       </c>
@@ -37130,8 +38129,15 @@
       <c r="M141">
         <v>27.196651035673181</v>
       </c>
-    </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N141">
+        <v>132035</v>
+      </c>
+      <c r="O141">
+        <f t="shared" si="2"/>
+        <v>120.92778312039198</v>
+      </c>
+    </row>
+    <row r="142" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A142" s="2">
         <v>37135</v>
       </c>
@@ -37171,8 +38177,15 @@
       <c r="M142">
         <v>27.20662907842015</v>
       </c>
-    </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N142">
+        <v>131794</v>
+      </c>
+      <c r="O142">
+        <f t="shared" si="2"/>
+        <v>120.70705683015066</v>
+      </c>
+    </row>
+    <row r="143" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A143" s="2">
         <v>37165</v>
       </c>
@@ -37212,8 +38225,15 @@
       <c r="M143">
         <v>27.331788959171941</v>
       </c>
-    </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N143">
+        <v>131467</v>
+      </c>
+      <c r="O143">
+        <f t="shared" si="2"/>
+        <v>120.40756514173192</v>
+      </c>
+    </row>
+    <row r="144" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A144" s="2">
         <v>37196</v>
       </c>
@@ -37253,8 +38273,15 @@
       <c r="M144">
         <v>27.500487046632131</v>
       </c>
-    </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N144">
+        <v>131176</v>
+      </c>
+      <c r="O144">
+        <f t="shared" si="2"/>
+        <v>120.14104501534094</v>
+      </c>
+    </row>
+    <row r="145" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A145" s="2">
         <v>37226</v>
       </c>
@@ -37294,8 +38321,15 @@
       <c r="M145">
         <v>27.919222318339099</v>
       </c>
-    </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N145">
+        <v>131004</v>
+      </c>
+      <c r="O145">
+        <f t="shared" si="2"/>
+        <v>119.98351421898612</v>
+      </c>
+    </row>
+    <row r="146" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A146" s="2">
         <v>37257</v>
       </c>
@@ -37335,8 +38369,15 @@
       <c r="M146">
         <v>27.939616580310879</v>
       </c>
-    </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N146">
+        <v>130869</v>
+      </c>
+      <c r="O146">
+        <f t="shared" si="2"/>
+        <v>119.85987086138206</v>
+      </c>
+    </row>
+    <row r="147" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A147" s="2">
         <v>37288</v>
       </c>
@@ -37376,8 +38417,15 @@
       <c r="M147">
         <v>28.209037952846462</v>
       </c>
-    </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N147">
+        <v>130733</v>
+      </c>
+      <c r="O147">
+        <f t="shared" si="2"/>
+        <v>119.735311627055</v>
+      </c>
+    </row>
+    <row r="148" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A148" s="2">
         <v>37316</v>
       </c>
@@ -37417,8 +38465,15 @@
       <c r="M148">
         <v>28.33060229226361</v>
       </c>
-    </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N148">
+        <v>130712</v>
+      </c>
+      <c r="O148">
+        <f t="shared" si="2"/>
+        <v>119.71607821587213</v>
+      </c>
+    </row>
+    <row r="149" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A149" s="2">
         <v>37347</v>
       </c>
@@ -37458,8 +38513,15 @@
       <c r="M149">
         <v>28.41626083238312</v>
       </c>
-    </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N149">
+        <v>130634</v>
+      </c>
+      <c r="O149">
+        <f t="shared" si="2"/>
+        <v>119.64463983147868</v>
+      </c>
+    </row>
+    <row r="150" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A150" s="2">
         <v>37377</v>
       </c>
@@ -37499,8 +38561,15 @@
       <c r="M150">
         <v>28.42723333333333</v>
       </c>
-    </row>
-    <row r="151" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N150">
+        <v>130629</v>
+      </c>
+      <c r="O150">
+        <f t="shared" si="2"/>
+        <v>119.64006044786373</v>
+      </c>
+    </row>
+    <row r="151" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A151" s="2">
         <v>37408</v>
       </c>
@@ -37540,8 +38609,15 @@
       <c r="M151">
         <v>28.4898406374502</v>
       </c>
-    </row>
-    <row r="152" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N151">
+        <v>130685</v>
+      </c>
+      <c r="O151">
+        <f t="shared" si="2"/>
+        <v>119.69134954435133</v>
+      </c>
+    </row>
+    <row r="152" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A152" s="2">
         <v>37438</v>
       </c>
@@ -37581,8 +38657,15 @@
       <c r="M152">
         <v>28.411591993185692</v>
       </c>
-    </row>
-    <row r="153" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N152">
+        <v>130601</v>
+      </c>
+      <c r="O152">
+        <f t="shared" si="2"/>
+        <v>119.61441589961991</v>
+      </c>
+    </row>
+    <row r="153" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A153" s="2">
         <v>37469</v>
       </c>
@@ -37622,8 +38705,15 @@
       <c r="M153">
         <v>28.601100509626281</v>
       </c>
-    </row>
-    <row r="154" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N153">
+        <v>130587</v>
+      </c>
+      <c r="O153">
+        <f t="shared" si="2"/>
+        <v>119.601593625498</v>
+      </c>
+    </row>
+    <row r="154" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A154" s="2">
         <v>37500</v>
       </c>
@@ -37663,8 +38753,15 @@
       <c r="M154">
         <v>28.690085972850682</v>
       </c>
-    </row>
-    <row r="155" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N154">
+        <v>130527</v>
+      </c>
+      <c r="O154">
+        <f t="shared" si="2"/>
+        <v>119.54664102211842</v>
+      </c>
+    </row>
+    <row r="155" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A155" s="2">
         <v>37530</v>
       </c>
@@ -37704,8 +38801,15 @@
       <c r="M155">
         <v>29.015423532731379</v>
       </c>
-    </row>
-    <row r="156" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N155">
+        <v>130649</v>
+      </c>
+      <c r="O155">
+        <f t="shared" si="2"/>
+        <v>119.65837798232357</v>
+      </c>
+    </row>
+    <row r="156" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A156" s="2">
         <v>37561</v>
       </c>
@@ -37745,8 +38849,15 @@
       <c r="M156">
         <v>29.087244507042261</v>
       </c>
-    </row>
-    <row r="157" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N156">
+        <v>130662</v>
+      </c>
+      <c r="O156">
+        <f t="shared" si="2"/>
+        <v>119.67028437972249</v>
+      </c>
+    </row>
+    <row r="157" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A157" s="2">
         <v>37591</v>
       </c>
@@ -37786,8 +38897,15 @@
       <c r="M157">
         <v>29.081334833989871</v>
       </c>
-    </row>
-    <row r="158" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N157">
+        <v>130504</v>
+      </c>
+      <c r="O157">
+        <f t="shared" si="2"/>
+        <v>119.52557585748957</v>
+      </c>
+    </row>
+    <row r="158" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A158" s="2">
         <v>37622</v>
       </c>
@@ -37827,8 +38945,15 @@
       <c r="M158">
         <v>28.974827267637181</v>
       </c>
-    </row>
-    <row r="159" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N158">
+        <v>130596</v>
+      </c>
+      <c r="O158">
+        <f t="shared" si="2"/>
+        <v>119.60983651600495</v>
+      </c>
+    </row>
+    <row r="159" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A159" s="2">
         <v>37653</v>
       </c>
@@ -37868,8 +38993,15 @@
       <c r="M159">
         <v>28.75766944908181</v>
       </c>
-    </row>
-    <row r="160" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N159">
+        <v>130447</v>
+      </c>
+      <c r="O159">
+        <f t="shared" si="2"/>
+        <v>119.47337088427898</v>
+      </c>
+    </row>
+    <row r="160" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A160" s="2">
         <v>37681</v>
       </c>
@@ -37909,8 +39041,15 @@
       <c r="M160">
         <v>28.667328706274301</v>
       </c>
-    </row>
-    <row r="161" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N160">
+        <v>130238</v>
+      </c>
+      <c r="O160">
+        <f t="shared" si="2"/>
+        <v>119.28195264917343</v>
+      </c>
+    </row>
+    <row r="161" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A161" s="2">
         <v>37712</v>
       </c>
@@ -37950,8 +39089,15 @@
       <c r="M161">
         <v>28.63838420758929</v>
       </c>
-    </row>
-    <row r="162" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N161">
+        <v>130194</v>
+      </c>
+      <c r="O161">
+        <f t="shared" si="2"/>
+        <v>119.24165407336173</v>
+      </c>
+    </row>
+    <row r="162" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A162" s="2">
         <v>37742</v>
       </c>
@@ -37991,8 +39137,15 @@
       <c r="M162">
         <v>28.905257694459991</v>
       </c>
-    </row>
-    <row r="163" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N162">
+        <v>130187</v>
+      </c>
+      <c r="O162">
+        <f t="shared" si="2"/>
+        <v>119.23524293630076</v>
+      </c>
+    </row>
+    <row r="163" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A163" s="2">
         <v>37773</v>
       </c>
@@ -38032,8 +39185,15 @@
       <c r="M163">
         <v>28.979534656232531</v>
       </c>
-    </row>
-    <row r="164" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N163">
+        <v>130197</v>
+      </c>
+      <c r="O163">
+        <f t="shared" si="2"/>
+        <v>119.2444017035307</v>
+      </c>
+    </row>
+    <row r="164" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A164" s="2">
         <v>37803</v>
       </c>
@@ -38073,8 +39233,15 @@
       <c r="M164">
         <v>28.925340301003342</v>
       </c>
-    </row>
-    <row r="165" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N164">
+        <v>130219</v>
+      </c>
+      <c r="O164">
+        <f t="shared" si="2"/>
+        <v>119.26455099143655</v>
+      </c>
+    </row>
+    <row r="165" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A165" s="2">
         <v>37834</v>
       </c>
@@ -38114,8 +39281,15 @@
       <c r="M165">
         <v>28.807395174708819</v>
       </c>
-    </row>
-    <row r="166" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N165">
+        <v>130178</v>
+      </c>
+      <c r="O165">
+        <f t="shared" si="2"/>
+        <v>119.22700004579383</v>
+      </c>
+    </row>
+    <row r="166" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A166" s="2">
         <v>37865</v>
       </c>
@@ -38155,8 +39329,15 @@
       <c r="M166">
         <v>28.685495024875621</v>
       </c>
-    </row>
-    <row r="167" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N166">
+        <v>130282</v>
+      </c>
+      <c r="O166">
+        <f t="shared" si="2"/>
+        <v>119.32225122498512</v>
+      </c>
+    </row>
+    <row r="167" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A167" s="2">
         <v>37895</v>
       </c>
@@ -38196,8 +39377,15 @@
       <c r="M167">
         <v>28.57476328903655</v>
       </c>
-    </row>
-    <row r="168" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N167">
+        <v>130485</v>
+      </c>
+      <c r="O167">
+        <f t="shared" si="2"/>
+        <v>119.5081741997527</v>
+      </c>
+    </row>
+    <row r="168" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A168" s="2">
         <v>37926</v>
       </c>
@@ -38237,8 +39425,15 @@
       <c r="M168">
         <v>28.548366279069771</v>
       </c>
-    </row>
-    <row r="169" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N168">
+        <v>130496</v>
+      </c>
+      <c r="O168">
+        <f t="shared" si="2"/>
+        <v>119.51824884370563</v>
+      </c>
+    </row>
+    <row r="169" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A169" s="2">
         <v>37956</v>
       </c>
@@ -38278,8 +39473,15 @@
       <c r="M169">
         <v>28.40625994475138</v>
       </c>
-    </row>
-    <row r="170" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N169">
+        <v>130619</v>
+      </c>
+      <c r="O169">
+        <f t="shared" si="2"/>
+        <v>119.6309016806338</v>
+      </c>
+    </row>
+    <row r="170" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A170" s="2">
         <v>37987</v>
       </c>
@@ -38319,8 +39521,15 @@
       <c r="M170">
         <v>28.29192056074767</v>
       </c>
-    </row>
-    <row r="171" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N170">
+        <v>130778</v>
+      </c>
+      <c r="O170">
+        <f t="shared" si="2"/>
+        <v>119.77652607958969</v>
+      </c>
+    </row>
+    <row r="171" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A171" s="2">
         <v>38018</v>
       </c>
@@ -38360,8 +39569,15 @@
       <c r="M171">
         <v>28.253570723684209</v>
       </c>
-    </row>
-    <row r="172" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N171">
+        <v>130826</v>
+      </c>
+      <c r="O171">
+        <f t="shared" si="2"/>
+        <v>119.82048816229336</v>
+      </c>
+    </row>
+    <row r="172" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A172" s="2">
         <v>38047</v>
       </c>
@@ -38401,8 +39617,15 @@
       <c r="M172">
         <v>28.168036945812808</v>
       </c>
-    </row>
-    <row r="173" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N172">
+        <v>131157</v>
+      </c>
+      <c r="O172">
+        <f t="shared" si="2"/>
+        <v>120.12364335760407</v>
+      </c>
+    </row>
+    <row r="173" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A173" s="2">
         <v>38078</v>
       </c>
@@ -38442,8 +39665,15 @@
       <c r="M173">
         <v>28.283024343544859</v>
       </c>
-    </row>
-    <row r="174" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N173">
+        <v>131408</v>
+      </c>
+      <c r="O173">
+        <f t="shared" si="2"/>
+        <v>120.35352841507535</v>
+      </c>
+    </row>
+    <row r="174" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A174" s="2">
         <v>38108</v>
       </c>
@@ -38483,8 +39713,15 @@
       <c r="M174">
         <v>27.9086768226333</v>
       </c>
-    </row>
-    <row r="175" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N174">
+        <v>131715</v>
+      </c>
+      <c r="O174">
+        <f t="shared" si="2"/>
+        <v>120.63470256903422</v>
+      </c>
+    </row>
+    <row r="175" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A175" s="2">
         <v>38139</v>
       </c>
@@ -38524,8 +39761,15 @@
       <c r="M175">
         <v>27.88250027114967</v>
       </c>
-    </row>
-    <row r="176" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N175">
+        <v>131792</v>
+      </c>
+      <c r="O175">
+        <f t="shared" si="2"/>
+        <v>120.70522507670466</v>
+      </c>
+    </row>
+    <row r="176" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A176" s="2">
         <v>38169</v>
       </c>
@@ -38565,8 +39809,15 @@
       <c r="M176">
         <v>27.77481663055255</v>
       </c>
-    </row>
-    <row r="177" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N176">
+        <v>131837</v>
+      </c>
+      <c r="O176">
+        <f t="shared" si="2"/>
+        <v>120.74643952923935</v>
+      </c>
+    </row>
+    <row r="177" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A177" s="2">
         <v>38200</v>
       </c>
@@ -38606,8 +39857,15 @@
       <c r="M177">
         <v>27.953361667569041</v>
       </c>
-    </row>
-    <row r="178" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N177">
+        <v>131956</v>
+      </c>
+      <c r="O177">
+        <f t="shared" si="2"/>
+        <v>120.85542885927553</v>
+      </c>
+    </row>
+    <row r="178" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A178" s="2">
         <v>38231</v>
       </c>
@@ -38647,8 +39905,15 @@
       <c r="M178">
         <v>28.055804910955199</v>
       </c>
-    </row>
-    <row r="179" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N178">
+        <v>132118</v>
+      </c>
+      <c r="O178">
+        <f t="shared" si="2"/>
+        <v>121.00380088840042</v>
+      </c>
+    </row>
+    <row r="179" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A179" s="2">
         <v>38261</v>
       </c>
@@ -38688,8 +39953,15 @@
       <c r="M179">
         <v>27.8774517167382</v>
       </c>
-    </row>
-    <row r="180" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N179">
+        <v>132464</v>
+      </c>
+      <c r="O179">
+        <f t="shared" si="2"/>
+        <v>121.32069423455603</v>
+      </c>
+    </row>
+    <row r="180" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A180" s="2">
         <v>38292</v>
       </c>
@@ -38729,8 +40001,15 @@
       <c r="M180">
         <v>27.91948639274279</v>
       </c>
-    </row>
-    <row r="181" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N180">
+        <v>132530</v>
+      </c>
+      <c r="O180">
+        <f t="shared" si="2"/>
+        <v>121.38114209827357</v>
+      </c>
+    </row>
+    <row r="181" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A181" s="2">
         <v>38322</v>
       </c>
@@ -38770,8 +40049,15 @@
       <c r="M181">
         <v>28.021243062966921</v>
       </c>
-    </row>
-    <row r="182" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N181">
+        <v>132659</v>
+      </c>
+      <c r="O181">
+        <f t="shared" si="2"/>
+        <v>121.49929019553969</v>
+      </c>
+    </row>
+    <row r="182" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A182" s="2">
         <v>38353</v>
       </c>
@@ -38811,8 +40097,15 @@
       <c r="M182">
         <v>28.12757932692308</v>
       </c>
-    </row>
-    <row r="183" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N182">
+        <v>132795</v>
+      </c>
+      <c r="O182">
+        <f t="shared" si="2"/>
+        <v>121.62384942986675</v>
+      </c>
+    </row>
+    <row r="183" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A183" s="2">
         <v>38384</v>
       </c>
@@ -38852,8 +40145,15 @@
       <c r="M183">
         <v>28.121998404255319</v>
       </c>
-    </row>
-    <row r="184" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N183">
+        <v>133034</v>
+      </c>
+      <c r="O183">
+        <f t="shared" si="2"/>
+        <v>121.84274396666208</v>
+      </c>
+    </row>
+    <row r="184" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A184" s="2">
         <v>38412</v>
       </c>
@@ -38893,8 +40193,15 @@
       <c r="M184">
         <v>27.931423647932132</v>
       </c>
-    </row>
-    <row r="185" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N184">
+        <v>133169</v>
+      </c>
+      <c r="O184">
+        <f t="shared" si="2"/>
+        <v>121.96638732426615</v>
+      </c>
+    </row>
+    <row r="185" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A185" s="2">
         <v>38443</v>
       </c>
@@ -38934,8 +40241,15 @@
       <c r="M185">
         <v>27.714810618066561</v>
       </c>
-    </row>
-    <row r="186" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N185">
+        <v>133533</v>
+      </c>
+      <c r="O185">
+        <f t="shared" si="2"/>
+        <v>122.29976645143563</v>
+      </c>
+    </row>
+    <row r="186" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A186" s="2">
         <v>38473</v>
       </c>
@@ -38975,8 +40289,15 @@
       <c r="M186">
         <v>27.895385774722371</v>
       </c>
-    </row>
-    <row r="187" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N186">
+        <v>133710</v>
+      </c>
+      <c r="O186">
+        <f t="shared" si="2"/>
+        <v>122.46187663140542</v>
+      </c>
+    </row>
+    <row r="187" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A187" s="2">
         <v>38504</v>
       </c>
@@ -39016,8 +40337,15 @@
       <c r="M187">
         <v>27.81554595879556</v>
       </c>
-    </row>
-    <row r="188" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N187">
+        <v>133955</v>
+      </c>
+      <c r="O187">
+        <f t="shared" si="2"/>
+        <v>122.68626642853873</v>
+      </c>
+    </row>
+    <row r="188" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A188" s="2">
         <v>38534</v>
       </c>
@@ -39057,8 +40385,15 @@
       <c r="M188">
         <v>27.625828174186779</v>
       </c>
-    </row>
-    <row r="189" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N188">
+        <v>134329</v>
+      </c>
+      <c r="O188">
+        <f t="shared" si="2"/>
+        <v>123.02880432293813</v>
+      </c>
+    </row>
+    <row r="189" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A189" s="2">
         <v>38565</v>
       </c>
@@ -39098,8 +40433,15 @@
       <c r="M189">
         <v>27.722346093750001</v>
       </c>
-    </row>
-    <row r="190" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N189">
+        <v>134525</v>
+      </c>
+      <c r="O189">
+        <f t="shared" si="2"/>
+        <v>123.20831616064478</v>
+      </c>
+    </row>
+    <row r="190" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A190" s="2">
         <v>38596</v>
       </c>
@@ -39139,8 +40481,15 @@
       <c r="M190">
         <v>27.171899538698099</v>
       </c>
-    </row>
-    <row r="191" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N190">
+        <v>134592</v>
+      </c>
+      <c r="O190">
+        <f t="shared" si="2"/>
+        <v>123.26967990108531</v>
+      </c>
+    </row>
+    <row r="191" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A191" s="2">
         <v>38626</v>
       </c>
@@ -39180,8 +40529,15 @@
       <c r="M191">
         <v>27.487685194672139</v>
       </c>
-    </row>
-    <row r="192" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N191">
+        <v>134676</v>
+      </c>
+      <c r="O191">
+        <f t="shared" si="2"/>
+        <v>123.34661354581672</v>
+      </c>
+    </row>
+    <row r="192" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A192" s="2">
         <v>38657</v>
       </c>
@@ -39221,8 +40577,15 @@
       <c r="M192">
         <v>27.749771553949412</v>
       </c>
-    </row>
-    <row r="193" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N192">
+        <v>135017</v>
+      </c>
+      <c r="O192">
+        <f t="shared" si="2"/>
+        <v>123.65892750835738</v>
+      </c>
+    </row>
+    <row r="193" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A193" s="2">
         <v>38687</v>
       </c>
@@ -39262,8 +40625,15 @@
       <c r="M193">
         <v>27.737465668559629</v>
       </c>
-    </row>
-    <row r="194" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N193">
+        <v>135174</v>
+      </c>
+      <c r="O193">
+        <f t="shared" si="2"/>
+        <v>123.80272015386728</v>
+      </c>
+    </row>
+    <row r="194" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A194" s="2">
         <v>38718</v>
       </c>
@@ -39303,8 +40673,15 @@
       <c r="M194">
         <v>27.501774218349571</v>
       </c>
-    </row>
-    <row r="195" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N194">
+        <v>135452</v>
+      </c>
+      <c r="O194">
+        <f t="shared" si="2"/>
+        <v>124.05733388285938</v>
+      </c>
+    </row>
+    <row r="195" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A195" s="2">
         <v>38749</v>
       </c>
@@ -39344,8 +40721,15 @@
       <c r="M195">
         <v>27.41808692307692</v>
       </c>
-    </row>
-    <row r="196" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N195">
+        <v>135767</v>
+      </c>
+      <c r="O195">
+        <f t="shared" ref="O195:O258" si="3">N195/$N$2*100</f>
+        <v>124.34583505060219</v>
+      </c>
+    </row>
+    <row r="196" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A196" s="2">
         <v>38777</v>
       </c>
@@ -39385,8 +40769,15 @@
       <c r="M196">
         <v>27.375970046082951</v>
       </c>
-    </row>
-    <row r="197" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N196">
+        <v>136049</v>
+      </c>
+      <c r="O196">
+        <f t="shared" si="3"/>
+        <v>124.60411228648624</v>
+      </c>
+    </row>
+    <row r="197" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A197" s="2">
         <v>38808</v>
       </c>
@@ -39426,8 +40817,15 @@
       <c r="M197">
         <v>27.101275203665988</v>
       </c>
-    </row>
-    <row r="198" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N197">
+        <v>136232</v>
+      </c>
+      <c r="O197">
+        <f t="shared" si="3"/>
+        <v>124.77171772679397</v>
+      </c>
+    </row>
+    <row r="198" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A198" s="2">
         <v>38838</v>
       </c>
@@ -39467,8 +40865,15 @@
       <c r="M198">
         <v>27.067132233502541</v>
       </c>
-    </row>
-    <row r="199" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N198">
+        <v>136257</v>
+      </c>
+      <c r="O198">
+        <f t="shared" si="3"/>
+        <v>124.7946146448688</v>
+      </c>
+    </row>
+    <row r="199" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A199" s="2">
         <v>38869</v>
       </c>
@@ -39508,8 +40913,15 @@
       <c r="M199">
         <v>26.93983358662614</v>
       </c>
-    </row>
-    <row r="200" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N199">
+        <v>136336</v>
+      </c>
+      <c r="O199">
+        <f t="shared" si="3"/>
+        <v>124.86696890598526</v>
+      </c>
+    </row>
+    <row r="200" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A200" s="2">
         <v>38899</v>
       </c>
@@ -39549,8 +40961,15 @@
       <c r="M200">
         <v>26.501003021148041</v>
       </c>
-    </row>
-    <row r="201" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N200">
+        <v>136542</v>
+      </c>
+      <c r="O200">
+        <f t="shared" si="3"/>
+        <v>125.05563951092182</v>
+      </c>
+    </row>
+    <row r="201" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A201" s="2">
         <v>38930</v>
       </c>
@@ -39590,8 +41009,15 @@
       <c r="M201">
         <v>26.297812781954889</v>
       </c>
-    </row>
-    <row r="202" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N201">
+        <v>136725</v>
+      </c>
+      <c r="O201">
+        <f t="shared" si="3"/>
+        <v>125.22324495122956</v>
+      </c>
+    </row>
+    <row r="202" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A202" s="2">
         <v>38961</v>
       </c>
@@ -39631,8 +41057,15 @@
       <c r="M202">
         <v>26.228564296520421</v>
       </c>
-    </row>
-    <row r="203" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N202">
+        <v>136878</v>
+      </c>
+      <c r="O202">
+        <f t="shared" si="3"/>
+        <v>125.3633740898475</v>
+      </c>
+    </row>
+    <row r="203" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A203" s="2">
         <v>38991</v>
       </c>
@@ -39672,8 +41105,15 @@
       <c r="M203">
         <v>26.291502283105022</v>
       </c>
-    </row>
-    <row r="204" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N203">
+        <v>136886</v>
+      </c>
+      <c r="O203">
+        <f t="shared" si="3"/>
+        <v>125.37070110363145</v>
+      </c>
+    </row>
+    <row r="204" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A204" s="2">
         <v>39022</v>
       </c>
@@ -39713,8 +41153,15 @@
       <c r="M204">
         <v>26.229819979716019</v>
       </c>
-    </row>
-    <row r="205" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N204">
+        <v>137095</v>
+      </c>
+      <c r="O204">
+        <f t="shared" si="3"/>
+        <v>125.56211933873701</v>
+      </c>
+    </row>
+    <row r="205" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A205" s="2">
         <v>39052</v>
       </c>
@@ -39754,8 +41201,15 @@
       <c r="M205">
         <v>26.179301159274189</v>
       </c>
-    </row>
-    <row r="206" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N205">
+        <v>137266</v>
+      </c>
+      <c r="O205">
+        <f t="shared" si="3"/>
+        <v>125.71873425836881</v>
+      </c>
+    </row>
+    <row r="206" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A206" s="2">
         <v>39083</v>
       </c>
@@ -39795,8 +41249,15 @@
       <c r="M206">
         <v>26.007207735646709</v>
       </c>
-    </row>
-    <row r="207" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N206">
+        <v>137506</v>
+      </c>
+      <c r="O206">
+        <f t="shared" si="3"/>
+        <v>125.93854467188717</v>
+      </c>
+    </row>
+    <row r="207" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A207" s="2">
         <v>39114</v>
       </c>
@@ -39836,8 +41297,15 @@
       <c r="M207">
         <v>25.857263686332729</v>
       </c>
-    </row>
-    <row r="208" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N207">
+        <v>137595</v>
+      </c>
+      <c r="O207">
+        <f t="shared" si="3"/>
+        <v>126.02005770023355</v>
+      </c>
+    </row>
+    <row r="208" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A208" s="2">
         <v>39142</v>
       </c>
@@ -39877,8 +41345,15 @@
       <c r="M208">
         <v>25.909497383503609</v>
       </c>
-    </row>
-    <row r="209" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N208">
+        <v>137785</v>
+      </c>
+      <c r="O208">
+        <f t="shared" si="3"/>
+        <v>126.19407427760223</v>
+      </c>
+    </row>
+    <row r="209" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A209" s="2">
         <v>39173</v>
       </c>
@@ -39918,8 +41393,15 @@
       <c r="M209">
         <v>26.227917726423719</v>
       </c>
-    </row>
-    <row r="210" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N209">
+        <v>137865</v>
+      </c>
+      <c r="O209">
+        <f t="shared" si="3"/>
+        <v>126.26734441544167</v>
+      </c>
+    </row>
+    <row r="210" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A210" s="2">
         <v>39203</v>
       </c>
@@ -39959,8 +41441,15 @@
       <c r="M210">
         <v>25.98417130144605</v>
       </c>
-    </row>
-    <row r="211" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N210">
+        <v>138008</v>
+      </c>
+      <c r="O210">
+        <f t="shared" si="3"/>
+        <v>126.3983147868297</v>
+      </c>
+    </row>
+    <row r="211" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A211" s="2">
         <v>39234</v>
       </c>
@@ -40000,8 +41489,15 @@
       <c r="M211">
         <v>26.01816809111186</v>
       </c>
-    </row>
-    <row r="212" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N211">
+        <v>138083</v>
+      </c>
+      <c r="O211">
+        <f t="shared" si="3"/>
+        <v>126.46700554105416</v>
+      </c>
+    </row>
+    <row r="212" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A212" s="2">
         <v>39264</v>
       </c>
@@ -40041,8 +41537,15 @@
       <c r="M212">
         <v>25.920340410442801</v>
       </c>
-    </row>
-    <row r="213" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N212">
+        <v>138049</v>
+      </c>
+      <c r="O212">
+        <f t="shared" si="3"/>
+        <v>126.43586573247241</v>
+      </c>
+    </row>
+    <row r="213" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A213" s="2">
         <v>39295</v>
       </c>
@@ -40082,8 +41585,15 @@
       <c r="M213">
         <v>26.343343872817002</v>
       </c>
-    </row>
-    <row r="214" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N213">
+        <v>138029</v>
+      </c>
+      <c r="O213">
+        <f t="shared" si="3"/>
+        <v>126.41754819801254</v>
+      </c>
+    </row>
+    <row r="214" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A214" s="2">
         <v>39326</v>
       </c>
@@ -40123,8 +41633,15 @@
       <c r="M214">
         <v>25.937813396073821</v>
       </c>
-    </row>
-    <row r="215" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N214">
+        <v>138117</v>
+      </c>
+      <c r="O214">
+        <f t="shared" si="3"/>
+        <v>126.49814534963595</v>
+      </c>
+    </row>
+    <row r="215" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A215" s="2">
         <v>39356</v>
       </c>
@@ -40164,8 +41681,15 @@
       <c r="M215">
         <v>25.447060159964039</v>
       </c>
-    </row>
-    <row r="216" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N215">
+        <v>138201</v>
+      </c>
+      <c r="O215">
+        <f t="shared" si="3"/>
+        <v>126.57507899436735</v>
+      </c>
+    </row>
+    <row r="216" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A216" s="2">
         <v>39387</v>
       </c>
@@ -40205,8 +41729,15 @@
       <c r="M216">
         <v>25.351224095428591</v>
       </c>
-    </row>
-    <row r="217" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N216">
+        <v>138315</v>
+      </c>
+      <c r="O216">
+        <f t="shared" si="3"/>
+        <v>126.67948894078857</v>
+      </c>
+    </row>
+    <row r="217" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A217" s="2">
         <v>39417</v>
       </c>
@@ -40246,8 +41777,15 @@
       <c r="M217">
         <v>25.32038994336261</v>
       </c>
-    </row>
-    <row r="218" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N217">
+        <v>138413</v>
+      </c>
+      <c r="O217">
+        <f t="shared" si="3"/>
+        <v>126.7692448596419</v>
+      </c>
+    </row>
+    <row r="218" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A218" s="2">
         <v>39448</v>
       </c>
@@ -40287,8 +41825,15 @@
       <c r="M218">
         <v>25.449322130899191</v>
       </c>
-    </row>
-    <row r="219" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N218">
+        <v>138430</v>
+      </c>
+      <c r="O218">
+        <f t="shared" si="3"/>
+        <v>126.78481476393277</v>
+      </c>
+    </row>
+    <row r="219" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A219" s="2">
         <v>39479</v>
       </c>
@@ -40328,8 +41873,15 @@
       <c r="M219">
         <v>25.592035903438749</v>
       </c>
-    </row>
-    <row r="220" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N219">
+        <v>138346</v>
+      </c>
+      <c r="O219">
+        <f t="shared" si="3"/>
+        <v>126.70788111920135</v>
+      </c>
+    </row>
+    <row r="220" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A220" s="2">
         <v>39508</v>
       </c>
@@ -40369,8 +41921,15 @@
       <c r="M220">
         <v>25.332883696914941</v>
       </c>
-    </row>
-    <row r="221" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N220">
+        <v>138268</v>
+      </c>
+      <c r="O220">
+        <f t="shared" si="3"/>
+        <v>126.6364427348079</v>
+      </c>
+    </row>
+    <row r="221" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A221" s="2">
         <v>39539</v>
       </c>
@@ -40410,8 +41969,15 @@
       <c r="M221">
         <v>25.310100174506751</v>
       </c>
-    </row>
-    <row r="222" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N221">
+        <v>138058</v>
+      </c>
+      <c r="O221">
+        <f t="shared" si="3"/>
+        <v>126.44410862297934</v>
+      </c>
+    </row>
+    <row r="222" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A222" s="2">
         <v>39569</v>
       </c>
@@ -40451,8 +42017,15 @@
       <c r="M222">
         <v>25.1583285171535</v>
       </c>
-    </row>
-    <row r="223" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N222">
+        <v>137872</v>
+      </c>
+      <c r="O222">
+        <f t="shared" si="3"/>
+        <v>126.27375555250265</v>
+      </c>
+    </row>
+    <row r="223" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A223" s="2">
         <v>39600</v>
       </c>
@@ -40492,8 +42065,15 @@
       <c r="M223">
         <v>24.920788562336199</v>
       </c>
-    </row>
-    <row r="224" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N223">
+        <v>137710</v>
+      </c>
+      <c r="O223">
+        <f t="shared" si="3"/>
+        <v>126.12538352337775</v>
+      </c>
+    </row>
+    <row r="224" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A224" s="2">
         <v>39630</v>
       </c>
@@ -40533,8 +42113,15 @@
       <c r="M224">
         <v>24.767896872562488</v>
       </c>
-    </row>
-    <row r="225" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N224">
+        <v>137497</v>
+      </c>
+      <c r="O224">
+        <f t="shared" si="3"/>
+        <v>125.93030178138022</v>
+      </c>
+    </row>
+    <row r="225" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A225" s="2">
         <v>39661</v>
       </c>
@@ -40574,8 +42161,15 @@
       <c r="M225">
         <v>24.279498245744652</v>
       </c>
-    </row>
-    <row r="226" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N225">
+        <v>137230</v>
+      </c>
+      <c r="O225">
+        <f t="shared" si="3"/>
+        <v>125.68576269634106</v>
+      </c>
+    </row>
+    <row r="226" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A226" s="2">
         <v>39692</v>
       </c>
@@ -40615,8 +42209,15 @@
       <c r="M226">
         <v>24.667619246861928</v>
       </c>
-    </row>
-    <row r="227" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N226">
+        <v>136780</v>
+      </c>
+      <c r="O226">
+        <f t="shared" si="3"/>
+        <v>125.27361817099418</v>
+      </c>
+    </row>
+    <row r="227" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A227" s="2">
         <v>39722</v>
       </c>
@@ -40656,8 +42257,15 @@
       <c r="M227">
         <v>24.832255516797201</v>
       </c>
-    </row>
-    <row r="228" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N227">
+        <v>136306</v>
+      </c>
+      <c r="O227">
+        <f t="shared" si="3"/>
+        <v>124.83949260429546</v>
+      </c>
+    </row>
+    <row r="228" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A228" s="2">
         <v>39753</v>
       </c>
@@ -40697,8 +42305,15 @@
       <c r="M228">
         <v>25.504064639916901</v>
       </c>
-    </row>
-    <row r="229" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N228">
+        <v>135540</v>
+      </c>
+      <c r="O228">
+        <f t="shared" si="3"/>
+        <v>124.13793103448276</v>
+      </c>
+    </row>
+    <row r="229" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A229" s="2">
         <v>39783</v>
       </c>
@@ -40738,8 +42353,15 @@
       <c r="M229">
         <v>25.63711974738888</v>
       </c>
-    </row>
-    <row r="230" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N229">
+        <v>134846</v>
+      </c>
+      <c r="O229">
+        <f t="shared" si="3"/>
+        <v>123.50231258872554</v>
+      </c>
+    </row>
+    <row r="230" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A230" s="2">
         <v>39814</v>
       </c>
@@ -40779,8 +42401,15 @@
       <c r="M230">
         <v>25.349137029288709</v>
       </c>
-    </row>
-    <row r="231" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N230">
+        <v>134053</v>
+      </c>
+      <c r="O230">
+        <f t="shared" si="3"/>
+        <v>122.77602234739204</v>
+      </c>
+    </row>
+    <row r="231" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A231" s="2">
         <v>39845</v>
       </c>
@@ -40820,8 +42449,15 @@
       <c r="M231">
         <v>25.402141254794131</v>
       </c>
-    </row>
-    <row r="232" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N231">
+        <v>133351</v>
+      </c>
+      <c r="O231">
+        <f t="shared" si="3"/>
+        <v>122.13307688785089</v>
+      </c>
+    </row>
+    <row r="232" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A232" s="2">
         <v>39873</v>
       </c>
@@ -40861,8 +42497,15 @@
       <c r="M232">
         <v>25.292945389738659</v>
       </c>
-    </row>
-    <row r="233" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N232">
+        <v>132528</v>
+      </c>
+      <c r="O232">
+        <f t="shared" si="3"/>
+        <v>121.37931034482759</v>
+      </c>
+    </row>
+    <row r="233" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A233" s="2">
         <v>39904</v>
       </c>
@@ -40902,8 +42545,15 @@
       <c r="M233">
         <v>25.07060362454428</v>
       </c>
-    </row>
-    <row r="234" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N233">
+        <v>131841</v>
+      </c>
+      <c r="O233">
+        <f t="shared" si="3"/>
+        <v>120.75010303613134</v>
+      </c>
+    </row>
+    <row r="234" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A234" s="2">
         <v>39934</v>
       </c>
@@ -40943,8 +42593,15 @@
       <c r="M234">
         <v>24.672924767092709</v>
       </c>
-    </row>
-    <row r="235" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N234">
+        <v>131492</v>
+      </c>
+      <c r="O234">
+        <f t="shared" si="3"/>
+        <v>120.43046205980674</v>
+      </c>
+    </row>
+    <row r="235" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A235" s="2">
         <v>39965</v>
       </c>
@@ -40984,8 +42641,15 @@
       <c r="M235">
         <v>24.563062681250869</v>
       </c>
-    </row>
-    <row r="236" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N235">
+        <v>131021</v>
+      </c>
+      <c r="O235">
+        <f t="shared" si="3"/>
+        <v>119.999084123277</v>
+      </c>
+    </row>
+    <row r="236" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A236" s="2">
         <v>39995</v>
       </c>
@@ -41025,8 +42689,15 @@
       <c r="M236">
         <v>25.14530458968143</v>
       </c>
-    </row>
-    <row r="237" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N236">
+        <v>130692</v>
+      </c>
+      <c r="O236">
+        <f t="shared" si="3"/>
+        <v>119.69776068141229</v>
+      </c>
+    </row>
+    <row r="237" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A237" s="2">
         <v>40026</v>
       </c>
@@ -41066,8 +42737,15 @@
       <c r="M237">
         <v>24.726519010757581</v>
       </c>
-    </row>
-    <row r="238" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N237">
+        <v>130479</v>
+      </c>
+      <c r="O237">
+        <f t="shared" si="3"/>
+        <v>119.50267893941475</v>
+      </c>
+    </row>
+    <row r="238" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A238" s="2">
         <v>40057</v>
       </c>
@@ -41107,8 +42785,15 @@
       <c r="M238">
         <v>24.548821975899969</v>
       </c>
-    </row>
-    <row r="239" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N238">
+        <v>130259</v>
+      </c>
+      <c r="O238">
+        <f t="shared" si="3"/>
+        <v>119.30118606035627</v>
+      </c>
+    </row>
+    <row r="239" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A239" s="2">
         <v>40087</v>
       </c>
@@ -41148,8 +42833,15 @@
       <c r="M239">
         <v>24.63758703815526</v>
       </c>
-    </row>
-    <row r="240" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N239">
+        <v>130055</v>
+      </c>
+      <c r="O239">
+        <f t="shared" si="3"/>
+        <v>119.11434720886569</v>
+      </c>
+    </row>
+    <row r="240" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A240" s="2">
         <v>40118</v>
       </c>
@@ -41189,8 +42881,15 @@
       <c r="M240">
         <v>24.431499957723851</v>
       </c>
-    </row>
-    <row r="241" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N240">
+        <v>130053</v>
+      </c>
+      <c r="O240">
+        <f t="shared" si="3"/>
+        <v>119.1125154554197</v>
+      </c>
+    </row>
+    <row r="241" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A241" s="2">
         <v>40148</v>
       </c>
@@ -41230,8 +42929,15 @@
       <c r="M241">
         <v>24.470242353405059</v>
       </c>
-    </row>
-    <row r="242" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N241">
+        <v>129778</v>
+      </c>
+      <c r="O241">
+        <f t="shared" si="3"/>
+        <v>118.8606493565966</v>
+      </c>
+    </row>
+    <row r="242" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A242" s="2">
         <v>40179</v>
       </c>
@@ -41271,8 +42977,15 @@
       <c r="M242">
         <v>24.634986384067719</v>
       </c>
-    </row>
-    <row r="243" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N242">
+        <v>129801</v>
+      </c>
+      <c r="O242">
+        <f t="shared" si="3"/>
+        <v>118.88171452122545</v>
+      </c>
+    </row>
+    <row r="243" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A243" s="2">
         <v>40210</v>
       </c>
@@ -41312,8 +43025,15 @@
       <c r="M243">
         <v>24.404102287390032</v>
       </c>
-    </row>
-    <row r="244" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N243">
+        <v>129733</v>
+      </c>
+      <c r="O243">
+        <f t="shared" si="3"/>
+        <v>118.81943490406191</v>
+      </c>
+    </row>
+    <row r="244" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A244" s="2">
         <v>40238</v>
       </c>
@@ -41353,8 +43073,15 @@
       <c r="M244">
         <v>24.33584881326999</v>
       </c>
-    </row>
-    <row r="245" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N244">
+        <v>129897</v>
+      </c>
+      <c r="O244">
+        <f t="shared" si="3"/>
+        <v>118.96963868663278</v>
+      </c>
+    </row>
+    <row r="245" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A245" s="2">
         <v>40269</v>
       </c>
@@ -41394,8 +43121,15 @@
       <c r="M245">
         <v>24.473022071784872</v>
       </c>
-    </row>
-    <row r="246" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N245">
+        <v>130140</v>
+      </c>
+      <c r="O245">
+        <f t="shared" si="3"/>
+        <v>119.19219673032009</v>
+      </c>
+    </row>
+    <row r="246" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A246" s="2">
         <v>40299</v>
       </c>
@@ -41435,8 +43169,15 @@
       <c r="M246">
         <v>24.6139473511363</v>
       </c>
-    </row>
-    <row r="247" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N246">
+        <v>130664</v>
+      </c>
+      <c r="O246">
+        <f t="shared" si="3"/>
+        <v>119.67211613316849</v>
+      </c>
+    </row>
+    <row r="247" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A247" s="2">
         <v>40330</v>
       </c>
@@ -41476,8 +43217,15 @@
       <c r="M247">
         <v>24.754149295774649</v>
       </c>
-    </row>
-    <row r="248" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N247">
+        <v>130527</v>
+      </c>
+      <c r="O247">
+        <f t="shared" si="3"/>
+        <v>119.54664102211842</v>
+      </c>
+    </row>
+    <row r="248" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A248" s="2">
         <v>40360</v>
       </c>
@@ -41517,8 +43265,15 @@
       <c r="M248">
         <v>24.397474423354389</v>
       </c>
-    </row>
-    <row r="249" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N248">
+        <v>130459</v>
+      </c>
+      <c r="O248">
+        <f t="shared" si="3"/>
+        <v>119.48436140495488</v>
+      </c>
+    </row>
+    <row r="249" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A249" s="2">
         <v>40391</v>
       </c>
@@ -41558,8 +43313,15 @@
       <c r="M249">
         <v>24.371992591102781</v>
       </c>
-    </row>
-    <row r="250" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N249">
+        <v>130423</v>
+      </c>
+      <c r="O249">
+        <f t="shared" si="3"/>
+        <v>119.45138984292714</v>
+      </c>
+    </row>
+    <row r="250" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A250" s="2">
         <v>40422</v>
       </c>
@@ -41599,8 +43361,15 @@
       <c r="M250">
         <v>24.850669975301951</v>
       </c>
-    </row>
-    <row r="251" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N250">
+        <v>130371</v>
+      </c>
+      <c r="O250">
+        <f t="shared" si="3"/>
+        <v>119.4037642533315</v>
+      </c>
+    </row>
+    <row r="251" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A251" s="2">
         <v>40452</v>
       </c>
@@ -41640,8 +43409,15 @@
       <c r="M251">
         <v>24.59599415014323</v>
       </c>
-    </row>
-    <row r="252" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N251">
+        <v>130633</v>
+      </c>
+      <c r="O251">
+        <f t="shared" si="3"/>
+        <v>119.64372395475569</v>
+      </c>
+    </row>
+    <row r="252" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A252" s="2">
         <v>40483</v>
       </c>
@@ -41681,8 +43457,15 @@
       <c r="M252">
         <v>24.441739826086959</v>
       </c>
-    </row>
-    <row r="253" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N252">
+        <v>130752</v>
+      </c>
+      <c r="O252">
+        <f t="shared" si="3"/>
+        <v>119.75271328479187</v>
+      </c>
+    </row>
+    <row r="253" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A253" s="2">
         <v>40513</v>
       </c>
@@ -41722,8 +43505,15 @@
       <c r="M253">
         <v>24.34058785240445</v>
       </c>
-    </row>
-    <row r="254" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N253">
+        <v>130839</v>
+      </c>
+      <c r="O253">
+        <f t="shared" si="3"/>
+        <v>119.83239455969226</v>
+      </c>
+    </row>
+    <row r="254" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A254" s="2">
         <v>40544</v>
       </c>
@@ -41763,8 +43553,15 @@
       <c r="M254">
         <v>24.124991493001271</v>
       </c>
-    </row>
-    <row r="255" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N254">
+        <v>130882</v>
+      </c>
+      <c r="O254">
+        <f t="shared" si="3"/>
+        <v>119.87177725878098</v>
+      </c>
+    </row>
+    <row r="255" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A255" s="2">
         <v>40575</v>
       </c>
@@ -41804,8 +43601,15 @@
       <c r="M255">
         <v>24.171714605166091</v>
       </c>
-    </row>
-    <row r="256" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N255">
+        <v>131071</v>
+      </c>
+      <c r="O255">
+        <f t="shared" si="3"/>
+        <v>120.04487795942667</v>
+      </c>
+    </row>
+    <row r="256" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A256" s="2">
         <v>40603</v>
       </c>
@@ -41845,8 +43649,15 @@
       <c r="M256">
         <v>24.233000528358261</v>
       </c>
-    </row>
-    <row r="257" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N256">
+        <v>131296</v>
+      </c>
+      <c r="O256">
+        <f t="shared" si="3"/>
+        <v>120.2509502221001</v>
+      </c>
+    </row>
+    <row r="257" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A257" s="2">
         <v>40634</v>
       </c>
@@ -41886,8 +43697,15 @@
       <c r="M257">
         <v>24.009554477642361</v>
       </c>
-    </row>
-    <row r="258" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N257">
+        <v>131642</v>
+      </c>
+      <c r="O257">
+        <f t="shared" si="3"/>
+        <v>120.56784356825571</v>
+      </c>
+    </row>
+    <row r="258" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A258" s="2">
         <v>40664</v>
       </c>
@@ -41927,8 +43745,15 @@
       <c r="M258">
         <v>23.933308889891698</v>
       </c>
-    </row>
-    <row r="259" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N258">
+        <v>131719</v>
+      </c>
+      <c r="O258">
+        <f t="shared" si="3"/>
+        <v>120.63836607592617</v>
+      </c>
+    </row>
+    <row r="259" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A259" s="2">
         <v>40695</v>
       </c>
@@ -41968,8 +43793,15 @@
       <c r="M259">
         <v>23.64642450759936</v>
       </c>
-    </row>
-    <row r="260" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N259">
+        <v>131944</v>
+      </c>
+      <c r="O259">
+        <f t="shared" ref="O259:O322" si="4">N259/$N$2*100</f>
+        <v>120.84443833859962</v>
+      </c>
+    </row>
+    <row r="260" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A260" s="2">
         <v>40725</v>
       </c>
@@ -42009,8 +43841,15 @@
       <c r="M260">
         <v>23.58349004985206</v>
       </c>
-    </row>
-    <row r="261" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N260">
+        <v>132013</v>
+      </c>
+      <c r="O260">
+        <f t="shared" si="4"/>
+        <v>120.90763383248616</v>
+      </c>
+    </row>
+    <row r="261" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A261" s="2">
         <v>40756</v>
       </c>
@@ -42050,8 +43889,15 @@
       <c r="M261">
         <v>23.261072008905721</v>
       </c>
-    </row>
-    <row r="262" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N261">
+        <v>132123</v>
+      </c>
+      <c r="O261">
+        <f t="shared" si="4"/>
+        <v>121.00838027201539</v>
+      </c>
+    </row>
+    <row r="262" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A262" s="2">
         <v>40787</v>
       </c>
@@ -42091,8 +43937,15 @@
       <c r="M262">
         <v>23.13446295309765</v>
       </c>
-    </row>
-    <row r="263" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N262">
+        <v>132371</v>
+      </c>
+      <c r="O262">
+        <f t="shared" si="4"/>
+        <v>121.23551769931767</v>
+      </c>
+    </row>
+    <row r="263" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A263" s="2">
         <v>40817</v>
       </c>
@@ -42132,8 +43985,15 @@
       <c r="M263">
         <v>23.166568075138379</v>
       </c>
-    </row>
-    <row r="264" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N263">
+        <v>132580</v>
+      </c>
+      <c r="O263">
+        <f t="shared" si="4"/>
+        <v>121.42693593442321</v>
+      </c>
+    </row>
+    <row r="264" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A264" s="2">
         <v>40848</v>
       </c>
@@ -42173,8 +44033,15 @@
       <c r="M264">
         <v>22.94703626142519</v>
       </c>
-    </row>
-    <row r="265" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N264">
+        <v>132721</v>
+      </c>
+      <c r="O264">
+        <f t="shared" si="4"/>
+        <v>121.55607455236526</v>
+      </c>
+    </row>
+    <row r="265" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A265" s="2">
         <v>40878</v>
       </c>
@@ -42214,8 +44081,15 @@
       <c r="M265">
         <v>23.007546921200969</v>
       </c>
-    </row>
-    <row r="266" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N265">
+        <v>132930</v>
+      </c>
+      <c r="O265">
+        <f t="shared" si="4"/>
+        <v>121.74749278747082</v>
+      </c>
+    </row>
+    <row r="266" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A266" s="2">
         <v>40909</v>
       </c>
@@ -42255,8 +44129,15 @@
       <c r="M266">
         <v>23.083267704259359</v>
       </c>
-    </row>
-    <row r="267" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N266">
+        <v>133288</v>
+      </c>
+      <c r="O266">
+        <f t="shared" si="4"/>
+        <v>122.07537665430233</v>
+      </c>
+    </row>
+    <row r="267" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A267" s="2">
         <v>40940</v>
       </c>
@@ -42296,8 +44177,15 @@
       <c r="M267">
         <v>22.85098508709191</v>
       </c>
-    </row>
-    <row r="268" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N267">
+        <v>133525</v>
+      </c>
+      <c r="O267">
+        <f t="shared" si="4"/>
+        <v>122.29243943765169</v>
+      </c>
+    </row>
+    <row r="268" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A268" s="2">
         <v>40969</v>
       </c>
@@ -42337,8 +44225,15 @@
       <c r="M268">
         <v>22.65756710286669</v>
       </c>
-    </row>
-    <row r="269" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N268">
+        <v>133758</v>
+      </c>
+      <c r="O268">
+        <f t="shared" si="4"/>
+        <v>122.50583871410907</v>
+      </c>
+    </row>
+    <row r="269" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A269" s="2">
         <v>41000</v>
       </c>
@@ -42378,8 +44273,15 @@
       <c r="M269">
         <v>22.652816515060351</v>
       </c>
-    </row>
-    <row r="270" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N269">
+        <v>133836</v>
+      </c>
+      <c r="O269">
+        <f t="shared" si="4"/>
+        <v>122.57727709850255</v>
+      </c>
+    </row>
+    <row r="270" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A270" s="2">
         <v>41030</v>
       </c>
@@ -42419,8 +44321,15 @@
       <c r="M270">
         <v>22.434278278464841</v>
       </c>
-    </row>
-    <row r="271" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N270">
+        <v>133951</v>
+      </c>
+      <c r="O270">
+        <f t="shared" si="4"/>
+        <v>122.68260292164675</v>
+      </c>
+    </row>
+    <row r="271" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A271" s="2">
         <v>41061</v>
       </c>
@@ -42460,8 +44369,15 @@
       <c r="M271">
         <v>22.607897438632509</v>
       </c>
-    </row>
-    <row r="272" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N271">
+        <v>134027</v>
+      </c>
+      <c r="O271">
+        <f t="shared" si="4"/>
+        <v>122.75220955259422</v>
+      </c>
+    </row>
+    <row r="272" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A272" s="2">
         <v>41091</v>
       </c>
@@ -42501,8 +44417,15 @@
       <c r="M272">
         <v>22.412286609762599</v>
       </c>
-    </row>
-    <row r="273" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N272">
+        <v>134170</v>
+      </c>
+      <c r="O272">
+        <f t="shared" si="4"/>
+        <v>122.88317992398223</v>
+      </c>
+    </row>
+    <row r="273" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A273" s="2">
         <v>41122</v>
       </c>
@@ -42542,8 +44465,15 @@
       <c r="M273">
         <v>22.19072312461909</v>
       </c>
-    </row>
-    <row r="274" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N273">
+        <v>134347</v>
+      </c>
+      <c r="O273">
+        <f t="shared" si="4"/>
+        <v>123.045290103952</v>
+      </c>
+    </row>
+    <row r="274" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A274" s="2">
         <v>41153</v>
       </c>
@@ -42583,8 +44513,15 @@
       <c r="M274">
         <v>21.858264272256552</v>
       </c>
-    </row>
-    <row r="275" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N274">
+        <v>134550</v>
+      </c>
+      <c r="O274">
+        <f t="shared" si="4"/>
+        <v>123.23121307871961</v>
+      </c>
+    </row>
+    <row r="275" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A275" s="2">
         <v>41183</v>
       </c>
@@ -42624,8 +44561,15 @@
       <c r="M275">
         <v>21.83273117338004</v>
       </c>
-    </row>
-    <row r="276" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N275">
+        <v>134696</v>
+      </c>
+      <c r="O275">
+        <f t="shared" si="4"/>
+        <v>123.36493108027659</v>
+      </c>
+    </row>
+    <row r="276" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A276" s="2">
         <v>41214</v>
       </c>
@@ -42665,8 +44609,15 @@
       <c r="M276">
         <v>21.980164717964929</v>
       </c>
-    </row>
-    <row r="277" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N276">
+        <v>134828</v>
+      </c>
+      <c r="O276">
+        <f t="shared" si="4"/>
+        <v>123.48582680771167</v>
+      </c>
+    </row>
+    <row r="277" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A277" s="2">
         <v>41244</v>
       </c>
@@ -42706,8 +44657,15 @@
       <c r="M277">
         <v>21.975927324955752</v>
       </c>
-    </row>
-    <row r="278" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N277">
+        <v>135072</v>
+      </c>
+      <c r="O277">
+        <f t="shared" si="4"/>
+        <v>123.70930072812199</v>
+      </c>
+    </row>
+    <row r="278" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A278" s="2">
         <v>41275</v>
       </c>
@@ -42747,8 +44705,15 @@
       <c r="M278">
         <v>21.88944725601467</v>
       </c>
-    </row>
-    <row r="279" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N278">
+        <v>135283</v>
+      </c>
+      <c r="O278">
+        <f t="shared" si="4"/>
+        <v>123.90255071667353</v>
+      </c>
+    </row>
+    <row r="279" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A279" s="2">
         <v>41306</v>
       </c>
@@ -42788,8 +44753,15 @@
       <c r="M279">
         <v>21.691057246856381</v>
       </c>
-    </row>
-    <row r="280" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N279">
+        <v>135569</v>
+      </c>
+      <c r="O279">
+        <f t="shared" si="4"/>
+        <v>124.16449145944956</v>
+      </c>
+    </row>
+    <row r="280" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A280" s="2">
         <v>41334</v>
       </c>
@@ -42829,8 +44801,15 @@
       <c r="M280">
         <v>21.731768814220089</v>
       </c>
-    </row>
-    <row r="281" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N280">
+        <v>135699</v>
+      </c>
+      <c r="O280">
+        <f t="shared" si="4"/>
+        <v>124.28355543343865</v>
+      </c>
+    </row>
+    <row r="281" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A281" s="2">
         <v>41365</v>
       </c>
@@ -42870,8 +44849,15 @@
       <c r="M281">
         <v>21.72216725988007</v>
       </c>
-    </row>
-    <row r="282" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N281">
+        <v>135896</v>
+      </c>
+      <c r="O281">
+        <f t="shared" si="4"/>
+        <v>124.4639831478683</v>
+      </c>
+    </row>
+    <row r="282" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A282" s="2">
         <v>41395</v>
       </c>
@@ -42911,8 +44897,15 @@
       <c r="M282">
         <v>21.75442502497415</v>
       </c>
-    </row>
-    <row r="283" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N282">
+        <v>136122</v>
+      </c>
+      <c r="O282">
+        <f t="shared" si="4"/>
+        <v>124.67097128726475</v>
+      </c>
+    </row>
+    <row r="283" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A283" s="2">
         <v>41426</v>
       </c>
@@ -42952,8 +44945,15 @@
       <c r="M283">
         <v>21.665282313594339</v>
       </c>
-    </row>
-    <row r="284" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N283">
+        <v>136284</v>
+      </c>
+      <c r="O283">
+        <f t="shared" si="4"/>
+        <v>124.81934331638962</v>
+      </c>
+    </row>
+    <row r="284" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A284" s="2">
         <v>41456</v>
       </c>
@@ -42993,8 +44993,15 @@
       <c r="M284">
         <v>21.818068662225311</v>
       </c>
-    </row>
-    <row r="285" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N284">
+        <v>136406</v>
+      </c>
+      <c r="O284">
+        <f t="shared" si="4"/>
+        <v>124.93108027659477</v>
+      </c>
+    </row>
+    <row r="285" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A285" s="2">
         <v>41487</v>
       </c>
@@ -43034,8 +45041,15 @@
       <c r="M285">
         <v>21.923870658682642</v>
       </c>
-    </row>
-    <row r="286" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N285">
+        <v>136667</v>
+      </c>
+      <c r="O285">
+        <f t="shared" si="4"/>
+        <v>125.17012410129598</v>
+      </c>
+    </row>
+    <row r="286" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A286" s="2">
         <v>41518</v>
       </c>
@@ -43075,8 +45089,15 @@
       <c r="M286">
         <v>22.032720087691452</v>
       </c>
-    </row>
-    <row r="287" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N286">
+        <v>136857</v>
+      </c>
+      <c r="O286">
+        <f t="shared" si="4"/>
+        <v>125.34414067866466</v>
+      </c>
+    </row>
+    <row r="287" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A287" s="2">
         <v>41548</v>
       </c>
@@ -43116,8 +45137,15 @@
       <c r="M287">
         <v>22.076111485531669</v>
       </c>
-    </row>
-    <row r="288" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N287">
+        <v>137069</v>
+      </c>
+      <c r="O287">
+        <f t="shared" si="4"/>
+        <v>125.53830654393919</v>
+      </c>
+    </row>
+    <row r="288" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A288" s="2">
         <v>41579</v>
       </c>
@@ -43157,8 +45185,15 @@
       <c r="M288">
         <v>22.044875422599699</v>
       </c>
-    </row>
-    <row r="289" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N288">
+        <v>137327</v>
+      </c>
+      <c r="O288">
+        <f t="shared" si="4"/>
+        <v>125.7746027384714</v>
+      </c>
+    </row>
+    <row r="289" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A289" s="2">
         <v>41609</v>
       </c>
@@ -43198,8 +45233,15 @@
       <c r="M289">
         <v>22.02736706559612</v>
       </c>
-    </row>
-    <row r="290" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N289">
+        <v>137374</v>
+      </c>
+      <c r="O289">
+        <f t="shared" si="4"/>
+        <v>125.81764894445209</v>
+      </c>
+    </row>
+    <row r="290" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A290" s="2">
         <v>41640</v>
       </c>
@@ -43239,8 +45281,15 @@
       <c r="M290">
         <v>21.811835168343489</v>
       </c>
-    </row>
-    <row r="291" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N290">
+        <v>137564</v>
+      </c>
+      <c r="O290">
+        <f t="shared" si="4"/>
+        <v>125.99166552182078</v>
+      </c>
+    </row>
+    <row r="291" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A291" s="2">
         <v>41671</v>
       </c>
@@ -43280,8 +45329,15 @@
       <c r="M291">
         <v>21.864012620798459</v>
       </c>
-    </row>
-    <row r="292" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N291">
+        <v>137715</v>
+      </c>
+      <c r="O291">
+        <f t="shared" si="4"/>
+        <v>126.12996290699272</v>
+      </c>
+    </row>
+    <row r="292" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A292" s="2">
         <v>41699</v>
       </c>
@@ -43321,8 +45377,15 @@
       <c r="M292">
         <v>22.130139003720551</v>
       </c>
-    </row>
-    <row r="293" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N292">
+        <v>137987</v>
+      </c>
+      <c r="O292">
+        <f t="shared" si="4"/>
+        <v>126.37908137564683</v>
+      </c>
+    </row>
+    <row r="293" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A293" s="2">
         <v>41730</v>
       </c>
@@ -43362,8 +45425,15 @@
       <c r="M293">
         <v>21.853973852783351</v>
       </c>
-    </row>
-    <row r="294" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N293">
+        <v>138316</v>
+      </c>
+      <c r="O293">
+        <f t="shared" si="4"/>
+        <v>126.68040481751157</v>
+      </c>
+    </row>
+    <row r="294" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A294" s="2">
         <v>41760</v>
       </c>
@@ -43403,8 +45473,15 @@
       <c r="M294">
         <v>21.917162321105099</v>
       </c>
-    </row>
-    <row r="295" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N294">
+        <v>138562</v>
+      </c>
+      <c r="O294">
+        <f t="shared" si="4"/>
+        <v>126.90571049136786</v>
+      </c>
+    </row>
+    <row r="295" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A295" s="2">
         <v>41791</v>
       </c>
@@ -43444,8 +45521,15 @@
       <c r="M295">
         <v>21.88757548335078</v>
       </c>
-    </row>
-    <row r="296" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N295">
+        <v>138866</v>
+      </c>
+      <c r="O295">
+        <f t="shared" si="4"/>
+        <v>127.18413701515776</v>
+      </c>
+    </row>
+    <row r="296" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A296" s="2">
         <v>41821</v>
       </c>
@@ -43485,8 +45569,15 @@
       <c r="M296">
         <v>21.9300741413354</v>
       </c>
-    </row>
-    <row r="297" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N296">
+        <v>139068</v>
+      </c>
+      <c r="O296">
+        <f t="shared" si="4"/>
+        <v>127.36914411320237</v>
+      </c>
+    </row>
+    <row r="297" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A297" s="2">
         <v>41852</v>
       </c>
@@ -43526,8 +45617,15 @@
       <c r="M297">
         <v>21.85128331561074</v>
       </c>
-    </row>
-    <row r="298" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N297">
+        <v>139298</v>
+      </c>
+      <c r="O297">
+        <f t="shared" si="4"/>
+        <v>127.57979575949076</v>
+      </c>
+    </row>
+    <row r="298" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A298" s="2">
         <v>41883</v>
       </c>
@@ -43567,8 +45665,15 @@
       <c r="M298">
         <v>21.734789731334079</v>
       </c>
-    </row>
-    <row r="299" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N298">
+        <v>139578</v>
+      </c>
+      <c r="O298">
+        <f t="shared" si="4"/>
+        <v>127.83624124192883</v>
+      </c>
+    </row>
+    <row r="299" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A299" s="2">
         <v>41913</v>
       </c>
@@ -43608,8 +45713,15 @@
       <c r="M299">
         <v>21.868348623853208</v>
       </c>
-    </row>
-    <row r="300" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N299">
+        <v>139805</v>
+      </c>
+      <c r="O299">
+        <f t="shared" si="4"/>
+        <v>128.04414525804825</v>
+      </c>
+    </row>
+    <row r="300" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A300" s="2">
         <v>41944</v>
       </c>
@@ -43649,8 +45761,15 @@
       <c r="M300">
         <v>22.068936887781408</v>
       </c>
-    </row>
-    <row r="301" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N300">
+        <v>140117</v>
+      </c>
+      <c r="O300">
+        <f t="shared" si="4"/>
+        <v>128.32989879562211</v>
+      </c>
+    </row>
+    <row r="301" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A301" s="2">
         <v>41974</v>
       </c>
@@ -43690,8 +45809,15 @@
       <c r="M301">
         <v>21.965614312363979</v>
       </c>
-    </row>
-    <row r="302" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N301">
+        <v>140372</v>
+      </c>
+      <c r="O301">
+        <f t="shared" si="4"/>
+        <v>128.56344735998536</v>
+      </c>
+    </row>
+    <row r="302" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A302" s="2">
         <v>42005</v>
       </c>
@@ -43731,8 +45857,15 @@
       <c r="M302">
         <v>22.300961048685881</v>
       </c>
-    </row>
-    <row r="303" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N302">
+        <v>140606</v>
+      </c>
+      <c r="O302">
+        <f t="shared" si="4"/>
+        <v>128.77776251316573</v>
+      </c>
+    </row>
+    <row r="303" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A303" s="2">
         <v>42036</v>
       </c>
@@ -43772,8 +45905,15 @@
       <c r="M303">
         <v>22.20409546091841</v>
       </c>
-    </row>
-    <row r="304" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N303">
+        <v>140844</v>
+      </c>
+      <c r="O303">
+        <f t="shared" si="4"/>
+        <v>128.99574117323809</v>
+      </c>
+    </row>
+    <row r="304" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A304" s="2">
         <v>42064</v>
       </c>
@@ -43813,8 +45953,15 @@
       <c r="M304">
         <v>22.18044924116132</v>
       </c>
-    </row>
-    <row r="305" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N304">
+        <v>140930</v>
+      </c>
+      <c r="O304">
+        <f t="shared" si="4"/>
+        <v>129.07450657141547</v>
+      </c>
+    </row>
+    <row r="305" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A305" s="2">
         <v>42095</v>
       </c>
@@ -43854,8 +46001,15 @@
       <c r="M305">
         <v>22.23921673842958</v>
       </c>
-    </row>
-    <row r="306" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N305">
+        <v>141192</v>
+      </c>
+      <c r="O305">
+        <f t="shared" si="4"/>
+        <v>129.31446627283967</v>
+      </c>
+    </row>
+    <row r="306" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A306" s="2">
         <v>42125</v>
       </c>
@@ -43895,8 +46049,15 @@
       <c r="M306">
         <v>22.1984995535541</v>
       </c>
-    </row>
-    <row r="307" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N306">
+        <v>141536</v>
+      </c>
+      <c r="O306">
+        <f t="shared" si="4"/>
+        <v>129.62952786554928</v>
+      </c>
+    </row>
+    <row r="307" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A307" s="2">
         <v>42156</v>
       </c>
@@ -43936,8 +46097,15 @@
       <c r="M307">
         <v>22.146341290230961</v>
       </c>
-    </row>
-    <row r="308" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N307">
+        <v>141742</v>
+      </c>
+      <c r="O307">
+        <f t="shared" si="4"/>
+        <v>129.81819847048587</v>
+      </c>
+    </row>
+    <row r="308" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A308" s="2">
         <v>42186</v>
       </c>
@@ -43977,8 +46145,15 @@
       <c r="M308">
         <v>22.01177503940762</v>
       </c>
-    </row>
-    <row r="309" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N308">
+        <v>141996</v>
+      </c>
+      <c r="O308">
+        <f t="shared" si="4"/>
+        <v>130.05083115812613</v>
+      </c>
+    </row>
+    <row r="309" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A309" s="2">
         <v>42217</v>
       </c>
@@ -44018,8 +46193,15 @@
       <c r="M309">
         <v>22.085914675811921</v>
       </c>
-    </row>
-    <row r="310" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N309">
+        <v>142153</v>
+      </c>
+      <c r="O309">
+        <f t="shared" si="4"/>
+        <v>130.19462380363603</v>
+      </c>
+    </row>
+    <row r="310" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A310" s="2">
         <v>42248</v>
       </c>
@@ -44059,8 +46241,15 @@
       <c r="M310">
         <v>22.205495087900729</v>
       </c>
-    </row>
-    <row r="311" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N310">
+        <v>142253</v>
+      </c>
+      <c r="O310">
+        <f t="shared" si="4"/>
+        <v>130.28621147593532</v>
+      </c>
+    </row>
+    <row r="311" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A311" s="2">
         <v>42278</v>
       </c>
@@ -44100,8 +46289,15 @@
       <c r="M311">
         <v>21.972338868973591</v>
       </c>
-    </row>
-    <row r="312" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N311">
+        <v>142574</v>
+      </c>
+      <c r="O311">
+        <f t="shared" si="4"/>
+        <v>130.58020790401613</v>
+      </c>
+    </row>
+    <row r="312" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A312" s="2">
         <v>42309</v>
       </c>
@@ -44141,8 +46337,15 @@
       <c r="M312">
         <v>21.8456101040221</v>
       </c>
-    </row>
-    <row r="313" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N312">
+        <v>142846</v>
+      </c>
+      <c r="O312">
+        <f t="shared" si="4"/>
+        <v>130.82932637267024</v>
+      </c>
+    </row>
+    <row r="313" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A313" s="2">
         <v>42339</v>
       </c>
@@ -44182,8 +46385,15 @@
       <c r="M313">
         <v>22.075204510423571</v>
       </c>
-    </row>
-    <row r="314" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N313">
+        <v>143085</v>
+      </c>
+      <c r="O313">
+        <f t="shared" si="4"/>
+        <v>131.04822090946558</v>
+      </c>
+    </row>
+    <row r="314" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A314" s="2">
         <v>42370</v>
       </c>
@@ -44223,8 +46433,15 @@
       <c r="M314">
         <v>22.081469330327181</v>
       </c>
-    </row>
-    <row r="315" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N314">
+        <v>143211</v>
+      </c>
+      <c r="O314">
+        <f t="shared" si="4"/>
+        <v>131.16362137656273</v>
+      </c>
+    </row>
+    <row r="315" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A315" s="2">
         <v>42401</v>
       </c>
@@ -44264,8 +46481,15 @@
       <c r="M315">
         <v>22.17927524728557</v>
       </c>
-    </row>
-    <row r="316" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N315">
+        <v>143448</v>
+      </c>
+      <c r="O315">
+        <f t="shared" si="4"/>
+        <v>131.38068415991208</v>
+      </c>
+    </row>
+    <row r="316" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A316" s="2">
         <v>42430</v>
       </c>
@@ -44305,8 +46529,15 @@
       <c r="M316">
         <v>22.14374087489071</v>
       </c>
-    </row>
-    <row r="317" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N316">
+        <v>143673</v>
+      </c>
+      <c r="O316">
+        <f t="shared" si="4"/>
+        <v>131.58675642258552</v>
+      </c>
+    </row>
+    <row r="317" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A317" s="2">
         <v>42461</v>
       </c>
@@ -44346,8 +46577,15 @@
       <c r="M317">
         <v>21.89424242684251</v>
       </c>
-    </row>
-    <row r="318" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N317">
+        <v>143826</v>
+      </c>
+      <c r="O317">
+        <f t="shared" si="4"/>
+        <v>131.72688556120346</v>
+      </c>
+    </row>
+    <row r="318" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A318" s="2">
         <v>42491</v>
       </c>
@@ -44387,8 +46625,15 @@
       <c r="M318">
         <v>22.014579147800529</v>
       </c>
-    </row>
-    <row r="319" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N318">
+        <v>143869</v>
+      </c>
+      <c r="O318">
+        <f t="shared" si="4"/>
+        <v>131.76626826029215</v>
+      </c>
+    </row>
+    <row r="319" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A319" s="2">
         <v>42522</v>
       </c>
@@ -44428,8 +46673,15 @@
       <c r="M319">
         <v>21.89601765372203</v>
       </c>
-    </row>
-    <row r="320" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N319">
+        <v>144166</v>
+      </c>
+      <c r="O319">
+        <f t="shared" si="4"/>
+        <v>132.0382836470211</v>
+      </c>
+    </row>
+    <row r="320" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A320" s="2">
         <v>42552</v>
       </c>
@@ -44469,8 +46721,15 @@
       <c r="M320">
         <v>22.37101984359434</v>
       </c>
-    </row>
-    <row r="321" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N320">
+        <v>144457</v>
+      </c>
+      <c r="O320">
+        <f t="shared" si="4"/>
+        <v>132.30480377341209</v>
+      </c>
+    </row>
+    <row r="321" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A321" s="2">
         <v>42583</v>
       </c>
@@ -44510,8 +46769,15 @@
       <c r="M321">
         <v>22.279669914597761</v>
       </c>
-    </row>
-    <row r="322" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N321">
+        <v>144633</v>
+      </c>
+      <c r="O321">
+        <f t="shared" si="4"/>
+        <v>132.46599807665888</v>
+      </c>
+    </row>
+    <row r="322" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A322" s="2">
         <v>42614</v>
       </c>
@@ -44551,8 +46817,15 @@
       <c r="M322">
         <v>21.8199547619149</v>
       </c>
-    </row>
-    <row r="323" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N322">
+        <v>144882</v>
+      </c>
+      <c r="O322">
+        <f t="shared" si="4"/>
+        <v>132.69405138068416</v>
+      </c>
+    </row>
+    <row r="323" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A323" s="2">
         <v>42644</v>
       </c>
@@ -44592,8 +46865,15 @@
       <c r="M323">
         <v>21.851279413573831</v>
       </c>
-    </row>
-    <row r="324" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N323">
+        <v>145006</v>
+      </c>
+      <c r="O323">
+        <f t="shared" ref="O323:O330" si="5">N323/$N$2*100</f>
+        <v>132.80762009433531</v>
+      </c>
+    </row>
+    <row r="324" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A324" s="2">
         <v>42675</v>
       </c>
@@ -44633,8 +46913,15 @@
       <c r="M324">
         <v>21.7438441838808</v>
       </c>
-    </row>
-    <row r="325" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N324">
+        <v>145170</v>
+      </c>
+      <c r="O324">
+        <f t="shared" si="5"/>
+        <v>132.95782387690619</v>
+      </c>
+    </row>
+    <row r="325" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A325" s="2">
         <v>42705</v>
       </c>
@@ -44674,8 +46961,15 @@
       <c r="M325">
         <v>21.621434812338549</v>
       </c>
-    </row>
-    <row r="326" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N325">
+        <v>145325</v>
+      </c>
+      <c r="O325">
+        <f t="shared" si="5"/>
+        <v>133.0997847689701</v>
+      </c>
+    </row>
+    <row r="326" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A326" s="2">
         <v>42736</v>
       </c>
@@ -44715,8 +47009,15 @@
       <c r="M326">
         <v>21.42</v>
       </c>
-    </row>
-    <row r="327" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N326">
+        <v>145541</v>
+      </c>
+      <c r="O326">
+        <f t="shared" si="5"/>
+        <v>133.29761414113662</v>
+      </c>
+    </row>
+    <row r="327" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A327" s="2">
         <v>42767</v>
       </c>
@@ -44756,8 +47057,15 @@
       <c r="M327">
         <v>21.27652170085026</v>
       </c>
-    </row>
-    <row r="328" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N327">
+        <v>145773</v>
+      </c>
+      <c r="O327">
+        <f t="shared" si="5"/>
+        <v>133.51009754087099</v>
+      </c>
+    </row>
+    <row r="328" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A328" s="2">
         <v>42795</v>
       </c>
@@ -44797,8 +47105,15 @@
       <c r="M328">
         <v>21.425075639304669</v>
       </c>
-    </row>
-    <row r="329" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N328">
+        <v>145823</v>
+      </c>
+      <c r="O328">
+        <f t="shared" si="5"/>
+        <v>133.55589137702066</v>
+      </c>
+    </row>
+    <row r="329" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A329" s="2">
         <v>42826</v>
       </c>
@@ -44838,8 +47153,15 @@
       <c r="M329">
         <v>21.316828807258521</v>
       </c>
-    </row>
-    <row r="330" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N329">
+        <v>145997</v>
+      </c>
+      <c r="O329">
+        <f t="shared" si="5"/>
+        <v>133.71525392682145</v>
+      </c>
+    </row>
+    <row r="330" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A330" s="2">
         <v>42856</v>
       </c>
@@ -44878,6 +47200,13 @@
       </c>
       <c r="M330">
         <v>21.449649607939691</v>
+      </c>
+      <c r="N330">
+        <v>146135</v>
+      </c>
+      <c r="O330">
+        <f t="shared" si="5"/>
+        <v>133.8416449145945</v>
       </c>
     </row>
   </sheetData>
